--- a/plotting/muscle_pca.xlsx
+++ b/plotting/muscle_pca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\ABRF_GBIRG_OntologyStudy\plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D0F5BF1-5D93-41B7-84EE-98803035DA1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB88613A-F405-423A-9D5A-E6FF6A585263}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22725" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22725" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="muscle_pca" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="876">
   <si>
     <t>PC1</t>
   </si>
@@ -2642,12 +2642,18 @@
   </si>
   <si>
     <t>Sample</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3481,10 +3487,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E868"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="D303" sqref="D303"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3520,7 +3528,7 @@
         <v>-8.6813352080387993</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -3537,7 +3545,7 @@
         <v>-5.9731455957525803</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -3554,7 +3562,7 @@
         <v>-0.51483336568861904</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -3571,7 +3579,7 @@
         <v>-0.18086401094462201</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -3588,7 +3596,7 @@
         <v>-5.8225638221721097</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -3605,7 +3613,7 @@
         <v>2.05066622610713</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -3622,7 +3630,7 @@
         <v>-1.792207285033</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -3639,7 +3647,7 @@
         <v>-11.4547882244163</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -3656,7 +3664,7 @@
         <v>15.6147436289864</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -3673,7 +3681,7 @@
         <v>3.5921450599076299</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -3690,7 +3698,7 @@
         <v>-1.81807939206806</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -3707,7 +3715,7 @@
         <v>4.63571836511258</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -3724,7 +3732,7 @@
         <v>1.9477386974851401</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
@@ -3741,7 +3749,7 @@
         <v>-3.6786216749895901</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
@@ -3758,7 +3766,7 @@
         <v>5.88706292340418</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -3775,7 +3783,7 @@
         <v>-1.1597461232602599</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -3792,7 +3800,7 @@
         <v>4.9310890291137897</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -3809,7 +3817,7 @@
         <v>4.3891531683783596</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
@@ -3826,7 +3834,7 @@
         <v>-11.555054756686101</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
@@ -3843,7 +3851,7 @@
         <v>0.52633416365593499</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
@@ -3860,7 +3868,7 @@
         <v>4.1066904122781001</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -3877,7 +3885,7 @@
         <v>-3.8958963871038601</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
@@ -3894,7 +3902,7 @@
         <v>-0.39549098750970002</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
@@ -3911,7 +3919,7 @@
         <v>-5.5911876147353103</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
@@ -3928,7 +3936,7 @@
         <v>7.8577329755235796</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
@@ -3945,7 +3953,7 @@
         <v>-4.6320283793251802</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E27" t="s">
         <v>5</v>
@@ -3962,7 +3970,7 @@
         <v>-7.0124781889567798</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E28" t="s">
         <v>5</v>
@@ -3979,7 +3987,7 @@
         <v>-3.1848201609106699</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E29" t="s">
         <v>5</v>
@@ -3996,7 +4004,7 @@
         <v>6.8035967259812802</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
@@ -4013,7 +4021,7 @@
         <v>1.2023421573316</v>
       </c>
       <c r="D31" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E31" t="s">
         <v>5</v>
@@ -4030,7 +4038,7 @@
         <v>-4.5541507269626802</v>
       </c>
       <c r="D32" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E32" t="s">
         <v>5</v>
@@ -4047,7 +4055,7 @@
         <v>24.933079563289098</v>
       </c>
       <c r="D33" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E33" t="s">
         <v>5</v>
@@ -4064,7 +4072,7 @@
         <v>-6.4709052176826498</v>
       </c>
       <c r="D34" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E34" t="s">
         <v>5</v>
@@ -4081,7 +4089,7 @@
         <v>-5.3595112807908301</v>
       </c>
       <c r="D35" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E35" t="s">
         <v>5</v>
@@ -4098,7 +4106,7 @@
         <v>-5.6118571897362504</v>
       </c>
       <c r="D36" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E36" t="s">
         <v>5</v>
@@ -4115,7 +4123,7 @@
         <v>-2.23537301862947</v>
       </c>
       <c r="D37" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E37" t="s">
         <v>5</v>
@@ -4132,7 +4140,7 @@
         <v>-1.5789776636428099</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
@@ -4149,7 +4157,7 @@
         <v>-0.85190381508049196</v>
       </c>
       <c r="D39" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E39" t="s">
         <v>5</v>
@@ -4166,7 +4174,7 @@
         <v>-7.4517378983860496</v>
       </c>
       <c r="D40" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E40" t="s">
         <v>5</v>
@@ -4183,7 +4191,7 @@
         <v>7.4453921333569202</v>
       </c>
       <c r="D41" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E41" t="s">
         <v>5</v>
@@ -4200,7 +4208,7 @@
         <v>-0.76724626692069198</v>
       </c>
       <c r="D42" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -4217,7 +4225,7 @@
         <v>11.0596389716651</v>
       </c>
       <c r="D43" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E43" t="s">
         <v>5</v>
@@ -4234,7 +4242,7 @@
         <v>-8.8605419873978608</v>
       </c>
       <c r="D44" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E44" t="s">
         <v>5</v>
@@ -4251,7 +4259,7 @@
         <v>-4.1519101965771297</v>
       </c>
       <c r="D45" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E45" t="s">
         <v>5</v>
@@ -4268,7 +4276,7 @@
         <v>1.25260938365459</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E46" t="s">
         <v>5</v>
@@ -4285,7 +4293,7 @@
         <v>-9.2265855168580906</v>
       </c>
       <c r="D47" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
@@ -4302,7 +4310,7 @@
         <v>2.2968914960822202</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E48" t="s">
         <v>5</v>
@@ -4319,7 +4327,7 @@
         <v>12.042466696441799</v>
       </c>
       <c r="D49" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E49" t="s">
         <v>5</v>
@@ -4336,7 +4344,7 @@
         <v>2.2516311720187501</v>
       </c>
       <c r="D50" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E50" t="s">
         <v>5</v>
@@ -4353,7 +4361,7 @@
         <v>-3.5385159518440301</v>
       </c>
       <c r="D51" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E51" t="s">
         <v>5</v>
@@ -4370,7 +4378,7 @@
         <v>-7.0202406486088504</v>
       </c>
       <c r="D52" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E52" t="s">
         <v>5</v>
@@ -4387,7 +4395,7 @@
         <v>7.1138187999765599</v>
       </c>
       <c r="D53" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E53" t="s">
         <v>5</v>
@@ -4404,7 +4412,7 @@
         <v>1.51792542522309</v>
       </c>
       <c r="D54" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E54" t="s">
         <v>5</v>
@@ -4421,7 +4429,7 @@
         <v>3.0291380384606401</v>
       </c>
       <c r="D55" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E55" t="s">
         <v>5</v>
@@ -4438,7 +4446,7 @@
         <v>7.4192110574697097</v>
       </c>
       <c r="D56" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E56" t="s">
         <v>5</v>
@@ -4455,7 +4463,7 @@
         <v>-8.0429240686174399</v>
       </c>
       <c r="D57" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E57" t="s">
         <v>5</v>
@@ -4472,7 +4480,7 @@
         <v>-5.7846904261075904</v>
       </c>
       <c r="D58" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E58" t="s">
         <v>5</v>
@@ -4489,7 +4497,7 @@
         <v>-6.5549987445893798</v>
       </c>
       <c r="D59" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E59" t="s">
         <v>5</v>
@@ -4506,7 +4514,7 @@
         <v>14.419199444807001</v>
       </c>
       <c r="D60" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E60" t="s">
         <v>5</v>
@@ -4523,7 +4531,7 @@
         <v>2.93415603708304</v>
       </c>
       <c r="D61" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E61" t="s">
         <v>5</v>
@@ -4540,7 +4548,7 @@
         <v>2.0661105583153399</v>
       </c>
       <c r="D62" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E62" t="s">
         <v>5</v>
@@ -4557,7 +4565,7 @@
         <v>16.607413983387801</v>
       </c>
       <c r="D63" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E63" t="s">
         <v>5</v>
@@ -4574,7 +4582,7 @@
         <v>-6.32204079767659</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E64" t="s">
         <v>5</v>
@@ -4591,7 +4599,7 @@
         <v>13.3768844122161</v>
       </c>
       <c r="D65" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E65" t="s">
         <v>5</v>
@@ -4608,7 +4616,7 @@
         <v>-6.9420942450034602</v>
       </c>
       <c r="D66" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E66" t="s">
         <v>5</v>
@@ -4625,7 +4633,7 @@
         <v>-1.4469623523601101</v>
       </c>
       <c r="D67" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E67" t="s">
         <v>5</v>
@@ -4642,7 +4650,7 @@
         <v>5.0609391927943497</v>
       </c>
       <c r="D68" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E68" t="s">
         <v>5</v>
@@ -4659,7 +4667,7 @@
         <v>-5.2342989241142002</v>
       </c>
       <c r="D69" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E69" t="s">
         <v>5</v>
@@ -4676,7 +4684,7 @@
         <v>-4.1875230148312301</v>
       </c>
       <c r="D70" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E70" t="s">
         <v>5</v>
@@ -4693,7 +4701,7 @@
         <v>-9.9597987983501604</v>
       </c>
       <c r="D71" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E71" t="s">
         <v>5</v>
@@ -4710,7 +4718,7 @@
         <v>11.606023457897599</v>
       </c>
       <c r="D72" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E72" t="s">
         <v>5</v>
@@ -4727,7 +4735,7 @@
         <v>-7.5581690256478904</v>
       </c>
       <c r="D73" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E73" t="s">
         <v>5</v>
@@ -4744,7 +4752,7 @@
         <v>2.26149233792257</v>
       </c>
       <c r="D74" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E74" t="s">
         <v>5</v>
@@ -4761,7 +4769,7 @@
         <v>-0.38632500088541</v>
       </c>
       <c r="D75" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E75" t="s">
         <v>5</v>
@@ -4778,7 +4786,7 @@
         <v>0.92334087598745396</v>
       </c>
       <c r="D76" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E76" t="s">
         <v>5</v>
@@ -4795,7 +4803,7 @@
         <v>1.79212247387593</v>
       </c>
       <c r="D77" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E77" t="s">
         <v>5</v>
@@ -4812,7 +4820,7 @@
         <v>0.295110849608131</v>
       </c>
       <c r="D78" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E78" t="s">
         <v>5</v>
@@ -4829,7 +4837,7 @@
         <v>-1.96642545426292</v>
       </c>
       <c r="D79" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E79" t="s">
         <v>5</v>
@@ -4846,7 +4854,7 @@
         <v>-4.4544930869906203</v>
       </c>
       <c r="D80" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E80" t="s">
         <v>5</v>
@@ -4863,7 +4871,7 @@
         <v>-1.02673616684689</v>
       </c>
       <c r="D81" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E81" t="s">
         <v>5</v>
@@ -4880,7 +4888,7 @@
         <v>-2.5667066015750999</v>
       </c>
       <c r="D82" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E82" t="s">
         <v>5</v>
@@ -4897,7 +4905,7 @@
         <v>9.9859035473402695</v>
       </c>
       <c r="D83" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E83" t="s">
         <v>5</v>
@@ -4914,7 +4922,7 @@
         <v>2.91224528063483</v>
       </c>
       <c r="D84" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E84" t="s">
         <v>5</v>
@@ -4931,7 +4939,7 @@
         <v>4.6004534427662804</v>
       </c>
       <c r="D85" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E85" t="s">
         <v>5</v>
@@ -4948,7 +4956,7 @@
         <v>5.9417176685532498</v>
       </c>
       <c r="D86" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E86" t="s">
         <v>5</v>
@@ -4965,7 +4973,7 @@
         <v>-6.1456920349016597</v>
       </c>
       <c r="D87" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E87" t="s">
         <v>5</v>
@@ -4982,7 +4990,7 @@
         <v>-1.2579480243619401</v>
       </c>
       <c r="D88" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E88" t="s">
         <v>5</v>
@@ -4999,7 +5007,7 @@
         <v>2.4216526211825999</v>
       </c>
       <c r="D89" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E89" t="s">
         <v>5</v>
@@ -5016,7 +5024,7 @@
         <v>0.48869663606751301</v>
       </c>
       <c r="D90" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E90" t="s">
         <v>5</v>
@@ -5033,7 +5041,7 @@
         <v>-1.6793066804457</v>
       </c>
       <c r="D91" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E91" t="s">
         <v>5</v>
@@ -5050,7 +5058,7 @@
         <v>0.36080792950160601</v>
       </c>
       <c r="D92" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E92" t="s">
         <v>5</v>
@@ -5067,7 +5075,7 @@
         <v>1.54026292998327</v>
       </c>
       <c r="D93" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E93" t="s">
         <v>5</v>
@@ -5084,7 +5092,7 @@
         <v>-0.86485532863859305</v>
       </c>
       <c r="D94" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E94" t="s">
         <v>5</v>
@@ -5101,7 +5109,7 @@
         <v>13.4604807728404</v>
       </c>
       <c r="D95" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E95" t="s">
         <v>5</v>
@@ -5118,7 +5126,7 @@
         <v>1.9327237734887901</v>
       </c>
       <c r="D96" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E96" t="s">
         <v>5</v>
@@ -5135,7 +5143,7 @@
         <v>16.371281098301001</v>
       </c>
       <c r="D97" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E97" t="s">
         <v>5</v>
@@ -5152,7 +5160,7 @@
         <v>-7.4905712357133396</v>
       </c>
       <c r="D98" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E98" t="s">
         <v>5</v>
@@ -5169,7 +5177,7 @@
         <v>18.8158472309693</v>
       </c>
       <c r="D99" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E99" t="s">
         <v>5</v>
@@ -5186,7 +5194,7 @@
         <v>13.0055446349674</v>
       </c>
       <c r="D100" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E100" t="s">
         <v>5</v>
@@ -5203,7 +5211,7 @@
         <v>10.788577620020099</v>
       </c>
       <c r="D101" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E101" t="s">
         <v>5</v>
@@ -5220,7 +5228,7 @@
         <v>10.387177033736901</v>
       </c>
       <c r="D102" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E102" t="s">
         <v>5</v>
@@ -5237,7 +5245,7 @@
         <v>4.8330758433203602</v>
       </c>
       <c r="D103" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E103" t="s">
         <v>5</v>
@@ -5254,7 +5262,7 @@
         <v>0.46841442765992303</v>
       </c>
       <c r="D104" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E104" t="s">
         <v>5</v>
@@ -5271,7 +5279,7 @@
         <v>-4.2071711864972503</v>
       </c>
       <c r="D105" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E105" t="s">
         <v>5</v>
@@ -5288,7 +5296,7 @@
         <v>5.5951837699772096</v>
       </c>
       <c r="D106" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E106" t="s">
         <v>5</v>
@@ -5305,7 +5313,7 @@
         <v>5.4855936105876104</v>
       </c>
       <c r="D107" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E107" t="s">
         <v>5</v>
@@ -5322,7 +5330,7 @@
         <v>1.49315980227403</v>
       </c>
       <c r="D108" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E108" t="s">
         <v>5</v>
@@ -5339,7 +5347,7 @@
         <v>3.33021408018103</v>
       </c>
       <c r="D109" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E109" t="s">
         <v>5</v>
@@ -5356,7 +5364,7 @@
         <v>-10.548146952235699</v>
       </c>
       <c r="D110" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E110" t="s">
         <v>5</v>
@@ -5373,7 +5381,7 @@
         <v>8.2847627702020805</v>
       </c>
       <c r="D111" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E111" t="s">
         <v>5</v>
@@ -5390,7 +5398,7 @@
         <v>-4.6038501727233401</v>
       </c>
       <c r="D112" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E112" t="s">
         <v>5</v>
@@ -5407,7 +5415,7 @@
         <v>2.8717842492711698</v>
       </c>
       <c r="D113" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E113" t="s">
         <v>5</v>
@@ -5424,7 +5432,7 @@
         <v>3.9149117367512698</v>
       </c>
       <c r="D114" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E114" t="s">
         <v>5</v>
@@ -5441,7 +5449,7 @@
         <v>-0.66849868140211699</v>
       </c>
       <c r="D115" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E115" t="s">
         <v>5</v>
@@ -5458,7 +5466,7 @@
         <v>-2.1590964896592499</v>
       </c>
       <c r="D116" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E116" t="s">
         <v>5</v>
@@ -5475,7 +5483,7 @@
         <v>2.4667561158788001</v>
       </c>
       <c r="D117" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E117" t="s">
         <v>5</v>
@@ -5492,7 +5500,7 @@
         <v>1.7177908546568601</v>
       </c>
       <c r="D118" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E118" t="s">
         <v>5</v>
@@ -5509,7 +5517,7 @@
         <v>14.872600357398699</v>
       </c>
       <c r="D119" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E119" t="s">
         <v>5</v>
@@ -5526,7 +5534,7 @@
         <v>-1.5591240781082201</v>
       </c>
       <c r="D120" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E120" t="s">
         <v>5</v>
@@ -5543,7 +5551,7 @@
         <v>8.9289862664571693</v>
       </c>
       <c r="D121" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E121" t="s">
         <v>5</v>
@@ -5560,7 +5568,7 @@
         <v>16.864553905778301</v>
       </c>
       <c r="D122" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E122" t="s">
         <v>5</v>
@@ -5577,7 +5585,7 @@
         <v>4.63514789017818</v>
       </c>
       <c r="D123" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E123" t="s">
         <v>5</v>
@@ -5594,7 +5602,7 @@
         <v>6.7611754982098801E-2</v>
       </c>
       <c r="D124" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E124" t="s">
         <v>5</v>
@@ -5611,7 +5619,7 @@
         <v>10.934429470641801</v>
       </c>
       <c r="D125" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E125" t="s">
         <v>5</v>
@@ -5628,7 +5636,7 @@
         <v>-1.8835127851373501</v>
       </c>
       <c r="D126" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E126" t="s">
         <v>5</v>
@@ -5645,7 +5653,7 @@
         <v>-12.931077763713001</v>
       </c>
       <c r="D127" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E127" t="s">
         <v>5</v>
@@ -5662,7 +5670,7 @@
         <v>2.0691970431939599</v>
       </c>
       <c r="D128" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E128" t="s">
         <v>5</v>
@@ -5679,7 +5687,7 @@
         <v>4.3010235497119096</v>
       </c>
       <c r="D129" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E129" t="s">
         <v>5</v>
@@ -5696,7 +5704,7 @@
         <v>1.7326676377964001</v>
       </c>
       <c r="D130" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E130" t="s">
         <v>5</v>
@@ -5713,7 +5721,7 @@
         <v>0.432784170998956</v>
       </c>
       <c r="D131" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E131" t="s">
         <v>5</v>
@@ -5730,7 +5738,7 @@
         <v>9.9708453070991592</v>
       </c>
       <c r="D132" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E132" t="s">
         <v>5</v>
@@ -5747,7 +5755,7 @@
         <v>-4.7563761409894703</v>
       </c>
       <c r="D133" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E133" t="s">
         <v>5</v>
@@ -5764,7 +5772,7 @@
         <v>-6.1762892490223198</v>
       </c>
       <c r="D134" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E134" t="s">
         <v>5</v>
@@ -5781,7 +5789,7 @@
         <v>-7.4276105946765201</v>
       </c>
       <c r="D135" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E135" t="s">
         <v>5</v>
@@ -5798,7 +5806,7 @@
         <v>-7.6690229527456504</v>
       </c>
       <c r="D136" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E136" t="s">
         <v>5</v>
@@ -5815,7 +5823,7 @@
         <v>3.9209022426423599</v>
       </c>
       <c r="D137" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E137" t="s">
         <v>5</v>
@@ -5832,7 +5840,7 @@
         <v>-5.4440064546042102</v>
       </c>
       <c r="D138" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E138" t="s">
         <v>5</v>
@@ -5849,7 +5857,7 @@
         <v>-0.31009091039032799</v>
       </c>
       <c r="D139" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E139" t="s">
         <v>5</v>
@@ -5866,7 +5874,7 @@
         <v>3.8541930358136098</v>
       </c>
       <c r="D140" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E140" t="s">
         <v>5</v>
@@ -5883,7 +5891,7 @@
         <v>-7.3265889847599004</v>
       </c>
       <c r="D141" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E141" t="s">
         <v>5</v>
@@ -5900,7 +5908,7 @@
         <v>2.2576884332227598</v>
       </c>
       <c r="D142" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E142" t="s">
         <v>5</v>
@@ -5917,7 +5925,7 @@
         <v>-3.3933179248702401</v>
       </c>
       <c r="D143" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E143" t="s">
         <v>5</v>
@@ -5934,7 +5942,7 @@
         <v>3.9248511785688098</v>
       </c>
       <c r="D144" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E144" t="s">
         <v>5</v>
@@ -5951,7 +5959,7 @@
         <v>-5.81686669732344</v>
       </c>
       <c r="D145" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E145" t="s">
         <v>5</v>
@@ -5968,7 +5976,7 @@
         <v>-5.65112856476164</v>
       </c>
       <c r="D146" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E146" t="s">
         <v>5</v>
@@ -5985,7 +5993,7 @@
         <v>0.91580208449683398</v>
       </c>
       <c r="D147" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E147" t="s">
         <v>5</v>
@@ -6002,7 +6010,7 @@
         <v>-4.4899969662958803</v>
       </c>
       <c r="D148" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E148" t="s">
         <v>5</v>
@@ -6019,7 +6027,7 @@
         <v>12.6039582331027</v>
       </c>
       <c r="D149" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E149" t="s">
         <v>5</v>
@@ -6036,7 +6044,7 @@
         <v>6.8176144607375102</v>
       </c>
       <c r="D150" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E150" t="s">
         <v>5</v>
@@ -6053,7 +6061,7 @@
         <v>-1.7044026990447101</v>
       </c>
       <c r="D151" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E151" t="s">
         <v>5</v>
@@ -6070,7 +6078,7 @@
         <v>-2.7524912027313801</v>
       </c>
       <c r="D152" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E152" t="s">
         <v>5</v>
@@ -6087,7 +6095,7 @@
         <v>-3.9935884691146399</v>
       </c>
       <c r="D153" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E153" t="s">
         <v>5</v>
@@ -6104,7 +6112,7 @@
         <v>-4.2603148812126701</v>
       </c>
       <c r="D154" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E154" t="s">
         <v>5</v>
@@ -6121,7 +6129,7 @@
         <v>-6.4627589119458504</v>
       </c>
       <c r="D155" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E155" t="s">
         <v>5</v>
@@ -6138,7 +6146,7 @@
         <v>-6.8796349170551601</v>
       </c>
       <c r="D156" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E156" t="s">
         <v>5</v>
@@ -6155,7 +6163,7 @@
         <v>-4.8159648048663799</v>
       </c>
       <c r="D157" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E157" t="s">
         <v>5</v>
@@ -6172,7 +6180,7 @@
         <v>0.39945112375519098</v>
       </c>
       <c r="D158" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E158" t="s">
         <v>5</v>
@@ -6189,7 +6197,7 @@
         <v>1.3557633088740599E-2</v>
       </c>
       <c r="D159" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E159" t="s">
         <v>5</v>
@@ -6206,7 +6214,7 @@
         <v>-0.71663453515672504</v>
       </c>
       <c r="D160" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E160" t="s">
         <v>5</v>
@@ -6223,7 +6231,7 @@
         <v>-7.5426800060972203</v>
       </c>
       <c r="D161" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E161" t="s">
         <v>5</v>
@@ -6240,7 +6248,7 @@
         <v>-4.0486577148414904</v>
       </c>
       <c r="D162" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E162" t="s">
         <v>5</v>
@@ -6257,7 +6265,7 @@
         <v>-3.33688876846329</v>
       </c>
       <c r="D163" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E163" t="s">
         <v>5</v>
@@ -6274,7 +6282,7 @@
         <v>20.1025514769048</v>
       </c>
       <c r="D164" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E164" t="s">
         <v>5</v>
@@ -6291,7 +6299,7 @@
         <v>5.0482926495536402</v>
       </c>
       <c r="D165" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E165" t="s">
         <v>5</v>
@@ -6308,7 +6316,7 @@
         <v>-7.5879814302218103</v>
       </c>
       <c r="D166" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E166" t="s">
         <v>5</v>
@@ -6325,7 +6333,7 @@
         <v>-2.7533245739421801</v>
       </c>
       <c r="D167" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E167" t="s">
         <v>5</v>
@@ -6342,7 +6350,7 @@
         <v>6.4052222764462599</v>
       </c>
       <c r="D168" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E168" t="s">
         <v>5</v>
@@ -6359,7 +6367,7 @@
         <v>-6.0391088150106702</v>
       </c>
       <c r="D169" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E169" t="s">
         <v>5</v>
@@ -6376,7 +6384,7 @@
         <v>-8.4895846015577803</v>
       </c>
       <c r="D170" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E170" t="s">
         <v>5</v>
@@ -6393,7 +6401,7 @@
         <v>9.2835013128195101</v>
       </c>
       <c r="D171" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E171" t="s">
         <v>5</v>
@@ -6410,7 +6418,7 @@
         <v>-5.44327366363982</v>
       </c>
       <c r="D172" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E172" t="s">
         <v>5</v>
@@ -6427,7 +6435,7 @@
         <v>22.381340995634002</v>
       </c>
       <c r="D173" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E173" t="s">
         <v>5</v>
@@ -6444,7 +6452,7 @@
         <v>-5.0773487380192401</v>
       </c>
       <c r="D174" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E174" t="s">
         <v>5</v>
@@ -6461,7 +6469,7 @@
         <v>7.1149234908860901</v>
       </c>
       <c r="D175" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E175" t="s">
         <v>5</v>
@@ -6478,7 +6486,7 @@
         <v>-0.20245866551935199</v>
       </c>
       <c r="D176" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E176" t="s">
         <v>5</v>
@@ -6495,7 +6503,7 @@
         <v>4.9623892793032001</v>
       </c>
       <c r="D177" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E177" t="s">
         <v>5</v>
@@ -6512,7 +6520,7 @@
         <v>-7.4569043280778997</v>
       </c>
       <c r="D178" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E178" t="s">
         <v>5</v>
@@ -6529,7 +6537,7 @@
         <v>-1.4771643599250199</v>
       </c>
       <c r="D179" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E179" t="s">
         <v>5</v>
@@ -6546,7 +6554,7 @@
         <v>-0.85629567182057298</v>
       </c>
       <c r="D180" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E180" t="s">
         <v>5</v>
@@ -6563,7 +6571,7 @@
         <v>-5.1724756793483602</v>
       </c>
       <c r="D181" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E181" t="s">
         <v>5</v>
@@ -6580,7 +6588,7 @@
         <v>-6.6989835278955896</v>
       </c>
       <c r="D182" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E182" t="s">
         <v>5</v>
@@ -6597,7 +6605,7 @@
         <v>-6.4171651270071903</v>
       </c>
       <c r="D183" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E183" t="s">
         <v>5</v>
@@ -6614,7 +6622,7 @@
         <v>-8.4037784108491707</v>
       </c>
       <c r="D184" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E184" t="s">
         <v>5</v>
@@ -6631,7 +6639,7 @@
         <v>-0.57965250152835601</v>
       </c>
       <c r="D185" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E185" t="s">
         <v>5</v>
@@ -6648,7 +6656,7 @@
         <v>-8.8675537306565602</v>
       </c>
       <c r="D186" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E186" t="s">
         <v>5</v>
@@ -6665,7 +6673,7 @@
         <v>14.289744522885901</v>
       </c>
       <c r="D187" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E187" t="s">
         <v>5</v>
@@ -6682,7 +6690,7 @@
         <v>2.0816099467581899</v>
       </c>
       <c r="D188" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E188" t="s">
         <v>5</v>
@@ -6699,7 +6707,7 @@
         <v>-0.99726515248362102</v>
       </c>
       <c r="D189" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E189" t="s">
         <v>5</v>
@@ -6716,7 +6724,7 @@
         <v>-5.3760671124128603</v>
       </c>
       <c r="D190" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E190" t="s">
         <v>5</v>
@@ -6733,7 +6741,7 @@
         <v>16.420615170614202</v>
       </c>
       <c r="D191" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E191" t="s">
         <v>5</v>
@@ -6750,7 +6758,7 @@
         <v>-2.1182386955219101</v>
       </c>
       <c r="D192" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E192" t="s">
         <v>5</v>
@@ -6767,7 +6775,7 @@
         <v>0.43973472923532902</v>
       </c>
       <c r="D193" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E193" t="s">
         <v>5</v>
@@ -6784,7 +6792,7 @@
         <v>-3.1851868844498301</v>
       </c>
       <c r="D194" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E194" t="s">
         <v>5</v>
@@ -6801,7 +6809,7 @@
         <v>-0.97023607071097995</v>
       </c>
       <c r="D195" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E195" t="s">
         <v>5</v>
@@ -6818,7 +6826,7 @@
         <v>-5.5281177257278404</v>
       </c>
       <c r="D196" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E196" t="s">
         <v>5</v>
@@ -6835,7 +6843,7 @@
         <v>1.36902962090125</v>
       </c>
       <c r="D197" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E197" t="s">
         <v>5</v>
@@ -6852,7 +6860,7 @@
         <v>-5.1027399927316299</v>
       </c>
       <c r="D198" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E198" t="s">
         <v>5</v>
@@ -6869,7 +6877,7 @@
         <v>-4.72352923461019</v>
       </c>
       <c r="D199" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E199" t="s">
         <v>5</v>
@@ -6886,7 +6894,7 @@
         <v>-1.2867807261692199E-2</v>
       </c>
       <c r="D200" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E200" t="s">
         <v>5</v>
@@ -6903,7 +6911,7 @@
         <v>5.7415900340523001</v>
       </c>
       <c r="D201" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E201" t="s">
         <v>5</v>
@@ -6920,7 +6928,7 @@
         <v>-8.2862399464581902</v>
       </c>
       <c r="D202" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E202" t="s">
         <v>5</v>
@@ -6937,7 +6945,7 @@
         <v>5.0312228837691597</v>
       </c>
       <c r="D203" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E203" t="s">
         <v>5</v>
@@ -6954,7 +6962,7 @@
         <v>-4.1059743510178599</v>
       </c>
       <c r="D204" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E204" t="s">
         <v>5</v>
@@ -6971,7 +6979,7 @@
         <v>-4.5759390477462398</v>
       </c>
       <c r="D205" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E205" t="s">
         <v>5</v>
@@ -6988,7 +6996,7 @@
         <v>-6.0952875423143604</v>
       </c>
       <c r="D206" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E206" t="s">
         <v>5</v>
@@ -7005,7 +7013,7 @@
         <v>-4.7116973963284101</v>
       </c>
       <c r="D207" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E207" t="s">
         <v>5</v>
@@ -7022,7 +7030,7 @@
         <v>-7.6704917635713299</v>
       </c>
       <c r="D208" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E208" t="s">
         <v>5</v>
@@ -7039,7 +7047,7 @@
         <v>6.2066714189047002E-2</v>
       </c>
       <c r="D209" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E209" t="s">
         <v>5</v>
@@ -7056,7 +7064,7 @@
         <v>-3.02389526159928</v>
       </c>
       <c r="D210" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E210" t="s">
         <v>5</v>
@@ -7073,7 +7081,7 @@
         <v>-6.0858894275875199</v>
       </c>
       <c r="D211" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E211" t="s">
         <v>5</v>
@@ -7090,7 +7098,7 @@
         <v>-10.174226519138999</v>
       </c>
       <c r="D212" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E212" t="s">
         <v>5</v>
@@ -7107,7 +7115,7 @@
         <v>2.7628900436689601</v>
       </c>
       <c r="D213" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E213" t="s">
         <v>5</v>
@@ -7124,7 +7132,7 @@
         <v>0.43556911990826502</v>
       </c>
       <c r="D214" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E214" t="s">
         <v>5</v>
@@ -7141,7 +7149,7 @@
         <v>-3.16373929594095</v>
       </c>
       <c r="D215" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E215" t="s">
         <v>5</v>
@@ -7158,7 +7166,7 @@
         <v>-3.13494801728132</v>
       </c>
       <c r="D216" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E216" t="s">
         <v>5</v>
@@ -7175,7 +7183,7 @@
         <v>7.5561031533730398</v>
       </c>
       <c r="D217" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E217" t="s">
         <v>5</v>
@@ -7192,7 +7200,7 @@
         <v>-0.49969589295484701</v>
       </c>
       <c r="D218" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E218" t="s">
         <v>5</v>
@@ -7209,7 +7217,7 @@
         <v>1.7664137258105399</v>
       </c>
       <c r="D219" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E219" t="s">
         <v>5</v>
@@ -7226,7 +7234,7 @@
         <v>0.66723617857269102</v>
       </c>
       <c r="D220" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E220" t="s">
         <v>5</v>
@@ -7243,7 +7251,7 @@
         <v>-3.9173717434016</v>
       </c>
       <c r="D221" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E221" t="s">
         <v>5</v>
@@ -7260,7 +7268,7 @@
         <v>2.6207072903678301</v>
       </c>
       <c r="D222" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E222" t="s">
         <v>5</v>
@@ -7277,7 +7285,7 @@
         <v>-4.4539752008371103</v>
       </c>
       <c r="D223" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E223" t="s">
         <v>5</v>
@@ -7294,7 +7302,7 @@
         <v>-2.6841592972878501</v>
       </c>
       <c r="D224" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E224" t="s">
         <v>5</v>
@@ -7311,7 +7319,7 @@
         <v>-1.2090810413475399</v>
       </c>
       <c r="D225" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E225" t="s">
         <v>5</v>
@@ -7328,7 +7336,7 @@
         <v>-10.641452634389401</v>
       </c>
       <c r="D226" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E226" t="s">
         <v>5</v>
@@ -7345,7 +7353,7 @@
         <v>3.0871170208959202</v>
       </c>
       <c r="D227" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E227" t="s">
         <v>5</v>
@@ -7362,7 +7370,7 @@
         <v>-9.6674454576328195</v>
       </c>
       <c r="D228" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E228" t="s">
         <v>5</v>
@@ -7379,7 +7387,7 @@
         <v>-6.7710339660580399</v>
       </c>
       <c r="D229" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E229" t="s">
         <v>5</v>
@@ -7396,7 +7404,7 @@
         <v>-1.2929497216461201</v>
       </c>
       <c r="D230" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E230" t="s">
         <v>5</v>
@@ -7413,7 +7421,7 @@
         <v>1.9278849113168699</v>
       </c>
       <c r="D231" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E231" t="s">
         <v>5</v>
@@ -7430,7 +7438,7 @@
         <v>-1.10132093345705</v>
       </c>
       <c r="D232" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E232" t="s">
         <v>5</v>
@@ -7447,7 +7455,7 @@
         <v>-2.5476913607450999</v>
       </c>
       <c r="D233" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E233" t="s">
         <v>5</v>
@@ -7464,7 +7472,7 @@
         <v>-5.8084341675048501</v>
       </c>
       <c r="D234" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E234" t="s">
         <v>5</v>
@@ -7481,7 +7489,7 @@
         <v>-5.7552720862790698</v>
       </c>
       <c r="D235" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E235" t="s">
         <v>5</v>
@@ -7498,7 +7506,7 @@
         <v>-7.2731555305434599</v>
       </c>
       <c r="D236" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E236" t="s">
         <v>5</v>
@@ -7515,7 +7523,7 @@
         <v>-3.27988178794886</v>
       </c>
       <c r="D237" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E237" t="s">
         <v>5</v>
@@ -7532,7 +7540,7 @@
         <v>-0.93641474600928798</v>
       </c>
       <c r="D238" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E238" t="s">
         <v>5</v>
@@ -7549,7 +7557,7 @@
         <v>-0.94662156925554197</v>
       </c>
       <c r="D239" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E239" t="s">
         <v>5</v>
@@ -7566,7 +7574,7 @@
         <v>-1.1400782558054801</v>
       </c>
       <c r="D240" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E240" t="s">
         <v>5</v>
@@ -7583,7 +7591,7 @@
         <v>-6.1980362679092398</v>
       </c>
       <c r="D241" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E241" t="s">
         <v>5</v>
@@ -7600,7 +7608,7 @@
         <v>-3.5752820194863801</v>
       </c>
       <c r="D242" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E242" t="s">
         <v>5</v>
@@ -7617,7 +7625,7 @@
         <v>-7.4993509707816397</v>
       </c>
       <c r="D243" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E243" t="s">
         <v>5</v>
@@ -7634,7 +7642,7 @@
         <v>-0.76444978254449802</v>
       </c>
       <c r="D244" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E244" t="s">
         <v>5</v>
@@ -7651,7 +7659,7 @@
         <v>-5.9706192264170097</v>
       </c>
       <c r="D245" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E245" t="s">
         <v>5</v>
@@ -7668,7 +7676,7 @@
         <v>11.156614718288701</v>
       </c>
       <c r="D246" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E246" t="s">
         <v>5</v>
@@ -7685,7 +7693,7 @@
         <v>-7.6255294888120702</v>
       </c>
       <c r="D247" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E247" t="s">
         <v>5</v>
@@ -7702,7 +7710,7 @@
         <v>-2.8979566305758002</v>
       </c>
       <c r="D248" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E248" t="s">
         <v>5</v>
@@ -7719,7 +7727,7 @@
         <v>6.50713068421505</v>
       </c>
       <c r="D249" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E249" t="s">
         <v>5</v>
@@ -7736,7 +7744,7 @@
         <v>10.8633571485577</v>
       </c>
       <c r="D250" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E250" t="s">
         <v>5</v>
@@ -7753,7 +7761,7 @@
         <v>-0.18189070828668699</v>
       </c>
       <c r="D251" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E251" t="s">
         <v>5</v>
@@ -7770,7 +7778,7 @@
         <v>-5.2480750166764896</v>
       </c>
       <c r="D252" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E252" t="s">
         <v>5</v>
@@ -7787,7 +7795,7 @@
         <v>-10.748439043607201</v>
       </c>
       <c r="D253" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E253" t="s">
         <v>5</v>
@@ -7804,7 +7812,7 @@
         <v>-0.23754465311096901</v>
       </c>
       <c r="D254" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E254" t="s">
         <v>5</v>
@@ -7821,7 +7829,7 @@
         <v>18.4328508990769</v>
       </c>
       <c r="D255" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E255" t="s">
         <v>5</v>
@@ -7838,7 +7846,7 @@
         <v>-7.6099390335528199</v>
       </c>
       <c r="D256" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E256" t="s">
         <v>5</v>
@@ -7855,7 +7863,7 @@
         <v>10.612141121376601</v>
       </c>
       <c r="D257" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E257" t="s">
         <v>5</v>
@@ -7872,7 +7880,7 @@
         <v>2.17532806786642</v>
       </c>
       <c r="D258" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E258" t="s">
         <v>5</v>
@@ -7889,7 +7897,7 @@
         <v>-3.2765714337027299</v>
       </c>
       <c r="D259" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E259" t="s">
         <v>5</v>
@@ -7906,7 +7914,7 @@
         <v>-5.8161238881204396</v>
       </c>
       <c r="D260" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E260" t="s">
         <v>5</v>
@@ -7923,7 +7931,7 @@
         <v>-3.5382227385600999</v>
       </c>
       <c r="D261" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E261" t="s">
         <v>5</v>
@@ -7940,7 +7948,7 @@
         <v>-6.9028486710994201</v>
       </c>
       <c r="D262" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E262" t="s">
         <v>5</v>
@@ -7957,7 +7965,7 @@
         <v>-9.3134557354749301</v>
       </c>
       <c r="D263" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E263" t="s">
         <v>5</v>
@@ -7974,7 +7982,7 @@
         <v>-3.7313233095246998</v>
       </c>
       <c r="D264" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E264" t="s">
         <v>5</v>
@@ -7991,7 +7999,7 @@
         <v>19.331321978198101</v>
       </c>
       <c r="D265" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E265" t="s">
         <v>5</v>
@@ -8008,7 +8016,7 @@
         <v>-1.6574597267230999</v>
       </c>
       <c r="D266" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E266" t="s">
         <v>5</v>
@@ -8025,7 +8033,7 @@
         <v>-0.12631076546373099</v>
       </c>
       <c r="D267" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E267" t="s">
         <v>5</v>
@@ -8042,7 +8050,7 @@
         <v>-6.7836378087344098</v>
       </c>
       <c r="D268" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E268" t="s">
         <v>5</v>
@@ -8059,7 +8067,7 @@
         <v>-2.4218459697179902</v>
       </c>
       <c r="D269" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E269" t="s">
         <v>5</v>
@@ -8076,7 +8084,7 @@
         <v>-0.51733723878711702</v>
       </c>
       <c r="D270" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E270" t="s">
         <v>5</v>
@@ -8093,7 +8101,7 @@
         <v>-5.5099014420216301</v>
       </c>
       <c r="D271" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E271" t="s">
         <v>5</v>
@@ -8110,7 +8118,7 @@
         <v>-7.36701460118665</v>
       </c>
       <c r="D272" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E272" t="s">
         <v>5</v>
@@ -8127,7 +8135,7 @@
         <v>11.4736866209858</v>
       </c>
       <c r="D273" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E273" t="s">
         <v>5</v>
@@ -8144,7 +8152,7 @@
         <v>-6.1627899344642598</v>
       </c>
       <c r="D274" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E274" t="s">
         <v>5</v>
@@ -8161,7 +8169,7 @@
         <v>-4.7486096218479004</v>
       </c>
       <c r="D275" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E275" t="s">
         <v>5</v>
@@ -8178,7 +8186,7 @@
         <v>1.18107143065763</v>
       </c>
       <c r="D276" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E276" t="s">
         <v>5</v>
@@ -8195,7 +8203,7 @@
         <v>-0.61452230131699703</v>
       </c>
       <c r="D277" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E277" t="s">
         <v>5</v>
@@ -8212,7 +8220,7 @@
         <v>-1.9029092180167599</v>
       </c>
       <c r="D278" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E278" t="s">
         <v>5</v>
@@ -8229,7 +8237,7 @@
         <v>-8.4006007773748603</v>
       </c>
       <c r="D279" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E279" t="s">
         <v>5</v>
@@ -8246,7 +8254,7 @@
         <v>11.090316576982</v>
       </c>
       <c r="D280" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E280" t="s">
         <v>5</v>
@@ -8263,7 +8271,7 @@
         <v>-9.0595638680907307</v>
       </c>
       <c r="D281" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E281" t="s">
         <v>5</v>
@@ -8280,7 +8288,7 @@
         <v>-7.1863762950046901</v>
       </c>
       <c r="D282" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E282" t="s">
         <v>5</v>
@@ -8297,7 +8305,7 @@
         <v>-10.203420862545901</v>
       </c>
       <c r="D283" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E283" t="s">
         <v>5</v>
@@ -8314,7 +8322,7 @@
         <v>-5.2188469896456002</v>
       </c>
       <c r="D284" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E284" t="s">
         <v>5</v>
@@ -8331,7 +8339,7 @@
         <v>-7.2883961266896602</v>
       </c>
       <c r="D285" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E285" t="s">
         <v>5</v>
@@ -8348,7 +8356,7 @@
         <v>-0.98916990245469405</v>
       </c>
       <c r="D286" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E286" t="s">
         <v>5</v>
@@ -8365,7 +8373,7 @@
         <v>-3.66544933438144</v>
       </c>
       <c r="D287" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E287" t="s">
         <v>5</v>
@@ -8382,7 +8390,7 @@
         <v>10.374862805845</v>
       </c>
       <c r="D288" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E288" t="s">
         <v>5</v>
@@ -8399,7 +8407,7 @@
         <v>-2.52621608166961</v>
       </c>
       <c r="D289" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E289" t="s">
         <v>5</v>
@@ -8416,7 +8424,7 @@
         <v>-1.9975237141090201</v>
       </c>
       <c r="D290" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E290" t="s">
         <v>5</v>
@@ -8433,7 +8441,7 @@
         <v>-3.3501388727553301</v>
       </c>
       <c r="D291" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E291" t="s">
         <v>5</v>
@@ -8450,7 +8458,7 @@
         <v>13.598797052518799</v>
       </c>
       <c r="D292" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E292" t="s">
         <v>5</v>
@@ -8467,7 +8475,7 @@
         <v>-8.6299535132779805</v>
       </c>
       <c r="D293" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E293" t="s">
         <v>5</v>
@@ -8484,7 +8492,7 @@
         <v>-6.5865689336682696</v>
       </c>
       <c r="D294" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E294" t="s">
         <v>5</v>
@@ -8501,7 +8509,7 @@
         <v>6.0547306892425201</v>
       </c>
       <c r="D295" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E295" t="s">
         <v>5</v>
@@ -8518,7 +8526,7 @@
         <v>10.214526049549599</v>
       </c>
       <c r="D296" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E296" t="s">
         <v>5</v>
@@ -8535,7 +8543,7 @@
         <v>-4.3276352176128103</v>
       </c>
       <c r="D297" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E297" t="s">
         <v>5</v>
@@ -8552,7 +8560,7 @@
         <v>-0.75037820186952597</v>
       </c>
       <c r="D298" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E298" t="s">
         <v>5</v>
@@ -8569,7 +8577,7 @@
         <v>-4.9703129242053299</v>
       </c>
       <c r="D299" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E299" t="s">
         <v>5</v>
@@ -8586,7 +8594,7 @@
         <v>-9.7416743725185508</v>
       </c>
       <c r="D300" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E300" t="s">
         <v>5</v>
@@ -8603,7 +8611,7 @@
         <v>-0.60179327262569704</v>
       </c>
       <c r="D301" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E301" t="s">
         <v>5</v>
@@ -8620,7 +8628,7 @@
         <v>3.9450617547797</v>
       </c>
       <c r="D302" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E302" t="s">
         <v>5</v>
@@ -8637,7 +8645,7 @@
         <v>5.1271567894112398</v>
       </c>
       <c r="D303" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E303" t="s">
         <v>5</v>
@@ -8654,7 +8662,7 @@
         <v>0.828817989283402</v>
       </c>
       <c r="D304" t="s">
-        <v>5</v>
+        <v>874</v>
       </c>
       <c r="E304" t="s">
         <v>5</v>
@@ -8671,7 +8679,7 @@
         <v>13.9953645274739</v>
       </c>
       <c r="D305" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E305" t="s">
         <v>309</v>
@@ -8688,7 +8696,7 @@
         <v>11.043745874882401</v>
       </c>
       <c r="D306" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E306" t="s">
         <v>309</v>
@@ -8705,7 +8713,7 @@
         <v>-24.231888336614102</v>
       </c>
       <c r="D307" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E307" t="s">
         <v>309</v>
@@ -8722,7 +8730,7 @@
         <v>-21.762956513730501</v>
       </c>
       <c r="D308" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E308" t="s">
         <v>309</v>
@@ -8739,7 +8747,7 @@
         <v>5.6211895916758703</v>
       </c>
       <c r="D309" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E309" t="s">
         <v>309</v>
@@ -8756,7 +8764,7 @@
         <v>21.711299771669498</v>
       </c>
       <c r="D310" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E310" t="s">
         <v>309</v>
@@ -8773,7 +8781,7 @@
         <v>10.7778319540485</v>
       </c>
       <c r="D311" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E311" t="s">
         <v>309</v>
@@ -8790,7 +8798,7 @@
         <v>-16.122089817563101</v>
       </c>
       <c r="D312" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E312" t="s">
         <v>309</v>
@@ -8807,7 +8815,7 @@
         <v>-25.723979274785801</v>
       </c>
       <c r="D313" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E313" t="s">
         <v>309</v>
@@ -8824,7 +8832,7 @@
         <v>-24.821329134091801</v>
       </c>
       <c r="D314" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E314" t="s">
         <v>309</v>
@@ -8841,7 +8849,7 @@
         <v>17.5450474920993</v>
       </c>
       <c r="D315" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E315" t="s">
         <v>309</v>
@@ -8858,7 +8866,7 @@
         <v>6.3251558624166204</v>
       </c>
       <c r="D316" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E316" t="s">
         <v>309</v>
@@ -8875,7 +8883,7 @@
         <v>-24.262799964017201</v>
       </c>
       <c r="D317" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E317" t="s">
         <v>309</v>
@@ -8892,7 +8900,7 @@
         <v>16.413460281772501</v>
       </c>
       <c r="D318" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E318" t="s">
         <v>309</v>
@@ -8909,7 +8917,7 @@
         <v>-18.373216249558499</v>
       </c>
       <c r="D319" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E319" t="s">
         <v>309</v>
@@ -8926,7 +8934,7 @@
         <v>-7.2248453354270801</v>
       </c>
       <c r="D320" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E320" t="s">
         <v>309</v>
@@ -8943,7 +8951,7 @@
         <v>16.600642205362</v>
       </c>
       <c r="D321" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E321" t="s">
         <v>309</v>
@@ -8960,7 +8968,7 @@
         <v>1.3636367140212899</v>
       </c>
       <c r="D322" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E322" t="s">
         <v>309</v>
@@ -8977,7 +8985,7 @@
         <v>11.8077828149518</v>
       </c>
       <c r="D323" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E323" t="s">
         <v>309</v>
@@ -8994,7 +9002,7 @@
         <v>2.41254245227627</v>
       </c>
       <c r="D324" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E324" t="s">
         <v>309</v>
@@ -9011,7 +9019,7 @@
         <v>4.2071690424395296</v>
       </c>
       <c r="D325" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E325" t="s">
         <v>309</v>
@@ -9028,7 +9036,7 @@
         <v>11.302278029794101</v>
       </c>
       <c r="D326" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E326" t="s">
         <v>309</v>
@@ -9045,7 +9053,7 @@
         <v>-24.899850069544399</v>
       </c>
       <c r="D327" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E327" t="s">
         <v>309</v>
@@ -9062,7 +9070,7 @@
         <v>-6.9914682227368203</v>
       </c>
       <c r="D328" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E328" t="s">
         <v>309</v>
@@ -9079,7 +9087,7 @@
         <v>-18.223561260819</v>
       </c>
       <c r="D329" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E329" t="s">
         <v>309</v>
@@ -9096,7 +9104,7 @@
         <v>5.0926151329035196</v>
       </c>
       <c r="D330" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E330" t="s">
         <v>309</v>
@@ -9113,7 +9121,7 @@
         <v>10.0322640241521</v>
       </c>
       <c r="D331" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E331" t="s">
         <v>309</v>
@@ -9130,7 +9138,7 @@
         <v>4.3860125518398201</v>
       </c>
       <c r="D332" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E332" t="s">
         <v>309</v>
@@ -9147,7 +9155,7 @@
         <v>-2.1583535707135799</v>
       </c>
       <c r="D333" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E333" t="s">
         <v>309</v>
@@ -9164,7 +9172,7 @@
         <v>-24.979011217713101</v>
       </c>
       <c r="D334" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E334" t="s">
         <v>309</v>
@@ -9181,7 +9189,7 @@
         <v>-28.349308415015201</v>
       </c>
       <c r="D335" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E335" t="s">
         <v>309</v>
@@ -9198,7 +9206,7 @@
         <v>3.33105424862344</v>
       </c>
       <c r="D336" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E336" t="s">
         <v>309</v>
@@ -9215,7 +9223,7 @@
         <v>-7.9788466066725698</v>
       </c>
       <c r="D337" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E337" t="s">
         <v>309</v>
@@ -9232,7 +9240,7 @@
         <v>-25.107094718691801</v>
       </c>
       <c r="D338" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E338" t="s">
         <v>309</v>
@@ -9249,7 +9257,7 @@
         <v>-10.777854940285099</v>
       </c>
       <c r="D339" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E339" t="s">
         <v>309</v>
@@ -9266,7 +9274,7 @@
         <v>14.4956376440388</v>
       </c>
       <c r="D340" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E340" t="s">
         <v>309</v>
@@ -9283,7 +9291,7 @@
         <v>4.2270165225307297</v>
       </c>
       <c r="D341" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E341" t="s">
         <v>309</v>
@@ -9300,7 +9308,7 @@
         <v>16.280754969905502</v>
       </c>
       <c r="D342" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E342" t="s">
         <v>309</v>
@@ -9317,7 +9325,7 @@
         <v>-25.4417834602501</v>
       </c>
       <c r="D343" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E343" t="s">
         <v>309</v>
@@ -9334,7 +9342,7 @@
         <v>4.7533664210934399</v>
       </c>
       <c r="D344" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E344" t="s">
         <v>309</v>
@@ -9351,7 +9359,7 @@
         <v>6.7579252913463304</v>
       </c>
       <c r="D345" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E345" t="s">
         <v>309</v>
@@ -9368,7 +9376,7 @@
         <v>-9.8054400785235298</v>
       </c>
       <c r="D346" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E346" t="s">
         <v>309</v>
@@ -9385,7 +9393,7 @@
         <v>-4.8884210242849697</v>
       </c>
       <c r="D347" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E347" t="s">
         <v>309</v>
@@ -9402,7 +9410,7 @@
         <v>-12.3082172518309</v>
       </c>
       <c r="D348" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E348" t="s">
         <v>309</v>
@@ -9419,7 +9427,7 @@
         <v>14.890106315824999</v>
       </c>
       <c r="D349" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E349" t="s">
         <v>309</v>
@@ -9436,7 +9444,7 @@
         <v>-21.840435649507398</v>
       </c>
       <c r="D350" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E350" t="s">
         <v>309</v>
@@ -9453,7 +9461,7 @@
         <v>1.6427519229046399</v>
       </c>
       <c r="D351" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E351" t="s">
         <v>309</v>
@@ -9470,7 +9478,7 @@
         <v>5.8390753653504897</v>
       </c>
       <c r="D352" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E352" t="s">
         <v>309</v>
@@ -9487,7 +9495,7 @@
         <v>-16.954281559253701</v>
       </c>
       <c r="D353" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E353" t="s">
         <v>309</v>
@@ -9504,7 +9512,7 @@
         <v>10.2050636601456</v>
       </c>
       <c r="D354" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E354" t="s">
         <v>309</v>
@@ -9521,7 +9529,7 @@
         <v>3.8872881569338298</v>
       </c>
       <c r="D355" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E355" t="s">
         <v>309</v>
@@ -9538,7 +9546,7 @@
         <v>-24.561571330322</v>
       </c>
       <c r="D356" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E356" t="s">
         <v>309</v>
@@ -9555,7 +9563,7 @@
         <v>-9.8225980843177805</v>
       </c>
       <c r="D357" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E357" t="s">
         <v>309</v>
@@ -9572,7 +9580,7 @@
         <v>15.5364401060143</v>
       </c>
       <c r="D358" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E358" t="s">
         <v>309</v>
@@ -9589,7 +9597,7 @@
         <v>-28.664264029972198</v>
       </c>
       <c r="D359" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E359" t="s">
         <v>309</v>
@@ -9606,7 +9614,7 @@
         <v>-21.8641844321196</v>
       </c>
       <c r="D360" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E360" t="s">
         <v>309</v>
@@ -9623,7 +9631,7 @@
         <v>-7.0606598400673803</v>
       </c>
       <c r="D361" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E361" t="s">
         <v>309</v>
@@ -9640,7 +9648,7 @@
         <v>1.5875765199512899</v>
       </c>
       <c r="D362" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E362" t="s">
         <v>309</v>
@@ -9657,7 +9665,7 @@
         <v>-10.6190644980427</v>
       </c>
       <c r="D363" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E363" t="s">
         <v>309</v>
@@ -9674,7 +9682,7 @@
         <v>7.3715439761830801</v>
       </c>
       <c r="D364" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E364" t="s">
         <v>309</v>
@@ -9691,7 +9699,7 @@
         <v>1.5913576077473</v>
       </c>
       <c r="D365" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E365" t="s">
         <v>309</v>
@@ -9708,7 +9716,7 @@
         <v>-8.4093331702624194</v>
       </c>
       <c r="D366" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E366" t="s">
         <v>309</v>
@@ -9725,7 +9733,7 @@
         <v>18.595564152503702</v>
       </c>
       <c r="D367" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E367" t="s">
         <v>309</v>
@@ -9742,7 +9750,7 @@
         <v>-26.317663132561201</v>
       </c>
       <c r="D368" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E368" t="s">
         <v>309</v>
@@ -9759,7 +9767,7 @@
         <v>-17.5316190711094</v>
       </c>
       <c r="D369" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E369" t="s">
         <v>309</v>
@@ -9776,7 +9784,7 @@
         <v>-13.5378093093003</v>
       </c>
       <c r="D370" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E370" t="s">
         <v>309</v>
@@ -9793,7 +9801,7 @@
         <v>-0.31254862614200601</v>
       </c>
       <c r="D371" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E371" t="s">
         <v>309</v>
@@ -9810,7 +9818,7 @@
         <v>-12.0673036778691</v>
       </c>
       <c r="D372" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E372" t="s">
         <v>309</v>
@@ -9827,7 +9835,7 @@
         <v>17.552652351719601</v>
       </c>
       <c r="D373" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E373" t="s">
         <v>309</v>
@@ -9844,7 +9852,7 @@
         <v>3.01304867439003</v>
       </c>
       <c r="D374" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E374" t="s">
         <v>309</v>
@@ -9861,7 +9869,7 @@
         <v>-10.6122123944147</v>
       </c>
       <c r="D375" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E375" t="s">
         <v>309</v>
@@ -9878,7 +9886,7 @@
         <v>0.41001714105984699</v>
       </c>
       <c r="D376" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E376" t="s">
         <v>309</v>
@@ -9895,7 +9903,7 @@
         <v>-16.765138277312499</v>
       </c>
       <c r="D377" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E377" t="s">
         <v>309</v>
@@ -9912,7 +9920,7 @@
         <v>-27.375082658739501</v>
       </c>
       <c r="D378" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E378" t="s">
         <v>309</v>
@@ -9929,7 +9937,7 @@
         <v>-15.7937434612936</v>
       </c>
       <c r="D379" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E379" t="s">
         <v>309</v>
@@ -9946,7 +9954,7 @@
         <v>-3.3413909562953199</v>
       </c>
       <c r="D380" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E380" t="s">
         <v>309</v>
@@ -9963,7 +9971,7 @@
         <v>-25.059735881247502</v>
       </c>
       <c r="D381" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E381" t="s">
         <v>309</v>
@@ -9980,7 +9988,7 @@
         <v>19.225094511927399</v>
       </c>
       <c r="D382" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E382" t="s">
         <v>309</v>
@@ -9997,7 +10005,7 @@
         <v>-21.590372420537498</v>
       </c>
       <c r="D383" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E383" t="s">
         <v>309</v>
@@ -10014,7 +10022,7 @@
         <v>-6.7669244243291304</v>
       </c>
       <c r="D384" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E384" t="s">
         <v>309</v>
@@ -10031,7 +10039,7 @@
         <v>-0.90912927677458999</v>
       </c>
       <c r="D385" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E385" t="s">
         <v>309</v>
@@ -10048,7 +10056,7 @@
         <v>17.222572683657699</v>
       </c>
       <c r="D386" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E386" t="s">
         <v>309</v>
@@ -10065,7 +10073,7 @@
         <v>5.0641760820708202</v>
       </c>
       <c r="D387" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E387" t="s">
         <v>309</v>
@@ -10082,7 +10090,7 @@
         <v>-19.2624852768081</v>
       </c>
       <c r="D388" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E388" t="s">
         <v>309</v>
@@ -10099,7 +10107,7 @@
         <v>-15.9286522293616</v>
       </c>
       <c r="D389" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E389" t="s">
         <v>309</v>
@@ -10116,7 +10124,7 @@
         <v>-20.925175636557</v>
       </c>
       <c r="D390" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E390" t="s">
         <v>309</v>
@@ -10133,7 +10141,7 @@
         <v>26.118932288253099</v>
       </c>
       <c r="D391" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E391" t="s">
         <v>309</v>
@@ -10150,7 +10158,7 @@
         <v>-20.936530829849499</v>
       </c>
       <c r="D392" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E392" t="s">
         <v>309</v>
@@ -10167,7 +10175,7 @@
         <v>14.865931806746101</v>
       </c>
       <c r="D393" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E393" t="s">
         <v>309</v>
@@ -10184,7 +10192,7 @@
         <v>14.8137452549978</v>
       </c>
       <c r="D394" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E394" t="s">
         <v>309</v>
@@ -10201,7 +10209,7 @@
         <v>8.0405179754439899</v>
       </c>
       <c r="D395" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E395" t="s">
         <v>309</v>
@@ -10218,7 +10226,7 @@
         <v>8.6700582614454902</v>
       </c>
       <c r="D396" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E396" t="s">
         <v>309</v>
@@ -10235,7 +10243,7 @@
         <v>10.628747534439301</v>
       </c>
       <c r="D397" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E397" t="s">
         <v>309</v>
@@ -10252,7 +10260,7 @@
         <v>20.738511642786602</v>
       </c>
       <c r="D398" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E398" t="s">
         <v>309</v>
@@ -10269,7 +10277,7 @@
         <v>-25.212420094819201</v>
       </c>
       <c r="D399" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E399" t="s">
         <v>309</v>
@@ -10286,7 +10294,7 @@
         <v>10.897353145417799</v>
       </c>
       <c r="D400" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E400" t="s">
         <v>309</v>
@@ -10303,7 +10311,7 @@
         <v>21.8539607998649</v>
       </c>
       <c r="D401" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E401" t="s">
         <v>309</v>
@@ -10320,7 +10328,7 @@
         <v>15.1253924563668</v>
       </c>
       <c r="D402" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E402" t="s">
         <v>309</v>
@@ -10337,7 +10345,7 @@
         <v>7.8295141802797898</v>
       </c>
       <c r="D403" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E403" t="s">
         <v>309</v>
@@ -10354,7 +10362,7 @@
         <v>4.9539836068374097</v>
       </c>
       <c r="D404" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E404" t="s">
         <v>309</v>
@@ -10371,7 +10379,7 @@
         <v>-19.222440666047302</v>
       </c>
       <c r="D405" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E405" t="s">
         <v>309</v>
@@ -10388,7 +10396,7 @@
         <v>-20.8880866634561</v>
       </c>
       <c r="D406" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E406" t="s">
         <v>309</v>
@@ -10405,7 +10413,7 @@
         <v>-13.960801590167099</v>
       </c>
       <c r="D407" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E407" t="s">
         <v>309</v>
@@ -10422,7 +10430,7 @@
         <v>-15.523563933945701</v>
       </c>
       <c r="D408" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E408" t="s">
         <v>309</v>
@@ -10439,7 +10447,7 @@
         <v>10.373344573835899</v>
       </c>
       <c r="D409" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E409" t="s">
         <v>309</v>
@@ -10456,7 +10464,7 @@
         <v>-26.253065439580801</v>
       </c>
       <c r="D410" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E410" t="s">
         <v>309</v>
@@ -10473,7 +10481,7 @@
         <v>9.2870742634445307</v>
       </c>
       <c r="D411" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E411" t="s">
         <v>309</v>
@@ -10490,7 +10498,7 @@
         <v>15.862963141133299</v>
       </c>
       <c r="D412" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E412" t="s">
         <v>309</v>
@@ -10507,7 +10515,7 @@
         <v>7.9378037839399598</v>
       </c>
       <c r="D413" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E413" t="s">
         <v>309</v>
@@ -10524,7 +10532,7 @@
         <v>-1.2470173343338899</v>
       </c>
       <c r="D414" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E414" t="s">
         <v>309</v>
@@ -10541,7 +10549,7 @@
         <v>-19.656288767649201</v>
       </c>
       <c r="D415" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E415" t="s">
         <v>309</v>
@@ -10558,7 +10566,7 @@
         <v>8.9865490447519001</v>
       </c>
       <c r="D416" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E416" t="s">
         <v>309</v>
@@ -10575,7 +10583,7 @@
         <v>24.006478539928501</v>
       </c>
       <c r="D417" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E417" t="s">
         <v>309</v>
@@ -10592,7 +10600,7 @@
         <v>-16.632904527218201</v>
       </c>
       <c r="D418" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E418" t="s">
         <v>309</v>
@@ -10609,7 +10617,7 @@
         <v>-24.119415829198601</v>
       </c>
       <c r="D419" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E419" t="s">
         <v>309</v>
@@ -10626,7 +10634,7 @@
         <v>-23.0561253509693</v>
       </c>
       <c r="D420" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E420" t="s">
         <v>309</v>
@@ -10643,7 +10651,7 @@
         <v>-21.624592610551701</v>
       </c>
       <c r="D421" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E421" t="s">
         <v>309</v>
@@ -10660,7 +10668,7 @@
         <v>10.974976029702701</v>
       </c>
       <c r="D422" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E422" t="s">
         <v>309</v>
@@ -10677,7 +10685,7 @@
         <v>5.2675877681229304</v>
       </c>
       <c r="D423" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E423" t="s">
         <v>309</v>
@@ -10694,7 +10702,7 @@
         <v>5.5290906268810698</v>
       </c>
       <c r="D424" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E424" t="s">
         <v>309</v>
@@ -10711,7 +10719,7 @@
         <v>10.075574901772001</v>
       </c>
       <c r="D425" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E425" t="s">
         <v>309</v>
@@ -10728,7 +10736,7 @@
         <v>-15.8114493549526</v>
       </c>
       <c r="D426" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E426" t="s">
         <v>309</v>
@@ -10745,7 +10753,7 @@
         <v>-4.3332913055451199</v>
       </c>
       <c r="D427" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E427" t="s">
         <v>309</v>
@@ -10762,7 +10770,7 @@
         <v>-23.399552404651601</v>
       </c>
       <c r="D428" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E428" t="s">
         <v>309</v>
@@ -10779,7 +10787,7 @@
         <v>11.934056599331299</v>
       </c>
       <c r="D429" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E429" t="s">
         <v>309</v>
@@ -10796,7 +10804,7 @@
         <v>19.934832159846501</v>
       </c>
       <c r="D430" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E430" t="s">
         <v>309</v>
@@ -10813,7 +10821,7 @@
         <v>15.970766375058901</v>
       </c>
       <c r="D431" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E431" t="s">
         <v>309</v>
@@ -10830,7 +10838,7 @@
         <v>-6.3643316799223504</v>
       </c>
       <c r="D432" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E432" t="s">
         <v>309</v>
@@ -10847,7 +10855,7 @@
         <v>-16.353758411997902</v>
       </c>
       <c r="D433" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E433" t="s">
         <v>309</v>
@@ -10864,7 +10872,7 @@
         <v>-2.9031855373036799</v>
       </c>
       <c r="D434" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E434" t="s">
         <v>309</v>
@@ -10881,7 +10889,7 @@
         <v>6.7856511817916596</v>
       </c>
       <c r="D435" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E435" t="s">
         <v>309</v>
@@ -10898,7 +10906,7 @@
         <v>11.0953650003127</v>
       </c>
       <c r="D436" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E436" t="s">
         <v>309</v>
@@ -10915,7 +10923,7 @@
         <v>-9.7438116099997405</v>
       </c>
       <c r="D437" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E437" t="s">
         <v>309</v>
@@ -10932,7 +10940,7 @@
         <v>8.4386058669810105</v>
       </c>
       <c r="D438" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E438" t="s">
         <v>309</v>
@@ -10949,7 +10957,7 @@
         <v>-15.5930567306643</v>
       </c>
       <c r="D439" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E439" t="s">
         <v>309</v>
@@ -10966,7 +10974,7 @@
         <v>11.3673579819461</v>
       </c>
       <c r="D440" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E440" t="s">
         <v>309</v>
@@ -10983,7 +10991,7 @@
         <v>8.9505709885049392</v>
       </c>
       <c r="D441" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E441" t="s">
         <v>309</v>
@@ -11000,7 +11008,7 @@
         <v>6.5582511172746303</v>
       </c>
       <c r="D442" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E442" t="s">
         <v>309</v>
@@ -11017,7 +11025,7 @@
         <v>21.2160125862233</v>
       </c>
       <c r="D443" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E443" t="s">
         <v>309</v>
@@ -11034,7 +11042,7 @@
         <v>9.6024047520638103</v>
       </c>
       <c r="D444" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E444" t="s">
         <v>309</v>
@@ -11051,7 +11059,7 @@
         <v>5.3059787985926601</v>
       </c>
       <c r="D445" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E445" t="s">
         <v>309</v>
@@ -11068,7 +11076,7 @@
         <v>-19.6784907682413</v>
       </c>
       <c r="D446" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E446" t="s">
         <v>309</v>
@@ -11085,7 +11093,7 @@
         <v>-1.55935313689465</v>
       </c>
       <c r="D447" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E447" t="s">
         <v>309</v>
@@ -11102,7 +11110,7 @@
         <v>-21.923155320184499</v>
       </c>
       <c r="D448" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E448" t="s">
         <v>309</v>
@@ -11119,7 +11127,7 @@
         <v>-25.4001903864174</v>
       </c>
       <c r="D449" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E449" t="s">
         <v>309</v>
@@ -11136,7 +11144,7 @@
         <v>-14.718120272958901</v>
       </c>
       <c r="D450" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E450" t="s">
         <v>309</v>
@@ -11153,7 +11161,7 @@
         <v>10.596564914144899</v>
       </c>
       <c r="D451" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E451" t="s">
         <v>309</v>
@@ -11170,7 +11178,7 @@
         <v>-11.544258446675</v>
       </c>
       <c r="D452" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E452" t="s">
         <v>309</v>
@@ -11187,7 +11195,7 @@
         <v>24.5137295815701</v>
       </c>
       <c r="D453" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E453" t="s">
         <v>309</v>
@@ -11204,7 +11212,7 @@
         <v>-12.9499903357836</v>
       </c>
       <c r="D454" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E454" t="s">
         <v>309</v>
@@ -11221,7 +11229,7 @@
         <v>-17.531111390413901</v>
       </c>
       <c r="D455" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E455" t="s">
         <v>309</v>
@@ -11238,7 +11246,7 @@
         <v>15.3148300819723</v>
       </c>
       <c r="D456" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E456" t="s">
         <v>309</v>
@@ -11255,7 +11263,7 @@
         <v>22.286049485183501</v>
       </c>
       <c r="D457" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E457" t="s">
         <v>309</v>
@@ -11272,7 +11280,7 @@
         <v>-11.2679545727611</v>
       </c>
       <c r="D458" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E458" t="s">
         <v>309</v>
@@ -11289,7 +11297,7 @@
         <v>-4.2557670215302998</v>
       </c>
       <c r="D459" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E459" t="s">
         <v>309</v>
@@ -11306,7 +11314,7 @@
         <v>8.8237848288001395</v>
       </c>
       <c r="D460" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E460" t="s">
         <v>309</v>
@@ -11323,7 +11331,7 @@
         <v>9.6746942682275492</v>
       </c>
       <c r="D461" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E461" t="s">
         <v>309</v>
@@ -11340,7 +11348,7 @@
         <v>-15.724964982130301</v>
       </c>
       <c r="D462" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E462" t="s">
         <v>309</v>
@@ -11357,7 +11365,7 @@
         <v>8.4668467181427207</v>
       </c>
       <c r="D463" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E463" t="s">
         <v>309</v>
@@ -11374,7 +11382,7 @@
         <v>-0.17121056746973501</v>
       </c>
       <c r="D464" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E464" t="s">
         <v>309</v>
@@ -11391,7 +11399,7 @@
         <v>-17.887040397166501</v>
       </c>
       <c r="D465" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E465" t="s">
         <v>309</v>
@@ -11408,7 +11416,7 @@
         <v>-8.0459423272719197E-2</v>
       </c>
       <c r="D466" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E466" t="s">
         <v>309</v>
@@ -11425,7 +11433,7 @@
         <v>17.122892686380201</v>
       </c>
       <c r="D467" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E467" t="s">
         <v>309</v>
@@ -11442,7 +11450,7 @@
         <v>-23.973542608484198</v>
       </c>
       <c r="D468" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E468" t="s">
         <v>309</v>
@@ -11459,7 +11467,7 @@
         <v>14.893188634916701</v>
       </c>
       <c r="D469" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E469" t="s">
         <v>309</v>
@@ -11476,7 +11484,7 @@
         <v>4.8871144226056202</v>
       </c>
       <c r="D470" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E470" t="s">
         <v>309</v>
@@ -11493,7 +11501,7 @@
         <v>17.031352459192</v>
       </c>
       <c r="D471" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E471" t="s">
         <v>309</v>
@@ -11510,7 +11518,7 @@
         <v>13.468642878425101</v>
       </c>
       <c r="D472" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E472" t="s">
         <v>309</v>
@@ -11527,7 +11535,7 @@
         <v>-28.734056080683001</v>
       </c>
       <c r="D473" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E473" t="s">
         <v>309</v>
@@ -11544,7 +11552,7 @@
         <v>6.3968752825045296</v>
       </c>
       <c r="D474" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E474" t="s">
         <v>309</v>
@@ -11561,7 +11569,7 @@
         <v>16.323829198620899</v>
       </c>
       <c r="D475" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E475" t="s">
         <v>309</v>
@@ -11578,7 +11586,7 @@
         <v>-3.0260788543872801</v>
       </c>
       <c r="D476" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E476" t="s">
         <v>309</v>
@@ -11595,7 +11603,7 @@
         <v>11.849956153292601</v>
       </c>
       <c r="D477" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E477" t="s">
         <v>309</v>
@@ -11612,7 +11620,7 @@
         <v>-24.982705494706199</v>
       </c>
       <c r="D478" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E478" t="s">
         <v>309</v>
@@ -11629,7 +11637,7 @@
         <v>2.4727850585289399</v>
       </c>
       <c r="D479" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E479" t="s">
         <v>309</v>
@@ -11646,7 +11654,7 @@
         <v>3.8019607884170998</v>
       </c>
       <c r="D480" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E480" t="s">
         <v>309</v>
@@ -11663,7 +11671,7 @@
         <v>9.6147566304066405</v>
       </c>
       <c r="D481" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E481" t="s">
         <v>309</v>
@@ -11680,7 +11688,7 @@
         <v>4.6364044203604804</v>
       </c>
       <c r="D482" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E482" t="s">
         <v>309</v>
@@ -11697,7 +11705,7 @@
         <v>10.0380453834373</v>
       </c>
       <c r="D483" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E483" t="s">
         <v>309</v>
@@ -11714,7 +11722,7 @@
         <v>-23.921815665333899</v>
       </c>
       <c r="D484" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E484" t="s">
         <v>309</v>
@@ -11731,7 +11739,7 @@
         <v>23.271270871877299</v>
       </c>
       <c r="D485" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E485" t="s">
         <v>309</v>
@@ -11748,7 +11756,7 @@
         <v>7.4901237566970398</v>
       </c>
       <c r="D486" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E486" t="s">
         <v>309</v>
@@ -11765,7 +11773,7 @@
         <v>-24.846217127254199</v>
       </c>
       <c r="D487" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E487" t="s">
         <v>309</v>
@@ -11782,7 +11790,7 @@
         <v>-24.188228616043801</v>
       </c>
       <c r="D488" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E488" t="s">
         <v>309</v>
@@ -11799,7 +11807,7 @@
         <v>-3.3522431732221398</v>
       </c>
       <c r="D489" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E489" t="s">
         <v>309</v>
@@ -11816,7 +11824,7 @@
         <v>3.5911538948644002</v>
       </c>
       <c r="D490" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E490" t="s">
         <v>309</v>
@@ -11833,7 +11841,7 @@
         <v>1.73514084034996</v>
       </c>
       <c r="D491" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E491" t="s">
         <v>309</v>
@@ -11850,7 +11858,7 @@
         <v>1.5773706276578201</v>
       </c>
       <c r="D492" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E492" t="s">
         <v>309</v>
@@ -11867,7 +11875,7 @@
         <v>0.95689630241568902</v>
       </c>
       <c r="D493" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E493" t="s">
         <v>309</v>
@@ -11884,7 +11892,7 @@
         <v>10.5275540769742</v>
       </c>
       <c r="D494" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E494" t="s">
         <v>309</v>
@@ -11901,7 +11909,7 @@
         <v>5.9176908224976899</v>
       </c>
       <c r="D495" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E495" t="s">
         <v>309</v>
@@ -11918,7 +11926,7 @@
         <v>4.6049016070688804</v>
       </c>
       <c r="D496" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E496" t="s">
         <v>309</v>
@@ -11935,7 +11943,7 @@
         <v>10.6653730337094</v>
       </c>
       <c r="D497" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E497" t="s">
         <v>309</v>
@@ -11952,7 +11960,7 @@
         <v>-22.0753729120595</v>
       </c>
       <c r="D498" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E498" t="s">
         <v>309</v>
@@ -11969,7 +11977,7 @@
         <v>-19.562342202869999</v>
       </c>
       <c r="D499" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E499" t="s">
         <v>309</v>
@@ -11986,7 +11994,7 @@
         <v>-24.3539154441712</v>
       </c>
       <c r="D500" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E500" t="s">
         <v>309</v>
@@ -12003,7 +12011,7 @@
         <v>-0.74756801669363104</v>
       </c>
       <c r="D501" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E501" t="s">
         <v>309</v>
@@ -12020,7 +12028,7 @@
         <v>14.6270466247638</v>
       </c>
       <c r="D502" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E502" t="s">
         <v>309</v>
@@ -12037,7 +12045,7 @@
         <v>-8.1943435446824395</v>
       </c>
       <c r="D503" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E503" t="s">
         <v>309</v>
@@ -12054,7 +12062,7 @@
         <v>8.83083790667866</v>
       </c>
       <c r="D504" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E504" t="s">
         <v>309</v>
@@ -12071,7 +12079,7 @@
         <v>-3.6926347721670898</v>
       </c>
       <c r="D505" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E505" t="s">
         <v>309</v>
@@ -12088,7 +12096,7 @@
         <v>-26.9704953980353</v>
       </c>
       <c r="D506" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E506" t="s">
         <v>309</v>
@@ -12105,7 +12113,7 @@
         <v>0.914017262726326</v>
       </c>
       <c r="D507" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E507" t="s">
         <v>309</v>
@@ -12122,7 +12130,7 @@
         <v>-15.572895293054</v>
       </c>
       <c r="D508" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E508" t="s">
         <v>309</v>
@@ -12139,7 +12147,7 @@
         <v>-10.8091309159531</v>
       </c>
       <c r="D509" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E509" t="s">
         <v>309</v>
@@ -12156,7 +12164,7 @@
         <v>10.794078899930099</v>
       </c>
       <c r="D510" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E510" t="s">
         <v>309</v>
@@ -12173,7 +12181,7 @@
         <v>17.664103577118599</v>
       </c>
       <c r="D511" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E511" t="s">
         <v>309</v>
@@ -12190,7 +12198,7 @@
         <v>-25.366296163377601</v>
       </c>
       <c r="D512" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E512" t="s">
         <v>309</v>
@@ -12207,7 +12215,7 @@
         <v>11.7939885223169</v>
       </c>
       <c r="D513" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E513" t="s">
         <v>309</v>
@@ -12224,7 +12232,7 @@
         <v>11.218413042871701</v>
       </c>
       <c r="D514" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E514" t="s">
         <v>309</v>
@@ -12241,7 +12249,7 @@
         <v>1.7235874957088599</v>
       </c>
       <c r="D515" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E515" t="s">
         <v>309</v>
@@ -12258,7 +12266,7 @@
         <v>-17.553623394989401</v>
       </c>
       <c r="D516" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E516" t="s">
         <v>309</v>
@@ -12275,7 +12283,7 @@
         <v>12.403493278762401</v>
       </c>
       <c r="D517" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E517" t="s">
         <v>309</v>
@@ -12292,7 +12300,7 @@
         <v>-1.2246894482094901</v>
       </c>
       <c r="D518" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E518" t="s">
         <v>309</v>
@@ -12309,7 +12317,7 @@
         <v>2.4482016699727698</v>
       </c>
       <c r="D519" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E519" t="s">
         <v>309</v>
@@ -12326,7 +12334,7 @@
         <v>-23.059896716265701</v>
       </c>
       <c r="D520" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E520" t="s">
         <v>309</v>
@@ -12343,7 +12351,7 @@
         <v>6.4212936699381897</v>
       </c>
       <c r="D521" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E521" t="s">
         <v>309</v>
@@ -12360,7 +12368,7 @@
         <v>9.4312022661469008</v>
       </c>
       <c r="D522" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E522" t="s">
         <v>309</v>
@@ -12377,7 +12385,7 @@
         <v>23.476543654671101</v>
       </c>
       <c r="D523" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E523" t="s">
         <v>309</v>
@@ -12394,7 +12402,7 @@
         <v>-26.709891249078801</v>
       </c>
       <c r="D524" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E524" t="s">
         <v>309</v>
@@ -12411,7 +12419,7 @@
         <v>14.208300009311699</v>
       </c>
       <c r="D525" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E525" t="s">
         <v>309</v>
@@ -12428,7 +12436,7 @@
         <v>-23.747180590551402</v>
       </c>
       <c r="D526" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E526" t="s">
         <v>309</v>
@@ -12445,7 +12453,7 @@
         <v>6.2235222892586899</v>
       </c>
       <c r="D527" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E527" t="s">
         <v>309</v>
@@ -12462,7 +12470,7 @@
         <v>1.7049584241248299</v>
       </c>
       <c r="D528" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E528" t="s">
         <v>309</v>
@@ -12479,7 +12487,7 @@
         <v>-4.3822411945375599</v>
       </c>
       <c r="D529" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E529" t="s">
         <v>309</v>
@@ -12496,7 +12504,7 @@
         <v>2.09586578162794</v>
       </c>
       <c r="D530" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E530" t="s">
         <v>309</v>
@@ -12513,7 +12521,7 @@
         <v>7.18751946748446</v>
       </c>
       <c r="D531" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E531" t="s">
         <v>309</v>
@@ -12530,7 +12538,7 @@
         <v>10.3422399097461</v>
       </c>
       <c r="D532" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E532" t="s">
         <v>309</v>
@@ -12547,7 +12555,7 @@
         <v>9.9166770654431797</v>
       </c>
       <c r="D533" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E533" t="s">
         <v>309</v>
@@ -12564,7 +12572,7 @@
         <v>13.696741887925301</v>
       </c>
       <c r="D534" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E534" t="s">
         <v>309</v>
@@ -12581,7 +12589,7 @@
         <v>-18.231349071395801</v>
       </c>
       <c r="D535" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E535" t="s">
         <v>309</v>
@@ -12598,7 +12606,7 @@
         <v>9.6520643996961706</v>
       </c>
       <c r="D536" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E536" t="s">
         <v>309</v>
@@ -12615,7 +12623,7 @@
         <v>15.2501240926552</v>
       </c>
       <c r="D537" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E537" t="s">
         <v>309</v>
@@ -12632,7 +12640,7 @@
         <v>-2.4167874708392398</v>
       </c>
       <c r="D538" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E538" t="s">
         <v>309</v>
@@ -12649,7 +12657,7 @@
         <v>14.533635547607499</v>
       </c>
       <c r="D539" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E539" t="s">
         <v>309</v>
@@ -12666,7 +12674,7 @@
         <v>19.728507824482001</v>
       </c>
       <c r="D540" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E540" t="s">
         <v>309</v>
@@ -12683,7 +12691,7 @@
         <v>22.9038481264521</v>
       </c>
       <c r="D541" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E541" t="s">
         <v>309</v>
@@ -12700,7 +12708,7 @@
         <v>11.8653174778531</v>
       </c>
       <c r="D542" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E542" t="s">
         <v>309</v>
@@ -12717,7 +12725,7 @@
         <v>-7.9974038719979701</v>
       </c>
       <c r="D543" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E543" t="s">
         <v>309</v>
@@ -12734,7 +12742,7 @@
         <v>8.0527599317262109</v>
       </c>
       <c r="D544" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E544" t="s">
         <v>309</v>
@@ -12751,7 +12759,7 @@
         <v>-17.242706863583201</v>
       </c>
       <c r="D545" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E545" t="s">
         <v>309</v>
@@ -12768,7 +12776,7 @@
         <v>-6.7899456999238801</v>
       </c>
       <c r="D546" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E546" t="s">
         <v>309</v>
@@ -12785,7 +12793,7 @@
         <v>7.7575976931819604</v>
       </c>
       <c r="D547" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E547" t="s">
         <v>309</v>
@@ -12802,7 +12810,7 @@
         <v>-2.82022060798543</v>
       </c>
       <c r="D548" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E548" t="s">
         <v>309</v>
@@ -12819,7 +12827,7 @@
         <v>15.032194290202201</v>
       </c>
       <c r="D549" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E549" t="s">
         <v>309</v>
@@ -12836,7 +12844,7 @@
         <v>5.5193732821926096</v>
       </c>
       <c r="D550" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E550" t="s">
         <v>309</v>
@@ -12853,7 +12861,7 @@
         <v>-14.983203736347299</v>
       </c>
       <c r="D551" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E551" t="s">
         <v>309</v>
@@ -12870,7 +12878,7 @@
         <v>10.9325171951045</v>
       </c>
       <c r="D552" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E552" t="s">
         <v>309</v>
@@ -12887,7 +12895,7 @@
         <v>0.40797353888791299</v>
       </c>
       <c r="D553" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E553" t="s">
         <v>309</v>
@@ -12904,7 +12912,7 @@
         <v>3.35983398377775</v>
       </c>
       <c r="D554" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E554" t="s">
         <v>309</v>
@@ -12921,7 +12929,7 @@
         <v>24.603828930479501</v>
       </c>
       <c r="D555" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E555" t="s">
         <v>309</v>
@@ -12938,7 +12946,7 @@
         <v>0.32562549741924002</v>
       </c>
       <c r="D556" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E556" t="s">
         <v>309</v>
@@ -12955,7 +12963,7 @@
         <v>11.054322607965601</v>
       </c>
       <c r="D557" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E557" t="s">
         <v>309</v>
@@ -12972,7 +12980,7 @@
         <v>10.731717739314901</v>
       </c>
       <c r="D558" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E558" t="s">
         <v>309</v>
@@ -12989,7 +12997,7 @@
         <v>-12.844081583832001</v>
       </c>
       <c r="D559" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E559" t="s">
         <v>309</v>
@@ -13006,7 +13014,7 @@
         <v>0.430513231916062</v>
       </c>
       <c r="D560" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E560" t="s">
         <v>309</v>
@@ -13023,7 +13031,7 @@
         <v>10.9047144398921</v>
       </c>
       <c r="D561" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E561" t="s">
         <v>309</v>
@@ -13040,7 +13048,7 @@
         <v>-3.0006220527704799</v>
       </c>
       <c r="D562" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E562" t="s">
         <v>309</v>
@@ -13057,7 +13065,7 @@
         <v>9.9899416785387007</v>
       </c>
       <c r="D563" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E563" t="s">
         <v>309</v>
@@ -13074,7 +13082,7 @@
         <v>2.2377397136339301</v>
       </c>
       <c r="D564" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E564" t="s">
         <v>309</v>
@@ -13091,7 +13099,7 @@
         <v>1.0030795176485101</v>
       </c>
       <c r="D565" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E565" t="s">
         <v>309</v>
@@ -13108,7 +13116,7 @@
         <v>23.110064964150599</v>
       </c>
       <c r="D566" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E566" t="s">
         <v>309</v>
@@ -13125,7 +13133,7 @@
         <v>9.5875923862082697</v>
       </c>
       <c r="D567" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E567" t="s">
         <v>309</v>
@@ -13142,7 +13150,7 @@
         <v>4.5263960982689104</v>
       </c>
       <c r="D568" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E568" t="s">
         <v>309</v>
@@ -13159,7 +13167,7 @@
         <v>16.2294892577521</v>
       </c>
       <c r="D569" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E569" t="s">
         <v>309</v>
@@ -13176,7 +13184,7 @@
         <v>6.3557418280409896</v>
       </c>
       <c r="D570" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E570" t="s">
         <v>309</v>
@@ -13193,7 +13201,7 @@
         <v>-25.477027299506901</v>
       </c>
       <c r="D571" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E571" t="s">
         <v>309</v>
@@ -13210,7 +13218,7 @@
         <v>14.456141516062299</v>
       </c>
       <c r="D572" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E572" t="s">
         <v>309</v>
@@ -13227,7 +13235,7 @@
         <v>3.2682984329389102</v>
       </c>
       <c r="D573" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E573" t="s">
         <v>309</v>
@@ -13244,7 +13252,7 @@
         <v>30.486956606710699</v>
       </c>
       <c r="D574" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E574" t="s">
         <v>309</v>
@@ -13261,7 +13269,7 @@
         <v>16.687567319560099</v>
       </c>
       <c r="D575" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E575" t="s">
         <v>309</v>
@@ -13278,7 +13286,7 @@
         <v>-12.3162505999709</v>
       </c>
       <c r="D576" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E576" t="s">
         <v>309</v>
@@ -13295,7 +13303,7 @@
         <v>-5.3100634759129299</v>
       </c>
       <c r="D577" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E577" t="s">
         <v>309</v>
@@ -13312,7 +13320,7 @@
         <v>14.760138757820499</v>
       </c>
       <c r="D578" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E578" t="s">
         <v>309</v>
@@ -13329,7 +13337,7 @@
         <v>-26.227772336690698</v>
       </c>
       <c r="D579" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E579" t="s">
         <v>309</v>
@@ -13346,7 +13354,7 @@
         <v>-21.502327705103198</v>
       </c>
       <c r="D580" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E580" t="s">
         <v>309</v>
@@ -13363,7 +13371,7 @@
         <v>13.319368446045001</v>
       </c>
       <c r="D581" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E581" t="s">
         <v>309</v>
@@ -13380,7 +13388,7 @@
         <v>-20.5578696529561</v>
       </c>
       <c r="D582" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E582" t="s">
         <v>309</v>
@@ -13397,7 +13405,7 @@
         <v>-2.2304557905126301</v>
       </c>
       <c r="D583" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E583" t="s">
         <v>309</v>
@@ -13414,7 +13422,7 @@
         <v>28.367473138447401</v>
       </c>
       <c r="D584" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E584" t="s">
         <v>309</v>
@@ -13431,7 +13439,7 @@
         <v>0.64953915767658199</v>
       </c>
       <c r="D585" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E585" t="s">
         <v>309</v>
@@ -13448,7 +13456,7 @@
         <v>19.4321937265317</v>
       </c>
       <c r="D586" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E586" t="s">
         <v>309</v>
@@ -13465,7 +13473,7 @@
         <v>5.3535117915424904</v>
       </c>
       <c r="D587" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E587" t="s">
         <v>309</v>
@@ -13482,7 +13490,7 @@
         <v>5.5298042855000702</v>
       </c>
       <c r="D588" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E588" t="s">
         <v>309</v>
@@ -13499,7 +13507,7 @@
         <v>-18.133325325521</v>
       </c>
       <c r="D589" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E589" t="s">
         <v>309</v>
@@ -13516,7 +13524,7 @@
         <v>-7.4049706332182099</v>
       </c>
       <c r="D590" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E590" t="s">
         <v>309</v>
@@ -13533,7 +13541,7 @@
         <v>-1.2853780648169999</v>
       </c>
       <c r="D591" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E591" t="s">
         <v>309</v>
@@ -13550,7 +13558,7 @@
         <v>-26.795674711109999</v>
       </c>
       <c r="D592" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E592" t="s">
         <v>309</v>
@@ -13567,7 +13575,7 @@
         <v>-12.592620509639</v>
       </c>
       <c r="D593" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E593" t="s">
         <v>309</v>
@@ -13584,7 +13592,7 @@
         <v>-20.528019971734199</v>
       </c>
       <c r="D594" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E594" t="s">
         <v>309</v>
@@ -13601,7 +13609,7 @@
         <v>1.4034245495103099</v>
       </c>
       <c r="D595" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E595" t="s">
         <v>309</v>
@@ -13618,7 +13626,7 @@
         <v>7.14051713011371</v>
       </c>
       <c r="D596" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E596" t="s">
         <v>309</v>
@@ -13635,7 +13643,7 @@
         <v>-2.70766675404743</v>
       </c>
       <c r="D597" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E597" t="s">
         <v>309</v>
@@ -13652,7 +13660,7 @@
         <v>4.9267055611493999</v>
       </c>
       <c r="D598" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E598" t="s">
         <v>309</v>
@@ -13669,7 +13677,7 @@
         <v>23.282945950193898</v>
       </c>
       <c r="D599" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E599" t="s">
         <v>309</v>
@@ -13686,7 +13694,7 @@
         <v>-23.772443695513498</v>
       </c>
       <c r="D600" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E600" t="s">
         <v>309</v>
@@ -13703,7 +13711,7 @@
         <v>5.1433747894820998</v>
       </c>
       <c r="D601" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E601" t="s">
         <v>309</v>
@@ -13720,7 +13728,7 @@
         <v>-0.17791692509951501</v>
       </c>
       <c r="D602" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E602" t="s">
         <v>309</v>
@@ -13737,7 +13745,7 @@
         <v>-28.860515607342101</v>
       </c>
       <c r="D603" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E603" t="s">
         <v>309</v>
@@ -13754,7 +13762,7 @@
         <v>-16.348177711413399</v>
       </c>
       <c r="D604" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E604" t="s">
         <v>309</v>
@@ -13771,7 +13779,7 @@
         <v>-2.1785255784487698</v>
       </c>
       <c r="D605" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E605" t="s">
         <v>309</v>
@@ -13788,7 +13796,7 @@
         <v>14.199937598556099</v>
       </c>
       <c r="D606" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E606" t="s">
         <v>309</v>
@@ -13805,7 +13813,7 @@
         <v>2.7767907106126302</v>
       </c>
       <c r="D607" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E607" t="s">
         <v>309</v>
@@ -13822,7 +13830,7 @@
         <v>10.099756433558801</v>
       </c>
       <c r="D608" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E608" t="s">
         <v>309</v>
@@ -13839,7 +13847,7 @@
         <v>1.17720981055828</v>
       </c>
       <c r="D609" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E609" t="s">
         <v>309</v>
@@ -13856,7 +13864,7 @@
         <v>-9.5840245285669798</v>
       </c>
       <c r="D610" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E610" t="s">
         <v>309</v>
@@ -13873,7 +13881,7 @@
         <v>17.012530638675202</v>
       </c>
       <c r="D611" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E611" t="s">
         <v>309</v>
@@ -13890,7 +13898,7 @@
         <v>19.6710265910834</v>
       </c>
       <c r="D612" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E612" t="s">
         <v>309</v>
@@ -13907,7 +13915,7 @@
         <v>9.80801418962014</v>
       </c>
       <c r="D613" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E613" t="s">
         <v>309</v>
@@ -13924,7 +13932,7 @@
         <v>-21.324854568856601</v>
       </c>
       <c r="D614" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E614" t="s">
         <v>309</v>
@@ -13941,7 +13949,7 @@
         <v>-11.936253025570499</v>
       </c>
       <c r="D615" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E615" t="s">
         <v>309</v>
@@ -13958,7 +13966,7 @@
         <v>12.0795207526971</v>
       </c>
       <c r="D616" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E616" t="s">
         <v>309</v>
@@ -13975,7 +13983,7 @@
         <v>17.581929622689302</v>
       </c>
       <c r="D617" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E617" t="s">
         <v>309</v>
@@ -13992,7 +14000,7 @@
         <v>7.9323314742265003</v>
       </c>
       <c r="D618" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E618" t="s">
         <v>309</v>
@@ -14009,7 +14017,7 @@
         <v>-16.2408353474137</v>
       </c>
       <c r="D619" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E619" t="s">
         <v>309</v>
@@ -14026,7 +14034,7 @@
         <v>-4.1170574500633101</v>
       </c>
       <c r="D620" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E620" t="s">
         <v>309</v>
@@ -14043,7 +14051,7 @@
         <v>7.7341415219316501</v>
       </c>
       <c r="D621" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E621" t="s">
         <v>309</v>
@@ -14060,7 +14068,7 @@
         <v>-0.18237064315006499</v>
       </c>
       <c r="D622" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E622" t="s">
         <v>309</v>
@@ -14077,7 +14085,7 @@
         <v>5.2542793144198798</v>
       </c>
       <c r="D623" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E623" t="s">
         <v>309</v>
@@ -14094,7 +14102,7 @@
         <v>-9.7523549230875801</v>
       </c>
       <c r="D624" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E624" t="s">
         <v>309</v>
@@ -14111,7 +14119,7 @@
         <v>-20.7061491249749</v>
       </c>
       <c r="D625" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E625" t="s">
         <v>309</v>
@@ -14128,7 +14136,7 @@
         <v>-20.7937193220579</v>
       </c>
       <c r="D626" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E626" t="s">
         <v>309</v>
@@ -14145,7 +14153,7 @@
         <v>-16.421173306975</v>
       </c>
       <c r="D627" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E627" t="s">
         <v>309</v>
@@ -14162,7 +14170,7 @@
         <v>0.214817561596231</v>
       </c>
       <c r="D628" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E628" t="s">
         <v>309</v>
@@ -14179,7 +14187,7 @@
         <v>-19.9164109796818</v>
       </c>
       <c r="D629" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E629" t="s">
         <v>309</v>
@@ -14196,7 +14204,7 @@
         <v>5.9005327346283902</v>
       </c>
       <c r="D630" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E630" t="s">
         <v>309</v>
@@ -14213,7 +14221,7 @@
         <v>-10.0714223236581</v>
       </c>
       <c r="D631" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E631" t="s">
         <v>309</v>
@@ -14230,7 +14238,7 @@
         <v>-25.720939508185001</v>
       </c>
       <c r="D632" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E632" t="s">
         <v>309</v>
@@ -14247,7 +14255,7 @@
         <v>5.1806691611604796</v>
       </c>
       <c r="D633" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E633" t="s">
         <v>309</v>
@@ -14264,7 +14272,7 @@
         <v>10.562862024265099</v>
       </c>
       <c r="D634" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E634" t="s">
         <v>309</v>
@@ -14281,7 +14289,7 @@
         <v>0.223741091164391</v>
       </c>
       <c r="D635" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E635" t="s">
         <v>309</v>
@@ -14298,7 +14306,7 @@
         <v>13.522301066846101</v>
       </c>
       <c r="D636" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E636" t="s">
         <v>309</v>
@@ -14315,7 +14323,7 @@
         <v>8.3980474527232793</v>
       </c>
       <c r="D637" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E637" t="s">
         <v>309</v>
@@ -14332,7 +14340,7 @@
         <v>-23.5454634270931</v>
       </c>
       <c r="D638" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E638" t="s">
         <v>309</v>
@@ -14349,7 +14357,7 @@
         <v>-18.3793902646389</v>
       </c>
       <c r="D639" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E639" t="s">
         <v>309</v>
@@ -14366,7 +14374,7 @@
         <v>20.5291521920667</v>
       </c>
       <c r="D640" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E640" t="s">
         <v>309</v>
@@ -14383,7 +14391,7 @@
         <v>22.3626198552214</v>
       </c>
       <c r="D641" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E641" t="s">
         <v>309</v>
@@ -14400,7 +14408,7 @@
         <v>-7.1261272812641003</v>
       </c>
       <c r="D642" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E642" t="s">
         <v>309</v>
@@ -14417,7 +14425,7 @@
         <v>10.244364906012001</v>
       </c>
       <c r="D643" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E643" t="s">
         <v>309</v>
@@ -14434,7 +14442,7 @@
         <v>-21.448643072191601</v>
       </c>
       <c r="D644" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E644" t="s">
         <v>309</v>
@@ -14451,7 +14459,7 @@
         <v>-19.9993657415679</v>
       </c>
       <c r="D645" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E645" t="s">
         <v>309</v>
@@ -14468,7 +14476,7 @@
         <v>2.20549471875065</v>
       </c>
       <c r="D646" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E646" t="s">
         <v>309</v>
@@ -14485,7 +14493,7 @@
         <v>9.2035257181162002</v>
       </c>
       <c r="D647" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E647" t="s">
         <v>309</v>
@@ -14502,7 +14510,7 @@
         <v>22.034000931005401</v>
       </c>
       <c r="D648" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E648" t="s">
         <v>309</v>
@@ -14519,7 +14527,7 @@
         <v>3.62531624873743</v>
       </c>
       <c r="D649" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E649" t="s">
         <v>309</v>
@@ -14536,7 +14544,7 @@
         <v>4.5592472939864601</v>
       </c>
       <c r="D650" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E650" t="s">
         <v>309</v>
@@ -14553,7 +14561,7 @@
         <v>7.6610579630411397</v>
       </c>
       <c r="D651" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E651" t="s">
         <v>309</v>
@@ -14570,7 +14578,7 @@
         <v>-5.4754137460808696</v>
       </c>
       <c r="D652" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E652" t="s">
         <v>309</v>
@@ -14587,7 +14595,7 @@
         <v>2.91902243368328</v>
       </c>
       <c r="D653" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E653" t="s">
         <v>309</v>
@@ -14604,7 +14612,7 @@
         <v>0.70019903336824496</v>
       </c>
       <c r="D654" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E654" t="s">
         <v>309</v>
@@ -14621,7 +14629,7 @@
         <v>7.1261890486499802</v>
       </c>
       <c r="D655" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E655" t="s">
         <v>309</v>
@@ -14638,7 +14646,7 @@
         <v>-1.4799269010600999</v>
       </c>
       <c r="D656" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E656" t="s">
         <v>309</v>
@@ -14655,7 +14663,7 @@
         <v>15.508406418453699</v>
       </c>
       <c r="D657" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E657" t="s">
         <v>309</v>
@@ -14672,7 +14680,7 @@
         <v>6.9752552911964196</v>
       </c>
       <c r="D658" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E658" t="s">
         <v>309</v>
@@ -14689,7 +14697,7 @@
         <v>6.7437758005819202</v>
       </c>
       <c r="D659" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E659" t="s">
         <v>309</v>
@@ -14706,7 +14714,7 @@
         <v>-10.1706927683262</v>
       </c>
       <c r="D660" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E660" t="s">
         <v>309</v>
@@ -14723,7 +14731,7 @@
         <v>8.1304586254977202</v>
       </c>
       <c r="D661" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E661" t="s">
         <v>309</v>
@@ -14740,7 +14748,7 @@
         <v>22.888003044727501</v>
       </c>
       <c r="D662" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E662" t="s">
         <v>309</v>
@@ -14757,7 +14765,7 @@
         <v>19.0979914560377</v>
       </c>
       <c r="D663" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E663" t="s">
         <v>309</v>
@@ -14774,7 +14782,7 @@
         <v>13.798182728274099</v>
       </c>
       <c r="D664" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E664" t="s">
         <v>309</v>
@@ -14791,7 +14799,7 @@
         <v>18.530181861255699</v>
       </c>
       <c r="D665" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E665" t="s">
         <v>309</v>
@@ -14808,7 +14816,7 @@
         <v>12.9207339030543</v>
       </c>
       <c r="D666" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E666" t="s">
         <v>309</v>
@@ -14825,7 +14833,7 @@
         <v>11.882805002377401</v>
       </c>
       <c r="D667" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E667" t="s">
         <v>309</v>
@@ -14842,7 +14850,7 @@
         <v>6.4634422950638601</v>
       </c>
       <c r="D668" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E668" t="s">
         <v>309</v>
@@ -14859,7 +14867,7 @@
         <v>10.7140531855537</v>
       </c>
       <c r="D669" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E669" t="s">
         <v>309</v>
@@ -14876,7 +14884,7 @@
         <v>-3.5226099552898398</v>
       </c>
       <c r="D670" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E670" t="s">
         <v>309</v>
@@ -14893,7 +14901,7 @@
         <v>19.250903654060799</v>
       </c>
       <c r="D671" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E671" t="s">
         <v>309</v>
@@ -14910,7 +14918,7 @@
         <v>9.3962051699584102</v>
       </c>
       <c r="D672" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E672" t="s">
         <v>309</v>
@@ -14927,7 +14935,7 @@
         <v>-6.7592740915956302</v>
       </c>
       <c r="D673" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E673" t="s">
         <v>309</v>
@@ -14944,7 +14952,7 @@
         <v>9.2715210035488091</v>
       </c>
       <c r="D674" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E674" t="s">
         <v>309</v>
@@ -14961,7 +14969,7 @@
         <v>9.3416516836888999</v>
       </c>
       <c r="D675" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E675" t="s">
         <v>309</v>
@@ -14978,7 +14986,7 @@
         <v>6.5577227623276597</v>
       </c>
       <c r="D676" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E676" t="s">
         <v>309</v>
@@ -14995,7 +15003,7 @@
         <v>-7.9324365442282101</v>
       </c>
       <c r="D677" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E677" t="s">
         <v>309</v>
@@ -15012,7 +15020,7 @@
         <v>2.5389550798928</v>
       </c>
       <c r="D678" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E678" t="s">
         <v>309</v>
@@ -15029,7 +15037,7 @@
         <v>7.76230911156643</v>
       </c>
       <c r="D679" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E679" t="s">
         <v>309</v>
@@ -15046,7 +15054,7 @@
         <v>1.4851050419918199</v>
       </c>
       <c r="D680" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E680" t="s">
         <v>309</v>
@@ -15063,7 +15071,7 @@
         <v>10.092668344951701</v>
       </c>
       <c r="D681" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E681" t="s">
         <v>309</v>
@@ -15080,7 +15088,7 @@
         <v>3.9321948434371201</v>
       </c>
       <c r="D682" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E682" t="s">
         <v>309</v>
@@ -15097,7 +15105,7 @@
         <v>13.441150343858901</v>
       </c>
       <c r="D683" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E683" t="s">
         <v>309</v>
@@ -15114,7 +15122,7 @@
         <v>22.263696299227199</v>
       </c>
       <c r="D684" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E684" t="s">
         <v>309</v>
@@ -15131,7 +15139,7 @@
         <v>-21.9153740891654</v>
       </c>
       <c r="D685" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E685" t="s">
         <v>309</v>
@@ -15148,7 +15156,7 @@
         <v>1.8277221532805199</v>
       </c>
       <c r="D686" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E686" t="s">
         <v>309</v>
@@ -15165,7 +15173,7 @@
         <v>2.48823284337649</v>
       </c>
       <c r="D687" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E687" t="s">
         <v>309</v>
@@ -15182,7 +15190,7 @@
         <v>-20.147550847838801</v>
       </c>
       <c r="D688" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E688" t="s">
         <v>309</v>
@@ -15199,7 +15207,7 @@
         <v>-3.2056529549394601</v>
       </c>
       <c r="D689" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E689" t="s">
         <v>309</v>
@@ -15216,7 +15224,7 @@
         <v>-5.0414566166642603</v>
       </c>
       <c r="D690" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E690" t="s">
         <v>309</v>
@@ -15233,7 +15241,7 @@
         <v>1.3468178132597901</v>
       </c>
       <c r="D691" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E691" t="s">
         <v>309</v>
@@ -15250,7 +15258,7 @@
         <v>12.128020864989599</v>
       </c>
       <c r="D692" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E692" t="s">
         <v>309</v>
@@ -15267,7 +15275,7 @@
         <v>12.164067967930899</v>
       </c>
       <c r="D693" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E693" t="s">
         <v>309</v>
@@ -15284,7 +15292,7 @@
         <v>5.4630779834263299</v>
       </c>
       <c r="D694" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E694" t="s">
         <v>309</v>
@@ -15301,7 +15309,7 @@
         <v>-22.2735248491257</v>
       </c>
       <c r="D695" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E695" t="s">
         <v>309</v>
@@ -15318,7 +15326,7 @@
         <v>-3.9529600899156199</v>
       </c>
       <c r="D696" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E696" t="s">
         <v>309</v>
@@ -15335,7 +15343,7 @@
         <v>1.91218745761105</v>
       </c>
       <c r="D697" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E697" t="s">
         <v>309</v>
@@ -15352,7 +15360,7 @@
         <v>-0.17020391376986799</v>
       </c>
       <c r="D698" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E698" t="s">
         <v>309</v>
@@ -15369,7 +15377,7 @@
         <v>15.5463241124147</v>
       </c>
       <c r="D699" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E699" t="s">
         <v>309</v>
@@ -15386,7 +15394,7 @@
         <v>-23.811877439216101</v>
       </c>
       <c r="D700" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E700" t="s">
         <v>309</v>
@@ -15403,7 +15411,7 @@
         <v>17.6882797446628</v>
       </c>
       <c r="D701" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E701" t="s">
         <v>309</v>
@@ -15420,7 +15428,7 @@
         <v>-9.6988539061503296</v>
       </c>
       <c r="D702" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E702" t="s">
         <v>309</v>
@@ -15437,7 +15445,7 @@
         <v>16.476690663298701</v>
       </c>
       <c r="D703" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E703" t="s">
         <v>309</v>
@@ -15454,7 +15462,7 @@
         <v>-25.151897005436101</v>
       </c>
       <c r="D704" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E704" t="s">
         <v>309</v>
@@ -15471,7 +15479,7 @@
         <v>-16.271914512851598</v>
       </c>
       <c r="D705" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E705" t="s">
         <v>309</v>
@@ -15488,7 +15496,7 @@
         <v>9.18730835564957</v>
       </c>
       <c r="D706" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E706" t="s">
         <v>309</v>
@@ -15505,7 +15513,7 @@
         <v>4.99518639678094</v>
       </c>
       <c r="D707" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E707" t="s">
         <v>309</v>
@@ -15522,7 +15530,7 @@
         <v>-1.7142209466054701</v>
       </c>
       <c r="D708" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E708" t="s">
         <v>309</v>
@@ -15539,7 +15547,7 @@
         <v>1.6975694626291601E-2</v>
       </c>
       <c r="D709" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E709" t="s">
         <v>309</v>
@@ -15556,7 +15564,7 @@
         <v>-22.0989832999716</v>
       </c>
       <c r="D710" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E710" t="s">
         <v>309</v>
@@ -15573,7 +15581,7 @@
         <v>9.2943725012271106</v>
       </c>
       <c r="D711" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E711" t="s">
         <v>309</v>
@@ -15590,7 +15598,7 @@
         <v>-15.220781822717999</v>
       </c>
       <c r="D712" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E712" t="s">
         <v>309</v>
@@ -15607,7 +15615,7 @@
         <v>-18.9902495260867</v>
       </c>
       <c r="D713" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E713" t="s">
         <v>309</v>
@@ -15624,7 +15632,7 @@
         <v>2.1052721633931699</v>
       </c>
       <c r="D714" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E714" t="s">
         <v>309</v>
@@ -15641,7 +15649,7 @@
         <v>18.9374696121657</v>
       </c>
       <c r="D715" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E715" t="s">
         <v>309</v>
@@ -15658,7 +15666,7 @@
         <v>-24.644759886943199</v>
       </c>
       <c r="D716" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E716" t="s">
         <v>309</v>
@@ -15675,7 +15683,7 @@
         <v>-19.811786479779801</v>
       </c>
       <c r="D717" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E717" t="s">
         <v>309</v>
@@ -15692,7 +15700,7 @@
         <v>13.385345743485001</v>
       </c>
       <c r="D718" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E718" t="s">
         <v>309</v>
@@ -15709,7 +15717,7 @@
         <v>5.55400005034587</v>
       </c>
       <c r="D719" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E719" t="s">
         <v>309</v>
@@ -15726,7 +15734,7 @@
         <v>12.797079222029399</v>
       </c>
       <c r="D720" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E720" t="s">
         <v>309</v>
@@ -15743,7 +15751,7 @@
         <v>-12.438721461308599</v>
       </c>
       <c r="D721" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E721" t="s">
         <v>309</v>
@@ -15760,7 +15768,7 @@
         <v>-16.632724658431901</v>
       </c>
       <c r="D722" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E722" t="s">
         <v>309</v>
@@ -15777,7 +15785,7 @@
         <v>-20.5075425885214</v>
       </c>
       <c r="D723" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E723" t="s">
         <v>309</v>
@@ -15794,7 +15802,7 @@
         <v>7.9216723442427304</v>
       </c>
       <c r="D724" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E724" t="s">
         <v>309</v>
@@ -15811,7 +15819,7 @@
         <v>-25.1025399539772</v>
       </c>
       <c r="D725" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E725" t="s">
         <v>309</v>
@@ -15828,7 +15836,7 @@
         <v>8.9120206921944192</v>
       </c>
       <c r="D726" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E726" t="s">
         <v>309</v>
@@ -15845,7 +15853,7 @@
         <v>7.8826014287698403</v>
       </c>
       <c r="D727" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E727" t="s">
         <v>309</v>
@@ -15862,7 +15870,7 @@
         <v>-12.455131740872099</v>
       </c>
       <c r="D728" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E728" t="s">
         <v>309</v>
@@ -15879,7 +15887,7 @@
         <v>9.2697357521746202</v>
       </c>
       <c r="D729" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E729" t="s">
         <v>309</v>
@@ -15896,7 +15904,7 @@
         <v>17.072541257689799</v>
       </c>
       <c r="D730" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E730" t="s">
         <v>309</v>
@@ -15913,7 +15921,7 @@
         <v>-13.3983316972606</v>
       </c>
       <c r="D731" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E731" t="s">
         <v>309</v>
@@ -15930,7 +15938,7 @@
         <v>6.78447264470881</v>
       </c>
       <c r="D732" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E732" t="s">
         <v>309</v>
@@ -15947,7 +15955,7 @@
         <v>-18.380437896118799</v>
       </c>
       <c r="D733" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E733" t="s">
         <v>309</v>
@@ -15964,7 +15972,7 @@
         <v>8.2326721116048702</v>
       </c>
       <c r="D734" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E734" t="s">
         <v>309</v>
@@ -15981,7 +15989,7 @@
         <v>7.5336278605832803</v>
       </c>
       <c r="D735" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E735" t="s">
         <v>309</v>
@@ -15998,7 +16006,7 @@
         <v>10.109500587529499</v>
       </c>
       <c r="D736" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E736" t="s">
         <v>309</v>
@@ -16015,7 +16023,7 @@
         <v>-14.6717719380463</v>
       </c>
       <c r="D737" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E737" t="s">
         <v>309</v>
@@ -16032,7 +16040,7 @@
         <v>6.8623446987743097</v>
       </c>
       <c r="D738" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E738" t="s">
         <v>309</v>
@@ -16049,7 +16057,7 @@
         <v>2.38563013029807</v>
       </c>
       <c r="D739" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E739" t="s">
         <v>309</v>
@@ -16066,7 +16074,7 @@
         <v>-1.00011802301085</v>
       </c>
       <c r="D740" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E740" t="s">
         <v>309</v>
@@ -16083,7 +16091,7 @@
         <v>11.385105670549001</v>
       </c>
       <c r="D741" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E741" t="s">
         <v>309</v>
@@ -16100,7 +16108,7 @@
         <v>6.1962329772669902</v>
       </c>
       <c r="D742" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E742" t="s">
         <v>309</v>
@@ -16117,7 +16125,7 @@
         <v>-7.3194369755283297</v>
       </c>
       <c r="D743" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E743" t="s">
         <v>309</v>
@@ -16134,7 +16142,7 @@
         <v>5.71318707898509</v>
       </c>
       <c r="D744" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E744" t="s">
         <v>309</v>
@@ -16151,7 +16159,7 @@
         <v>7.83237522234786</v>
       </c>
       <c r="D745" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E745" t="s">
         <v>309</v>
@@ -16168,7 +16176,7 @@
         <v>15.1394607056019</v>
       </c>
       <c r="D746" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E746" t="s">
         <v>309</v>
@@ -16185,7 +16193,7 @@
         <v>5.7817186497966304</v>
       </c>
       <c r="D747" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E747" t="s">
         <v>309</v>
@@ -16202,7 +16210,7 @@
         <v>1.99489166445179</v>
       </c>
       <c r="D748" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E748" t="s">
         <v>309</v>
@@ -16219,7 +16227,7 @@
         <v>4.3053040442145099</v>
       </c>
       <c r="D749" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E749" t="s">
         <v>309</v>
@@ -16236,7 +16244,7 @@
         <v>11.166314816685601</v>
       </c>
       <c r="D750" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E750" t="s">
         <v>309</v>
@@ -16253,7 +16261,7 @@
         <v>15.9984224301521</v>
       </c>
       <c r="D751" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E751" t="s">
         <v>309</v>
@@ -16270,7 +16278,7 @@
         <v>14.712075766969701</v>
       </c>
       <c r="D752" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E752" t="s">
         <v>309</v>
@@ -16287,7 +16295,7 @@
         <v>16.1372815621284</v>
       </c>
       <c r="D753" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E753" t="s">
         <v>309</v>
@@ -16304,7 +16312,7 @@
         <v>5.1907607068179402</v>
       </c>
       <c r="D754" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E754" t="s">
         <v>309</v>
@@ -16321,7 +16329,7 @@
         <v>-4.7342610651281003</v>
       </c>
       <c r="D755" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E755" t="s">
         <v>309</v>
@@ -16338,7 +16346,7 @@
         <v>10.9093050796188</v>
       </c>
       <c r="D756" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E756" t="s">
         <v>309</v>
@@ -16355,7 +16363,7 @@
         <v>-14.426842509041601</v>
       </c>
       <c r="D757" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E757" t="s">
         <v>309</v>
@@ -16372,7 +16380,7 @@
         <v>-25.545647894992801</v>
       </c>
       <c r="D758" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E758" t="s">
         <v>309</v>
@@ -16389,7 +16397,7 @@
         <v>-23.315000725086101</v>
       </c>
       <c r="D759" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E759" t="s">
         <v>309</v>
@@ -16406,7 +16414,7 @@
         <v>13.186883313654</v>
       </c>
       <c r="D760" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E760" t="s">
         <v>309</v>
@@ -16423,7 +16431,7 @@
         <v>12.2308524497173</v>
       </c>
       <c r="D761" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E761" t="s">
         <v>309</v>
@@ -16440,7 +16448,7 @@
         <v>14.381269879217999</v>
       </c>
       <c r="D762" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E762" t="s">
         <v>309</v>
@@ -16457,7 +16465,7 @@
         <v>-18.2139422105211</v>
       </c>
       <c r="D763" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E763" t="s">
         <v>309</v>
@@ -16474,7 +16482,7 @@
         <v>24.6121480737756</v>
       </c>
       <c r="D764" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E764" t="s">
         <v>309</v>
@@ -16491,7 +16499,7 @@
         <v>-6.3994689976260801</v>
       </c>
       <c r="D765" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E765" t="s">
         <v>309</v>
@@ -16508,7 +16516,7 @@
         <v>8.6013932017760908</v>
       </c>
       <c r="D766" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E766" t="s">
         <v>309</v>
@@ -16525,7 +16533,7 @@
         <v>9.5235723381464208</v>
       </c>
       <c r="D767" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E767" t="s">
         <v>309</v>
@@ -16542,7 +16550,7 @@
         <v>10.154518394107701</v>
       </c>
       <c r="D768" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E768" t="s">
         <v>309</v>
@@ -16559,7 +16567,7 @@
         <v>-2.91370056187445</v>
       </c>
       <c r="D769" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E769" t="s">
         <v>309</v>
@@ -16576,7 +16584,7 @@
         <v>-24.512009822856001</v>
       </c>
       <c r="D770" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E770" t="s">
         <v>309</v>
@@ -16593,7 +16601,7 @@
         <v>15.7762935112851</v>
       </c>
       <c r="D771" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E771" t="s">
         <v>309</v>
@@ -16610,7 +16618,7 @@
         <v>-14.091628097694599</v>
       </c>
       <c r="D772" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E772" t="s">
         <v>309</v>
@@ -16627,7 +16635,7 @@
         <v>-3.6136856761213698</v>
       </c>
       <c r="D773" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E773" t="s">
         <v>309</v>
@@ -16644,7 +16652,7 @@
         <v>-1.4641259565635201</v>
       </c>
       <c r="D774" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E774" t="s">
         <v>309</v>
@@ -16661,7 +16669,7 @@
         <v>-3.92086106501909</v>
       </c>
       <c r="D775" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E775" t="s">
         <v>309</v>
@@ -16678,7 +16686,7 @@
         <v>2.7277746732865298</v>
       </c>
       <c r="D776" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E776" t="s">
         <v>309</v>
@@ -16695,7 +16703,7 @@
         <v>9.9669683074631603</v>
       </c>
       <c r="D777" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E777" t="s">
         <v>309</v>
@@ -16712,7 +16720,7 @@
         <v>12.108505864649199</v>
       </c>
       <c r="D778" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E778" t="s">
         <v>309</v>
@@ -16729,7 +16737,7 @@
         <v>6.1171848079947502</v>
       </c>
       <c r="D779" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E779" t="s">
         <v>309</v>
@@ -16746,7 +16754,7 @@
         <v>-13.6709297699516</v>
       </c>
       <c r="D780" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E780" t="s">
         <v>309</v>
@@ -16763,7 +16771,7 @@
         <v>1.3049905073822701</v>
       </c>
       <c r="D781" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E781" t="s">
         <v>309</v>
@@ -16780,7 +16788,7 @@
         <v>11.618045548829</v>
       </c>
       <c r="D782" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E782" t="s">
         <v>309</v>
@@ -16797,7 +16805,7 @@
         <v>2.0802991181199499</v>
       </c>
       <c r="D783" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E783" t="s">
         <v>309</v>
@@ -16814,7 +16822,7 @@
         <v>13.9556529701243</v>
       </c>
       <c r="D784" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E784" t="s">
         <v>309</v>
@@ -16831,7 +16839,7 @@
         <v>-16.490684999766501</v>
       </c>
       <c r="D785" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E785" t="s">
         <v>309</v>
@@ -16848,7 +16856,7 @@
         <v>14.8238906241286</v>
       </c>
       <c r="D786" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E786" t="s">
         <v>309</v>
@@ -16865,7 +16873,7 @@
         <v>12.3178027288166</v>
       </c>
       <c r="D787" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E787" t="s">
         <v>309</v>
@@ -16882,7 +16890,7 @@
         <v>-25.288319474191301</v>
       </c>
       <c r="D788" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E788" t="s">
         <v>309</v>
@@ -16899,7 +16907,7 @@
         <v>22.802452454526101</v>
       </c>
       <c r="D789" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E789" t="s">
         <v>309</v>
@@ -16916,7 +16924,7 @@
         <v>15.620693478880799</v>
       </c>
       <c r="D790" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E790" t="s">
         <v>309</v>
@@ -16933,7 +16941,7 @@
         <v>-28.5228800332942</v>
       </c>
       <c r="D791" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E791" t="s">
         <v>309</v>
@@ -16950,7 +16958,7 @@
         <v>25.690122699887802</v>
       </c>
       <c r="D792" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E792" t="s">
         <v>309</v>
@@ -16967,7 +16975,7 @@
         <v>20.4034266094306</v>
       </c>
       <c r="D793" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E793" t="s">
         <v>309</v>
@@ -16984,7 +16992,7 @@
         <v>15.4639135457378</v>
       </c>
       <c r="D794" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E794" t="s">
         <v>309</v>
@@ -17001,7 +17009,7 @@
         <v>-24.2998101094927</v>
       </c>
       <c r="D795" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E795" t="s">
         <v>309</v>
@@ -17018,7 +17026,7 @@
         <v>12.068243855283599</v>
       </c>
       <c r="D796" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E796" t="s">
         <v>309</v>
@@ -17035,7 +17043,7 @@
         <v>2.7090693928947198</v>
       </c>
       <c r="D797" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E797" t="s">
         <v>309</v>
@@ -17052,7 +17060,7 @@
         <v>4.65438892666812</v>
       </c>
       <c r="D798" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E798" t="s">
         <v>309</v>
@@ -17069,7 +17077,7 @@
         <v>22.633559891332499</v>
       </c>
       <c r="D799" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E799" t="s">
         <v>309</v>
@@ -17086,7 +17094,7 @@
         <v>5.0059100476137601</v>
       </c>
       <c r="D800" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E800" t="s">
         <v>309</v>
@@ -17103,7 +17111,7 @@
         <v>8.4055162885659094</v>
       </c>
       <c r="D801" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E801" t="s">
         <v>309</v>
@@ -17120,7 +17128,7 @@
         <v>-26.964081827191499</v>
       </c>
       <c r="D802" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E802" t="s">
         <v>309</v>
@@ -17137,7 +17145,7 @@
         <v>-1.3381093139367399</v>
       </c>
       <c r="D803" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E803" t="s">
         <v>309</v>
@@ -17154,7 +17162,7 @@
         <v>-5.9517511731863602</v>
       </c>
       <c r="D804" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E804" t="s">
         <v>309</v>
@@ -17171,7 +17179,7 @@
         <v>7.0843135389712799</v>
       </c>
       <c r="D805" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E805" t="s">
         <v>309</v>
@@ -17188,7 +17196,7 @@
         <v>10.919318756716301</v>
       </c>
       <c r="D806" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E806" t="s">
         <v>309</v>
@@ -17205,7 +17213,7 @@
         <v>13.8242788638451</v>
       </c>
       <c r="D807" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E807" t="s">
         <v>309</v>
@@ -17222,7 +17230,7 @@
         <v>1.30845814418986</v>
       </c>
       <c r="D808" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E808" t="s">
         <v>309</v>
@@ -17239,7 +17247,7 @@
         <v>-2.63093075659613</v>
       </c>
       <c r="D809" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E809" t="s">
         <v>309</v>
@@ -17256,7 +17264,7 @@
         <v>10.023422217293801</v>
       </c>
       <c r="D810" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E810" t="s">
         <v>309</v>
@@ -17273,7 +17281,7 @@
         <v>0.49092364452228499</v>
       </c>
       <c r="D811" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E811" t="s">
         <v>309</v>
@@ -17290,7 +17298,7 @@
         <v>-22.947900711323701</v>
       </c>
       <c r="D812" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E812" t="s">
         <v>309</v>
@@ -17307,7 +17315,7 @@
         <v>14.058461608315399</v>
       </c>
       <c r="D813" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E813" t="s">
         <v>309</v>
@@ -17324,7 +17332,7 @@
         <v>-15.321757447421501</v>
       </c>
       <c r="D814" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E814" t="s">
         <v>309</v>
@@ -17341,7 +17349,7 @@
         <v>12.062571707525599</v>
       </c>
       <c r="D815" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E815" t="s">
         <v>309</v>
@@ -17358,7 +17366,7 @@
         <v>-22.191194706565199</v>
       </c>
       <c r="D816" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E816" t="s">
         <v>309</v>
@@ -17375,7 +17383,7 @@
         <v>-20.647099543092899</v>
       </c>
       <c r="D817" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E817" t="s">
         <v>309</v>
@@ -17392,7 +17400,7 @@
         <v>3.4467079079555401</v>
       </c>
       <c r="D818" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E818" t="s">
         <v>309</v>
@@ -17409,7 +17417,7 @@
         <v>4.9192383603026704</v>
       </c>
       <c r="D819" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E819" t="s">
         <v>309</v>
@@ -17426,7 +17434,7 @@
         <v>-1.2714229093579501</v>
       </c>
       <c r="D820" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E820" t="s">
         <v>309</v>
@@ -17443,7 +17451,7 @@
         <v>-1.63456506386923</v>
       </c>
       <c r="D821" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E821" t="s">
         <v>309</v>
@@ -17460,7 +17468,7 @@
         <v>7.8836032411481103</v>
       </c>
       <c r="D822" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E822" t="s">
         <v>309</v>
@@ -17477,7 +17485,7 @@
         <v>-17.346154295853498</v>
       </c>
       <c r="D823" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E823" t="s">
         <v>309</v>
@@ -17494,7 +17502,7 @@
         <v>-11.6785233813365</v>
       </c>
       <c r="D824" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E824" t="s">
         <v>309</v>
@@ -17511,7 +17519,7 @@
         <v>13.820181298806901</v>
       </c>
       <c r="D825" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E825" t="s">
         <v>309</v>
@@ -17528,7 +17536,7 @@
         <v>-26.370584282306101</v>
       </c>
       <c r="D826" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E826" t="s">
         <v>309</v>
@@ -17545,7 +17553,7 @@
         <v>-18.008227234850398</v>
       </c>
       <c r="D827" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E827" t="s">
         <v>309</v>
@@ -17562,7 +17570,7 @@
         <v>-1.3684161869938001</v>
       </c>
       <c r="D828" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E828" t="s">
         <v>309</v>
@@ -17579,7 +17587,7 @@
         <v>-13.7209653348619</v>
       </c>
       <c r="D829" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E829" t="s">
         <v>309</v>
@@ -17596,7 +17604,7 @@
         <v>-18.701792166835801</v>
       </c>
       <c r="D830" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E830" t="s">
         <v>309</v>
@@ -17613,7 +17621,7 @@
         <v>10.8325944789456</v>
       </c>
       <c r="D831" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E831" t="s">
         <v>309</v>
@@ -17630,7 +17638,7 @@
         <v>-0.93319103236009804</v>
       </c>
       <c r="D832" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E832" t="s">
         <v>309</v>
@@ -17647,7 +17655,7 @@
         <v>8.6593103441907608</v>
       </c>
       <c r="D833" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E833" t="s">
         <v>309</v>
@@ -17664,7 +17672,7 @@
         <v>22.4286161603371</v>
       </c>
       <c r="D834" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E834" t="s">
         <v>309</v>
@@ -17681,7 +17689,7 @@
         <v>13.4283247985855</v>
       </c>
       <c r="D835" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E835" t="s">
         <v>309</v>
@@ -17698,7 +17706,7 @@
         <v>2.7606877436240098</v>
       </c>
       <c r="D836" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E836" t="s">
         <v>309</v>
@@ -17715,7 +17723,7 @@
         <v>5.2938652312204901</v>
       </c>
       <c r="D837" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E837" t="s">
         <v>309</v>
@@ -17732,7 +17740,7 @@
         <v>12.4998670571429</v>
       </c>
       <c r="D838" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E838" t="s">
         <v>309</v>
@@ -17749,7 +17757,7 @@
         <v>8.2141994044066404</v>
       </c>
       <c r="D839" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E839" t="s">
         <v>309</v>
@@ -17766,7 +17774,7 @@
         <v>8.4077763361233604</v>
       </c>
       <c r="D840" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E840" t="s">
         <v>309</v>
@@ -17783,7 +17791,7 @@
         <v>14.215660627817099</v>
       </c>
       <c r="D841" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E841" t="s">
         <v>309</v>
@@ -17800,7 +17808,7 @@
         <v>2.7527039675058198</v>
       </c>
       <c r="D842" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E842" t="s">
         <v>309</v>
@@ -17817,7 +17825,7 @@
         <v>-26.3358267856769</v>
       </c>
       <c r="D843" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E843" t="s">
         <v>309</v>
@@ -17834,7 +17842,7 @@
         <v>-7.4440649122394804</v>
       </c>
       <c r="D844" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E844" t="s">
         <v>309</v>
@@ -17851,7 +17859,7 @@
         <v>18.771932073963701</v>
       </c>
       <c r="D845" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E845" t="s">
         <v>309</v>
@@ -17868,7 +17876,7 @@
         <v>9.0635445399514101</v>
       </c>
       <c r="D846" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E846" t="s">
         <v>309</v>
@@ -17885,7 +17893,7 @@
         <v>16.849380100955202</v>
       </c>
       <c r="D847" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E847" t="s">
         <v>309</v>
@@ -17902,7 +17910,7 @@
         <v>15.730837157557</v>
       </c>
       <c r="D848" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E848" t="s">
         <v>309</v>
@@ -17919,7 +17927,7 @@
         <v>9.3685927819129091</v>
       </c>
       <c r="D849" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E849" t="s">
         <v>309</v>
@@ -17936,7 +17944,7 @@
         <v>18.727109605265401</v>
       </c>
       <c r="D850" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E850" t="s">
         <v>309</v>
@@ -17953,7 +17961,7 @@
         <v>-19.617453375993598</v>
       </c>
       <c r="D851" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E851" t="s">
         <v>309</v>
@@ -17970,7 +17978,7 @@
         <v>-8.2515202627354007</v>
       </c>
       <c r="D852" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E852" t="s">
         <v>309</v>
@@ -17987,7 +17995,7 @@
         <v>-24.963221128251998</v>
       </c>
       <c r="D853" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E853" t="s">
         <v>309</v>
@@ -18004,7 +18012,7 @@
         <v>-1.9118784091618899</v>
       </c>
       <c r="D854" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E854" t="s">
         <v>309</v>
@@ -18021,7 +18029,7 @@
         <v>20.246284943711998</v>
       </c>
       <c r="D855" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E855" t="s">
         <v>309</v>
@@ -18038,7 +18046,7 @@
         <v>14.31828172148</v>
       </c>
       <c r="D856" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E856" t="s">
         <v>309</v>
@@ -18055,7 +18063,7 @@
         <v>3.1856362179989</v>
       </c>
       <c r="D857" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E857" t="s">
         <v>309</v>
@@ -18072,7 +18080,7 @@
         <v>6.2421329566421297</v>
       </c>
       <c r="D858" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E858" t="s">
         <v>309</v>
@@ -18089,7 +18097,7 @@
         <v>-24.458157031032499</v>
       </c>
       <c r="D859" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E859" t="s">
         <v>309</v>
@@ -18106,7 +18114,7 @@
         <v>-12.5495952638571</v>
       </c>
       <c r="D860" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E860" t="s">
         <v>309</v>
@@ -18123,7 +18131,7 @@
         <v>23.216900756334802</v>
       </c>
       <c r="D861" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E861" t="s">
         <v>309</v>
@@ -18140,7 +18148,7 @@
         <v>-25.210271459177999</v>
       </c>
       <c r="D862" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E862" t="s">
         <v>309</v>
@@ -18157,7 +18165,7 @@
         <v>5.9343177364473396</v>
       </c>
       <c r="D863" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E863" t="s">
         <v>309</v>
@@ -18174,7 +18182,7 @@
         <v>-4.8513655270102003</v>
       </c>
       <c r="D864" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E864" t="s">
         <v>309</v>
@@ -18191,7 +18199,7 @@
         <v>17.587447618229302</v>
       </c>
       <c r="D865" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E865" t="s">
         <v>309</v>
@@ -18208,7 +18216,7 @@
         <v>3.92752088122583</v>
       </c>
       <c r="D866" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E866" t="s">
         <v>309</v>
@@ -18225,7 +18233,7 @@
         <v>27.7079523180286</v>
       </c>
       <c r="D867" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E867" t="s">
         <v>309</v>
@@ -18242,7 +18250,7 @@
         <v>17.435375864156299</v>
       </c>
       <c r="D868" t="s">
-        <v>309</v>
+        <v>875</v>
       </c>
       <c r="E868" t="s">
         <v>309</v>

--- a/plotting/muscle_pca.xlsx
+++ b/plotting/muscle_pca.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\ABRF_GBIRG_OntologyStudy\plotting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB88613A-F405-423A-9D5A-E6FF6A585263}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459C4FA0-2F11-440D-85D9-58E78F15CF5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22725" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="muscle_pca" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId2"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="879">
   <si>
     <t>PC1</t>
   </si>
@@ -2648,6 +2651,15 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of levs</t>
   </si>
 </sst>
 </file>
@@ -3131,8 +3143,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3189,6 +3206,6161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Charlie Whittaker" refreshedDate="44541.357235532407" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="867" xr:uid="{8F5B43DB-E0E3-4149-AF0A-F6820172D358}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E868" sheet="muscle_pca"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Sample" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="PC1" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-84.027993567037299" maxValue="51.016005071338498"/>
+    </cacheField>
+    <cacheField name="PC2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-28.860515607342101" maxValue="30.486956606710699"/>
+    </cacheField>
+    <cacheField name="group" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="levs" numFmtId="0">
+      <sharedItems count="2">
+        <s v="LeftVent"/>
+        <s v="Skeletal"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="867">
+  <r>
+    <s v="GTEX-111FC-0826-SM-5GZWO"/>
+    <n v="-72.741999548090504"/>
+    <n v="-8.6813352080387993"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-111YS-0426-SM-5987O"/>
+    <n v="-80.320034071313998"/>
+    <n v="-5.9731455957525803"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1122O-0826-SM-5GICV"/>
+    <n v="-78.682554411130596"/>
+    <n v="-0.51483336568861904"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-117YW-0326-SM-5N9CY"/>
+    <n v="-71.831972107790193"/>
+    <n v="-0.18086401094462201"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-117YX-1126-SM-5H128"/>
+    <n v="-81.515314751103503"/>
+    <n v="-5.8225638221721097"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-11DXX-0326-SM-5PNWC"/>
+    <n v="-80.062663544437697"/>
+    <n v="2.05066622610713"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-11DXY-0826-SM-5EGGR"/>
+    <n v="-71.279619778390895"/>
+    <n v="-1.792207285033"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-11DXZ-0626-SM-5GU77"/>
+    <n v="-76.946541482671407"/>
+    <n v="-11.4547882244163"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-11EM3-0626-SM-5H12Z"/>
+    <n v="-68.6654962052"/>
+    <n v="15.6147436289864"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-11EMC-0726-SM-5EGJO"/>
+    <n v="-75.317341194460496"/>
+    <n v="3.5921450599076299"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-11GS4-0526-SM-5A5KQ"/>
+    <n v="-70.959246550574505"/>
+    <n v="-1.81807939206806"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-11GSP-1326-SM-5A5KY"/>
+    <n v="-69.212885586755704"/>
+    <n v="4.63571836511258"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-11I78-0826-SM-5A5K4"/>
+    <n v="-77.000784119034194"/>
+    <n v="1.9477386974851401"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-11LCK-0926-SM-5A5KA"/>
+    <n v="-78.679077023076999"/>
+    <n v="-3.6786216749895901"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-11O72-1126-SM-5N9E2"/>
+    <n v="-73.404496642042105"/>
+    <n v="5.88706292340418"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-11ONC-0126-SM-5PNW6"/>
+    <n v="-70.235853194679095"/>
+    <n v="-1.1597461232602599"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-11TT1-1326-SM-5PNYM"/>
+    <n v="-75.717221048386804"/>
+    <n v="4.9310890291137897"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-11TUW-1026-SM-5GU7D"/>
+    <n v="-67.408986583104195"/>
+    <n v="4.3891531683783596"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-11ZUS-0226-SM-5FQT8"/>
+    <n v="-75.315722711784304"/>
+    <n v="-11.555054756686101"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-11ZVC-0426-SM-5CVLD"/>
+    <n v="-73.559066575382204"/>
+    <n v="0.52633416365593499"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1211K-0626-SM-5FQUZ"/>
+    <n v="-78.456801698832095"/>
+    <n v="4.1066904122781001"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1212Z-0626-SM-5FQTB"/>
+    <n v="-70.634605823405806"/>
+    <n v="-3.8958963871038601"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-12584-0926-SM-5FQTN"/>
+    <n v="-72.487641941651404"/>
+    <n v="-0.39549098750970002"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-12696-1126-SM-5FQTI"/>
+    <n v="-79.082742743102898"/>
+    <n v="-5.5911876147353103"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1269C-0826-SM-5N9EM"/>
+    <n v="-72.133827304899"/>
+    <n v="7.8577329755235796"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-12BJ1-0226-SM-5LUA2"/>
+    <n v="-82.378165099509999"/>
+    <n v="-4.6320283793251802"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-12WSC-1126-SM-5EQ4G"/>
+    <n v="-75.695264820542604"/>
+    <n v="-7.0124781889567798"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-12WSD-1126-SM-5EGJD"/>
+    <n v="-76.341789365368001"/>
+    <n v="-3.1848201609106699"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-12WSG-0526-SM-5FQTH"/>
+    <n v="-70.894132310250399"/>
+    <n v="6.8035967259812802"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-12WSK-0626-SM-5LZUJ"/>
+    <n v="-74.252956120742496"/>
+    <n v="1.2023421573316"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-12WSN-5001-SM-7DHMK"/>
+    <n v="-77.311074411588905"/>
+    <n v="-4.5541507269626802"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-12ZZW-1026-SM-5GCMM"/>
+    <n v="-50.459988040750297"/>
+    <n v="24.933079563289098"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-12ZZY-1126-SM-5DUWQ"/>
+    <n v="-74.128328181484605"/>
+    <n v="-6.4709052176826498"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-12ZZZ-1726-SM-59HK5"/>
+    <n v="-76.028182519054099"/>
+    <n v="-5.3595112807908301"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13112-0426-SM-5PNVC"/>
+    <n v="-72.5529070020783"/>
+    <n v="-5.6118571897362504"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1313W-1426-SM-5KLZU"/>
+    <n v="-76.337560337545099"/>
+    <n v="-2.23537301862947"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1314G-0126-SM-5LZUL"/>
+    <n v="-75.996502274908806"/>
+    <n v="-1.5789776636428099"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-131XE-0626-SM-5HL98"/>
+    <n v="-75.181039031147293"/>
+    <n v="-0.85190381508049196"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-131XF-5001-SM-7DHLY"/>
+    <n v="-78.228424558670397"/>
+    <n v="-7.4517378983860496"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-131XG-0626-SM-5GCMP"/>
+    <n v="-72.061868942319606"/>
+    <n v="7.4453921333569202"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-131XH-0226-SM-5LZVB"/>
+    <n v="-72.848594527725197"/>
+    <n v="-0.76724626692069198"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-132AR-2026-SM-5IJG4"/>
+    <n v="-76.520050702718393"/>
+    <n v="11.0596389716651"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-132NY-1726-SM-5EGKK"/>
+    <n v="-79.987448225173395"/>
+    <n v="-8.8605419873978608"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-132QS-0426-SM-5KLZ6"/>
+    <n v="-77.522333708831695"/>
+    <n v="-4.1519101965771297"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1339X-0426-SM-5KLZY"/>
+    <n v="-78.298435175803704"/>
+    <n v="1.25260938365459"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1399R-1926-SM-5K7X8"/>
+    <n v="-77.783923791356003"/>
+    <n v="-9.2265855168580906"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1399S-1026-SM-5KLZ9"/>
+    <n v="-79.919125813573004"/>
+    <n v="2.2968914960822202"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1399T-0426-SM-5PNVJ"/>
+    <n v="-56.345424728087103"/>
+    <n v="12.042466696441799"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1399U-0526-SM-5K7YM"/>
+    <n v="-76.496985771925793"/>
+    <n v="2.2516311720187501"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-139YR-0826-SM-5LZXY"/>
+    <n v="-80.577399399109396"/>
+    <n v="-3.5385159518440301"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13CF2-0426-SM-5KM1H"/>
+    <n v="-74.313237186225805"/>
+    <n v="-7.0202406486088504"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13CF3-0726-SM-5J2MY"/>
+    <n v="-75.691727024024601"/>
+    <n v="7.1138187999765599"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13D11-1726-SM-5IFGQ"/>
+    <n v="-82.530935502989195"/>
+    <n v="1.51792542522309"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13FH7-0926-SM-5J2MR"/>
+    <n v="-77.923385359052304"/>
+    <n v="3.0291380384606401"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13FHP-1026-SM-5K7Y2"/>
+    <n v="-59.147856745545802"/>
+    <n v="7.4192110574697097"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13FLV-0926-SM-5L3DZ"/>
+    <n v="-74.569309257454606"/>
+    <n v="-8.0429240686174399"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13FTW-1026-SM-5L3E3"/>
+    <n v="-77.815837078521795"/>
+    <n v="-5.7846904261075904"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13FTZ-0226-SM-5K7X6"/>
+    <n v="-71.355980157531405"/>
+    <n v="-6.5549987445893798"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13JVG-1326-SM-5N9F8"/>
+    <n v="-64.137076891479794"/>
+    <n v="14.419199444807001"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13N11-0426-SM-5KM3O"/>
+    <n v="-80.037609958813704"/>
+    <n v="2.93415603708304"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13N1W-1026-SM-5IJC5"/>
+    <n v="-67.174748948299197"/>
+    <n v="2.0661105583153399"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13NYB-0226-SM-5N9G4"/>
+    <n v="-55.542117729419502"/>
+    <n v="16.607413983387801"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13NZB-0226-SM-5KM1T"/>
+    <n v="-79.109050194925402"/>
+    <n v="-6.32204079767659"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13O1R-1226-SM-5J1NU"/>
+    <n v="-62.273484495731402"/>
+    <n v="13.3768844122161"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13O21-2326-SM-5MR3X"/>
+    <n v="-82.6437847027224"/>
+    <n v="-6.9420942450034602"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13O3O-1526-SM-5KM1C"/>
+    <n v="-79.558410306435306"/>
+    <n v="-1.4469623523601101"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13O3P-1626-SM-5K7X3"/>
+    <n v="-71.646931241895203"/>
+    <n v="5.0609391927943497"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13O61-0526-SM-5J2M1"/>
+    <n v="-80.507362888168302"/>
+    <n v="-5.2342989241142002"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13OVG-0526-SM-5K7YD"/>
+    <n v="-77.730791522304003"/>
+    <n v="-4.1875230148312301"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13OVL-0526-SM-5KLZQ"/>
+    <n v="-78.678224094946003"/>
+    <n v="-9.9597987983501604"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13OW5-1126-SM-5J1NR"/>
+    <n v="-59.127631811309101"/>
+    <n v="11.606023457897599"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13OW6-1126-SM-5L3HL"/>
+    <n v="-71.730003632153"/>
+    <n v="-7.5581690256478904"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13OW8-2126-SM-5J1OS"/>
+    <n v="-68.372830361183603"/>
+    <n v="2.26149233792257"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13PVQ-1226-SM-5IJDC"/>
+    <n v="-73.603419566097998"/>
+    <n v="-0.38632500088541"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13PVR-1026-SM-5QGQW"/>
+    <n v="-80.866725443434305"/>
+    <n v="0.92334087598745396"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13QBU-0426-SM-5J2O4"/>
+    <n v="-80.869054602958101"/>
+    <n v="1.79212247387593"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13RTJ-0726-SM-5QGQN"/>
+    <n v="-76.161529075092304"/>
+    <n v="0.295110849608131"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13S86-0226-SM-5S2PJ"/>
+    <n v="-77.9300227872167"/>
+    <n v="-1.96642545426292"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13SLX-1026-SM-5ZZUQ"/>
+    <n v="-76.241332717149305"/>
+    <n v="-4.4544930869906203"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13U4I-0826-SM-5SIBD"/>
+    <n v="-80.707677373265696"/>
+    <n v="-1.02673616684689"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13VXT-1126-SM-5LU3A"/>
+    <n v="-78.627281308623395"/>
+    <n v="-2.5667066015750999"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13W3W-0426-SM-5SI9D"/>
+    <n v="-71.587473172106897"/>
+    <n v="9.9859035473402695"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13X6H-0426-SM-5LU4E"/>
+    <n v="-82.525906246502998"/>
+    <n v="2.91224528063483"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13X6I-1426-SM-5SI9Z"/>
+    <n v="-65.221942315525695"/>
+    <n v="4.6004534427662804"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-13X6K-1826-SM-5O9CR"/>
+    <n v="-72.896186347296506"/>
+    <n v="5.9417176685532498"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-145LV-0326-SM-5Q5BW"/>
+    <n v="-80.443440579267005"/>
+    <n v="-6.1456920349016597"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-145MN-0626-SM-5QGRH"/>
+    <n v="-74.151496015504307"/>
+    <n v="-1.2579480243619401"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-145MO-1126-SM-5NQBX"/>
+    <n v="-74.480732188167096"/>
+    <n v="2.4216526211825999"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-146FH-1026-SM-5RQIF"/>
+    <n v="-77.344569037808398"/>
+    <n v="0.48869663606751301"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-146FR-0626-SM-5RQJ1"/>
+    <n v="-77.313011681737194"/>
+    <n v="-1.6793066804457"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-147F4-1226-SM-5NQAY"/>
+    <n v="-71.752957628198502"/>
+    <n v="0.36080792950160601"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-147JS-1526-SM-5ZZWF"/>
+    <n v="-68.164091863358195"/>
+    <n v="1.54026292998327"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-148VI-0326-SM-5RQK7"/>
+    <n v="-77.981140948197606"/>
+    <n v="-0.86485532863859305"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-148VJ-1526-SM-5Q5DU"/>
+    <n v="-61.619501957381701"/>
+    <n v="13.4604807728404"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1497J-1226-SM-5Q5BL"/>
+    <n v="-75.3604017011303"/>
+    <n v="1.9327237734887901"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-14A5I-1226-SM-5NQBW"/>
+    <n v="-58.684936272585396"/>
+    <n v="16.371281098301001"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-14A6H-0226-SM-5Q5DX"/>
+    <n v="-81.394938929330706"/>
+    <n v="-7.4905712357133396"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-14BIL-1126-SM-79OMC"/>
+    <n v="-57.778363400528001"/>
+    <n v="18.8158472309693"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-14BIN-2226-SM-5YYA1"/>
+    <n v="-66.177478436240094"/>
+    <n v="13.0055446349674"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-14C38-1426-SM-5RQHZ"/>
+    <n v="-70.327984122677904"/>
+    <n v="10.788577620020099"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-14C39-0926-SM-5TDDV"/>
+    <n v="-62.737314530659503"/>
+    <n v="10.387177033736901"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-14C5O-1326-SM-5S2UW"/>
+    <n v="-70.027942006589399"/>
+    <n v="4.8330758433203602"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-14DAQ-1126-SM-664MT"/>
+    <n v="-73.145974722540402"/>
+    <n v="0.46841442765992303"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-14E1K-1026-SM-73KUR"/>
+    <n v="-77.684541665577598"/>
+    <n v="-4.2071711864972503"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-14E6C-0426-SM-5YYA8"/>
+    <n v="-74.883089769444396"/>
+    <n v="5.5951837699772096"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-14E6D-0926-SM-5S2QV"/>
+    <n v="-63.0084569664713"/>
+    <n v="5.4855936105876104"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-14E7W-1226-SM-5RQIU"/>
+    <n v="-59.101263525815902"/>
+    <n v="1.49315980227403"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-14H4A-0626-SM-5ZZUT"/>
+    <n v="-78.894967023715594"/>
+    <n v="3.33021408018103"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-14JG1-1026-SM-6ETZY"/>
+    <n v="-78.541089254378704"/>
+    <n v="-10.548146952235699"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-14JIY-1126-SM-6EU28"/>
+    <n v="-55.234262490366099"/>
+    <n v="8.2847627702020805"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-14PHX-2126-SM-6EU2U"/>
+    <n v="-78.833247163486007"/>
+    <n v="-4.6038501727233401"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-14PHY-0226-SM-5ZZWM"/>
+    <n v="-80.799928903018397"/>
+    <n v="2.8717842492711698"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-14PJ2-1026-SM-6EU1M"/>
+    <n v="-67.631638535121795"/>
+    <n v="3.9149117367512698"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-14PJ4-1126-SM-5YY91"/>
+    <n v="-79.245523378004407"/>
+    <n v="-0.66849868140211699"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-14PJ6-0726-SM-69LOL"/>
+    <n v="-81.051228656148396"/>
+    <n v="-2.1590964896592499"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-14PK6-0826-SM-5ZZVO"/>
+    <n v="-80.139176200475106"/>
+    <n v="2.4667561158788001"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-14PN3-0526-SM-69LQF"/>
+    <n v="-83.967397415075396"/>
+    <n v="1.7177908546568601"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-14XAO-1126-SM-6EU11"/>
+    <n v="-69.3598872693549"/>
+    <n v="14.872600357398699"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-15CHC-0426-SM-6LLHI"/>
+    <n v="-80.9267745664459"/>
+    <n v="-1.5591240781082201"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-15CHQ-1526-SM-69LPW"/>
+    <n v="-56.517590320264802"/>
+    <n v="8.9289862664571693"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-15DCZ-1126-SM-6871O"/>
+    <n v="-66.346509226941805"/>
+    <n v="16.864553905778301"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-15DDE-1126-SM-6LLHN"/>
+    <n v="-74.346274115222002"/>
+    <n v="4.63514789017818"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-15DYW-1126-SM-6LPK5"/>
+    <n v="-74.113901876234905"/>
+    <n v="6.7611754982098801E-2"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-15EOM-5007-SM-793DG"/>
+    <n v="-74.739563267587002"/>
+    <n v="10.934429470641801"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-15ER7-1726-SM-6PAMX"/>
+    <n v="-70.958560173882205"/>
+    <n v="-1.8835127851373501"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-15RJ7-0226-SM-7KUMN"/>
+    <n v="-77.6513006979919"/>
+    <n v="-12.931077763713001"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-15RJE-0626-SM-7KUKR"/>
+    <n v="-71.220106017878507"/>
+    <n v="2.0691970431939599"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-15SHU-1126-SM-7KUMB"/>
+    <n v="-68.678959582352903"/>
+    <n v="4.3010235497119096"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-15SHW-1226-SM-6M46C"/>
+    <n v="-69.899415540136303"/>
+    <n v="1.7326676377964001"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-16BQI-0926-SM-6M485"/>
+    <n v="-80.245129981757898"/>
+    <n v="0.432784170998956"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-16MT8-0926-SM-6M487"/>
+    <n v="-70.6976808478843"/>
+    <n v="9.9708453070991592"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-16NPX-0926-SM-7KUEZ"/>
+    <n v="-75.227729755988705"/>
+    <n v="-4.7563761409894703"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-16XZY-0426-SM-793BI"/>
+    <n v="-79.351213101618896"/>
+    <n v="-6.1762892490223198"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-16YQH-0926-SM-793BC"/>
+    <n v="-76.182451545645094"/>
+    <n v="-7.4276105946765201"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-17F9E-0926-SM-7IGMG"/>
+    <n v="-81.930684132712798"/>
+    <n v="-7.6690229527456504"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-17GQL-0526-SM-72D5N"/>
+    <n v="-70.324948394236301"/>
+    <n v="3.9209022426423599"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-17HGU-1026-SM-79OKL"/>
+    <n v="-77.7468517264914"/>
+    <n v="-5.4440064546042102"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-17HHY-1426-SM-7EWDQ"/>
+    <n v="-70.134315160665594"/>
+    <n v="-0.31009091039032799"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-17JCI-1126-SM-7IGMM"/>
+    <n v="-70.780143693570807"/>
+    <n v="3.8541930358136098"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-17KNJ-0826-SM-793A4"/>
+    <n v="-81.617441513774907"/>
+    <n v="-7.3265889847599004"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-17MF6-0726-SM-7LT8E"/>
+    <n v="-72.512067075909499"/>
+    <n v="2.2576884332227598"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-18465-0926-SM-731AY"/>
+    <n v="-74.206728271353398"/>
+    <n v="-3.3933179248702401"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-18A66-1226-SM-7LT8G"/>
+    <n v="-72.387651906475497"/>
+    <n v="3.9248511785688098"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-18A67-1226-SM-7KFRS"/>
+    <n v="-84.027993567037299"/>
+    <n v="-5.81686669732344"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-18A6Q-1626-SM-7KFTA"/>
+    <n v="-74.418821517318904"/>
+    <n v="-5.65112856476164"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-18D9B-1226-SM-72D6V"/>
+    <n v="-77.122523451548503"/>
+    <n v="0.91580208449683398"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-18D9U-1126-SM-72D5Y"/>
+    <n v="-81.738128280610695"/>
+    <n v="-4.4899969662958803"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1A3MW-1326-SM-7189P"/>
+    <n v="-73.603269266591894"/>
+    <n v="12.6039582331027"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1A3MX-1326-SM-72D58"/>
+    <n v="-70.562212104182393"/>
+    <n v="6.8176144607375102"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1AX8Z-1326-SM-7DHMO"/>
+    <n v="-75.612485763989497"/>
+    <n v="-1.7044026990447101"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1AX9I-1126-SM-7EPHH"/>
+    <n v="-76.457394795428499"/>
+    <n v="-2.7524912027313801"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1AX9J-1026-SM-72D6E"/>
+    <n v="-80.323346039998199"/>
+    <n v="-3.9935884691146399"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1AX9K-0526-SM-73KV1"/>
+    <n v="-78.844054534902398"/>
+    <n v="-4.2603148812126701"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1AYCT-0426-SM-73KVZ"/>
+    <n v="-81.135207382263204"/>
+    <n v="-6.4627589119458504"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1B8KE-0126-SM-793AM"/>
+    <n v="-72.579158926170805"/>
+    <n v="-6.8796349170551601"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1B8L1-0526-SM-79ONX"/>
+    <n v="-72.937573335702893"/>
+    <n v="-4.8159648048663799"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1B8SG-0826-SM-7EWF7"/>
+    <n v="-69.093436606712103"/>
+    <n v="0.39945112375519098"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1B932-1026-SM-793CL"/>
+    <n v="-78.248267137840003"/>
+    <n v="1.3557633088740599E-2"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1B996-1126-SM-73KWN"/>
+    <n v="-75.545437155224604"/>
+    <n v="-0.71663453515672504"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1BAJH-1626-SM-73KUV"/>
+    <n v="-76.372375661241506"/>
+    <n v="-7.5426800060972203"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1C2JI-0526-SM-7EWEQ"/>
+    <n v="-79.915604825629202"/>
+    <n v="-4.0486577148414904"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1C64O-0826-SM-79OKZ"/>
+    <n v="-78.149334051363695"/>
+    <n v="-3.33688876846329"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1C6VQ-1126-SM-7EWET"/>
+    <n v="-58.270967421308796"/>
+    <n v="20.1025514769048"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1CAMS-1326-SM-79OJR"/>
+    <n v="-78.441640069328898"/>
+    <n v="5.0482926495536402"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1CB4G-0826-SM-7DUGF"/>
+    <n v="-76.127844924950097"/>
+    <n v="-7.5879814302218103"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1E1VI-1326-SM-7IGQD"/>
+    <n v="-76.347990485244395"/>
+    <n v="-2.7533245739421801"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1EH9U-0826-SM-7IGPT"/>
+    <n v="-70.8367249002455"/>
+    <n v="6.4052222764462599"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1EMGI-1226-SM-793DD"/>
+    <n v="-75.900515016273701"/>
+    <n v="-6.0391088150106702"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1EU9M-1826-SM-7DUGU"/>
+    <n v="-79.656482772243706"/>
+    <n v="-8.4895846015577803"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1EWIQ-1426-SM-7IGOS"/>
+    <n v="-67.283408140634606"/>
+    <n v="9.2835013128195101"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-N7MS-0826-SM-2HML4"/>
+    <n v="-71.774498071926701"/>
+    <n v="-5.44327366363982"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-N7MT-1326-SM-2I3FV"/>
+    <n v="-58.640933361861897"/>
+    <n v="22.381340995634002"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-NFK9-0926-SM-2HMJU"/>
+    <n v="-74.365758340821301"/>
+    <n v="-5.0773487380192401"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-NPJ8-0426-SM-2HMK6"/>
+    <n v="-70.264242093058996"/>
+    <n v="7.1149234908860901"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-O5YT-0326-SM-32PKA"/>
+    <n v="-78.779944049721394"/>
+    <n v="-0.20245866551935199"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-O5YV-0326-SM-2I5H2"/>
+    <n v="-76.525522217414903"/>
+    <n v="4.9623892793032001"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-O5YW-0326-SM-2I5EI"/>
+    <n v="-79.631594589316606"/>
+    <n v="-7.4569043280778997"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-OHPK-0326-SM-2HMJO"/>
+    <n v="-78.386444574727705"/>
+    <n v="-1.4771643599250199"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-OHPL-0326-SM-33HC8"/>
+    <n v="-80.576209688835405"/>
+    <n v="-0.85629567182057298"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-OHPM-0326-SM-33HCA"/>
+    <n v="-72.646296567830404"/>
+    <n v="-5.1724756793483602"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-OIZG-1126-SM-2HMIU"/>
+    <n v="-74.383220439170103"/>
+    <n v="-6.6989835278955896"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-OIZH-0326-SM-2HMKC"/>
+    <n v="-77.248311273670296"/>
+    <n v="-6.4171651270071903"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-OOBJ-0326-SM-33HBO"/>
+    <n v="-76.162569362308901"/>
+    <n v="-8.4037784108491707"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-OXRK-0826-SM-2HMK7"/>
+    <n v="-78.6096436647057"/>
+    <n v="-0.57965250152835601"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-OXRL-0326-SM-2I3F2"/>
+    <n v="-79.385884900860702"/>
+    <n v="-8.8675537306565602"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-OXRO-2026-SM-2YUMZ"/>
+    <n v="-66.928429424195897"/>
+    <n v="14.289744522885901"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-P44H-0726-SM-48TBT"/>
+    <n v="-76.190001962890406"/>
+    <n v="2.0816099467581899"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-P4PP-0326-SM-33HC4"/>
+    <n v="-83.583686710270101"/>
+    <n v="-0.99726515248362102"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-P4PQ-0326-SM-2HMJ8"/>
+    <n v="-77.286774967223707"/>
+    <n v="-5.3760671124128603"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-P4QS-0326-SM-2I3EU"/>
+    <n v="-62.921757694038"/>
+    <n v="16.420615170614202"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-P78B-0426-SM-2I5F5"/>
+    <n v="-78.718772269660505"/>
+    <n v="-2.1182386955219101"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-PLZ5-0626-SM-2I5F8"/>
+    <n v="-70.770699744991404"/>
+    <n v="0.43973472923532902"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-POMQ-0326-SM-2I5FO"/>
+    <n v="-81.522208349719904"/>
+    <n v="-3.1851868844498301"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-PSDG-0926-SM-2I5FP"/>
+    <n v="-74.919573225072"/>
+    <n v="-0.97023607071097995"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-PVOW-0426-SM-5MR5R"/>
+    <n v="-75.406082450874194"/>
+    <n v="-5.5281177257278404"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-PWCY-0526-SM-5P9HG"/>
+    <n v="-80.456040573129499"/>
+    <n v="1.36902962090125"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-PX3G-0326-SM-2I3EO"/>
+    <n v="-79.635013734182607"/>
+    <n v="-5.1027399927316299"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-Q2AH-0526-SM-2I3ED"/>
+    <n v="-81.271105914258598"/>
+    <n v="-4.72352923461019"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-QDVJ-0426-SM-2I5FW"/>
+    <n v="-76.049700453407198"/>
+    <n v="-1.2867807261692199E-2"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-QDVN-0326-SM-2I3FS"/>
+    <n v="-77.0018462132889"/>
+    <n v="5.7415900340523001"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-QEG4-0426-SM-33HC3"/>
+    <n v="-79.235595699953606"/>
+    <n v="-8.2862399464581902"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-QEG5-0926-SM-2TC64"/>
+    <n v="-68.658505303447797"/>
+    <n v="5.0312228837691597"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-QEL4-0926-SM-3GAD1"/>
+    <n v="-66.549915079660707"/>
+    <n v="-4.1059743510178599"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-QESD-0526-SM-2I5G5"/>
+    <n v="-75.199197214959895"/>
+    <n v="-4.5759390477462398"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-QLQ7-0526-SM-2I5G3"/>
+    <n v="-81.857554277687498"/>
+    <n v="-6.0952875423143604"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-QMRM-0526-SM-2I5GA"/>
+    <n v="-79.303876134038106"/>
+    <n v="-4.7116973963284101"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-QV44-0526-SM-2S1RE"/>
+    <n v="-78.634413618453806"/>
+    <n v="-7.6704917635713299"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-R45C-0926-SM-3GAD4"/>
+    <n v="-70.9505480775168"/>
+    <n v="6.2066714189047002E-2"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-R53T-0926-SM-3GADH"/>
+    <n v="-77.650298920754693"/>
+    <n v="-3.02389526159928"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-R55C-0326-SM-3GAF1"/>
+    <n v="-82.981894814531302"/>
+    <n v="-6.0858894275875199"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-R55E-1026-SM-2TC5S"/>
+    <n v="-76.530430884139193"/>
+    <n v="-10.174226519138999"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-R55G-0526-SM-2TC5O"/>
+    <n v="-76.790468882378306"/>
+    <n v="2.7628900436689601"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-REY6-1026-SM-2TF4Y"/>
+    <n v="-73.607825892524204"/>
+    <n v="0.43556911990826502"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-RN64-0826-SM-2TC62"/>
+    <n v="-64.1670072011446"/>
+    <n v="-3.16373929594095"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-RNOR-0826-SM-2TF5C"/>
+    <n v="-75.591363725623097"/>
+    <n v="-3.13494801728132"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-RTLS-0826-SM-2TF5Q"/>
+    <n v="-70.542836648773303"/>
+    <n v="7.5561031533730398"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-RU72-0326-SM-2TF5T"/>
+    <n v="-77.262922083880696"/>
+    <n v="-0.49969589295484701"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-RUSQ-0526-SM-2TF72"/>
+    <n v="-73.144319050226301"/>
+    <n v="1.7664137258105399"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-RWS6-0326-SM-2XCAP"/>
+    <n v="-76.173970114267107"/>
+    <n v="0.66723617857269102"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-RWSA-0626-SM-2XCBD"/>
+    <n v="-75.989149851394799"/>
+    <n v="-3.9173717434016"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-S32W-0626-SM-2XCBG"/>
+    <n v="-78.582903574291805"/>
+    <n v="2.6207072903678301"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-S33H-0526-SM-5SI83"/>
+    <n v="-75.448168589271106"/>
+    <n v="-4.4539752008371103"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-SE5C-0626-SM-2XCDV"/>
+    <n v="-81.890522216276096"/>
+    <n v="-2.6841592972878501"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-SIU8-0826-SM-2XCDQ"/>
+    <n v="-59.8664731750873"/>
+    <n v="-1.2090810413475399"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-SNMC-0126-SM-2XCFO"/>
+    <n v="-71.585017751971904"/>
+    <n v="-10.641452634389401"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-T2IS-0426-SM-32QPE"/>
+    <n v="-68.044706949737403"/>
+    <n v="3.0871170208959202"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-T6MN-0926-SM-32PLX"/>
+    <n v="-74.517506980143295"/>
+    <n v="-9.6674454576328195"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-U3ZH-0326-SM-3DB7A"/>
+    <n v="-78.880682739897594"/>
+    <n v="-6.7710339660580399"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-U3ZN-1426-SM-3DB87"/>
+    <n v="-80.300015790266201"/>
+    <n v="-1.2929497216461201"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-U4B1-0326-SM-3DB8K"/>
+    <n v="-75.400030648570294"/>
+    <n v="1.9278849113168699"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-U8XE-1126-SM-3DB8W"/>
+    <n v="-69.990512462434097"/>
+    <n v="-1.10132093345705"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-UJHI-0426-SM-3DB8Y"/>
+    <n v="-80.657194555312103"/>
+    <n v="-2.5476913607450999"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-UJMC-0526-SM-3GAE3"/>
+    <n v="-74.299340733026199"/>
+    <n v="-5.8084341675048501"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-UPK5-0326-SM-5SI81"/>
+    <n v="-77.402074992389004"/>
+    <n v="-5.7552720862790698"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-V1D1-0526-SM-4JBGW"/>
+    <n v="-77.498940302023598"/>
+    <n v="-7.2731555305434599"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-V955-0726-SM-3GAFG"/>
+    <n v="-78.490247971213194"/>
+    <n v="-3.27988178794886"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-WEY5-0426-SM-3GIKT"/>
+    <n v="-79.544961890784094"/>
+    <n v="-0.93641474600928798"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-WFG7-0726-SM-3GIKO"/>
+    <n v="-76.374284795514598"/>
+    <n v="-0.94662156925554197"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-WFG8-0626-SM-3GILJ"/>
+    <n v="-78.988514876772797"/>
+    <n v="-1.1400782558054801"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-WFON-0326-SM-3GIKX"/>
+    <n v="-81.023321800772806"/>
+    <n v="-6.1980362679092398"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-WH7G-0426-SM-3NMBJ"/>
+    <n v="-74.579365437561094"/>
+    <n v="-3.5752820194863801"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-WHPG-0826-SM-3NMBF"/>
+    <n v="-79.798391004785501"/>
+    <n v="-7.4993509707816397"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-WHSE-0926-SM-3NMBS"/>
+    <n v="-77.627093125383993"/>
+    <n v="-0.76444978254449802"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-WHWD-0426-SM-3LK83"/>
+    <n v="-79.473193066833304"/>
+    <n v="-5.9706192264170097"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-WI4N-0626-SM-3TW8Z"/>
+    <n v="-73.788178248536795"/>
+    <n v="11.156614718288701"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-WL46-0926-SM-3LK7T"/>
+    <n v="-75.714899089693802"/>
+    <n v="-7.6255294888120702"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-WQUQ-1426-SM-3MJFD"/>
+    <n v="-75.070991365839802"/>
+    <n v="-2.8979566305758002"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-WRHU-1226-SM-4E3IJ"/>
+    <n v="-68.770762787295993"/>
+    <n v="6.50713068421505"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-WWYW-1326-SM-3NB2S"/>
+    <n v="-66.807571603962302"/>
+    <n v="10.8633571485577"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-WY7C-0526-SM-3NB3D"/>
+    <n v="-74.957166548885297"/>
+    <n v="-0.18189070828668699"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-WYJK-1026-SM-3NM8W"/>
+    <n v="-76.287963962428506"/>
+    <n v="-5.2480750166764896"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-WZTO-1326-SM-3NM8X"/>
+    <n v="-77.3815197931131"/>
+    <n v="-10.748439043607201"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-X15G-0426-SM-4PQZ6"/>
+    <n v="-78.029836740169202"/>
+    <n v="-0.23754465311096901"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-X261-1426-SM-4PQZ1"/>
+    <n v="-53.717177928898202"/>
+    <n v="18.4328508990769"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-X3Y1-0426-SM-3P5Z4"/>
+    <n v="-77.729468268989606"/>
+    <n v="-7.6099390335528199"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-X8HC-1626-SM-46MWE"/>
+    <n v="-71.620492309697198"/>
+    <n v="10.612141121376601"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-XBEC-1326-SM-4AT69"/>
+    <n v="-69.861535623742199"/>
+    <n v="2.17532806786642"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-XBED-0526-SM-47JY3"/>
+    <n v="-77.553999209388905"/>
+    <n v="-3.2765714337027299"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-XGQ4-0326-SM-4GIEE"/>
+    <n v="-78.953284207455496"/>
+    <n v="-5.8161238881204396"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-XPT6-0126-SM-4B65S"/>
+    <n v="-78.053568715973896"/>
+    <n v="-3.5382227385600999"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-XPVG-0826-SM-4B654"/>
+    <n v="-78.056112673175505"/>
+    <n v="-6.9028486710994201"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-XQ3S-0626-SM-4BOOB"/>
+    <n v="-81.304592313522207"/>
+    <n v="-9.3134557354749301"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-XQ8I-0126-SM-4BOPL"/>
+    <n v="-80.3881365429136"/>
+    <n v="-3.7313233095246998"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-XV7Q-0826-SM-4BRV7"/>
+    <n v="-65.632978661318006"/>
+    <n v="19.331321978198101"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-XXEK-0926-SM-4BRWH"/>
+    <n v="-80.148264638824401"/>
+    <n v="-1.6574597267230999"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-Y114-0226-SM-4TT8W"/>
+    <n v="-76.511378770197197"/>
+    <n v="-0.12631076546373099"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-Y3I4-0626-SM-4TT7A"/>
+    <n v="-78.742436550418205"/>
+    <n v="-6.7836378087344098"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-Y3IK-0826-SM-51MT8"/>
+    <n v="-78.944895974509905"/>
+    <n v="-2.4218459697179902"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-Y5V5-0626-SM-4VBPX"/>
+    <n v="-76.0003190236785"/>
+    <n v="-0.51733723878711702"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-Y5V6-0826-SM-4VBRU"/>
+    <n v="-79.468004377971994"/>
+    <n v="-5.5099014420216301"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-Y8E4-0326-SM-4VBRR"/>
+    <n v="-76.783613234065498"/>
+    <n v="-7.36701460118665"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-YB5K-0126-SM-5IFJ2"/>
+    <n v="-68.593519708620605"/>
+    <n v="11.4736866209858"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-YEC3-0726-SM-4YCD1"/>
+    <n v="-79.291642996008093"/>
+    <n v="-6.1627899344642598"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-YEC4-0326-SM-4W216"/>
+    <n v="-75.624475071449396"/>
+    <n v="-4.7486096218479004"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-YF7O-0426-SM-5P9FS"/>
+    <n v="-77.067931505332893"/>
+    <n v="1.18107143065763"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-YFC4-0526-SM-5ZZVI"/>
+    <n v="-78.498117760903895"/>
+    <n v="-0.61452230131699703"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZAB4-1026-SM-5HL7T"/>
+    <n v="-75.749199938831097"/>
+    <n v="-1.9029092180167599"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZAB5-0226-SM-5CVMH"/>
+    <n v="-77.969573590904403"/>
+    <n v="-8.4006007773748603"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZAJG-0826-SM-5PNVA"/>
+    <n v="-72.821604954020003"/>
+    <n v="11.090316576982"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZDTS-1326-SM-6LLHE"/>
+    <n v="-79.595159268376506"/>
+    <n v="-9.0595638680907307"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZDTT-0726-SM-4WKFK"/>
+    <n v="-80.897358060476193"/>
+    <n v="-7.1863762950046901"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZDXO-0726-SM-57WBT"/>
+    <n v="-79.366390143961297"/>
+    <n v="-10.203420862545901"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZDYS-0226-SM-5HL4K"/>
+    <n v="-75.915833517381799"/>
+    <n v="-5.2188469896456002"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZEX8-0426-SM-4WWEN"/>
+    <n v="-80.7044926739743"/>
+    <n v="-7.2883961266896602"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZF29-0226-SM-4WKHO"/>
+    <n v="-81.166544008185298"/>
+    <n v="-0.98916990245469405"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZF2S-1026-SM-4WWB1"/>
+    <n v="-77.946887603917105"/>
+    <n v="-3.66544933438144"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZF3C-1226-SM-4WWCB"/>
+    <n v="-67.597157136059593"/>
+    <n v="10.374862805845"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZG7Y-0926-SM-5EQ6O"/>
+    <n v="-74.982534892263004"/>
+    <n v="-2.52621608166961"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZGAY-0326-SM-57WF5"/>
+    <n v="-78.172708530007796"/>
+    <n v="-1.9975237141090201"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZLFU-0226-SM-4WWFH"/>
+    <n v="-78.333976012826398"/>
+    <n v="-3.3501388727553301"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZPIC-0826-SM-4WWFJ"/>
+    <n v="-73.299803241860701"/>
+    <n v="13.598797052518799"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZPU1-0626-SM-4YCDM"/>
+    <n v="-78.151978561986297"/>
+    <n v="-8.6299535132779805"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZQUD-1526-SM-7IGO2"/>
+    <n v="-81.070714367501594"/>
+    <n v="-6.5865689336682696"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZTPG-1226-SM-4YCDO"/>
+    <n v="-78.821615073451596"/>
+    <n v="6.0547306892425201"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZUA1-0826-SM-4YCDL"/>
+    <n v="-58.492594229957497"/>
+    <n v="10.214526049549599"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZV7C-0326-SM-57WB1"/>
+    <n v="-77.561242838122197"/>
+    <n v="-4.3276352176128103"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZVT2-1026-SM-5GU55"/>
+    <n v="-74.244192839624205"/>
+    <n v="-0.75037820186952597"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZVZP-0226-SM-5NQ73"/>
+    <n v="-80.469087117259704"/>
+    <n v="-4.9703129242053299"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZYFC-1126-SM-5E44W"/>
+    <n v="-75.297966491518906"/>
+    <n v="-9.7416743725185508"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZYFG-0426-SM-5E43M"/>
+    <n v="-80.687989341386697"/>
+    <n v="-0.60179327262569704"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZYT6-1726-SM-5E44P"/>
+    <n v="-60.726783746161402"/>
+    <n v="3.9450617547797"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZYW4-0926-SM-59HJS"/>
+    <n v="-71.254984413746499"/>
+    <n v="5.1271567894112398"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-ZZPU-0926-SM-5GZYT"/>
+    <n v="-76.938523539934906"/>
+    <n v="0.828817989283402"/>
+    <s v="C"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="GTEX-1117F-0426-SM-5EGHI"/>
+    <n v="34.554844901710403"/>
+    <n v="13.9953645274739"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-111CU-2026-SM-5GZZC"/>
+    <n v="39.091661531529297"/>
+    <n v="11.043745874882401"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-111FC-0326-SM-5GZZ1"/>
+    <n v="38.839544647062802"/>
+    <n v="-24.231888336614102"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-111VG-2626-SM-5GZY2"/>
+    <n v="46.252681559420097"/>
+    <n v="-21.762956513730501"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-111YS-2326-SM-5987L"/>
+    <n v="39.4666126811616"/>
+    <n v="5.6211895916758703"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1122O-2426-SM-5GIDN"/>
+    <n v="40.100477536631999"/>
+    <n v="21.711299771669498"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1128S-2426-SM-5H11B"/>
+    <n v="42.806363279861003"/>
+    <n v="10.7778319540485"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-113JC-2726-SM-5EGIS"/>
+    <n v="40.609262673245198"/>
+    <n v="-16.122089817563101"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-117XS-2526-SM-5H11G"/>
+    <n v="44.920604966302598"/>
+    <n v="-25.723979274785801"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-117YW-2426-SM-5Q5AE"/>
+    <n v="46.474418879233902"/>
+    <n v="-24.821329134091801"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-117YX-2526-SM-5EQ4Q"/>
+    <n v="34.226877655420999"/>
+    <n v="17.5450474920993"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1192X-0426-SM-5GIEE"/>
+    <n v="40.530682783099699"/>
+    <n v="6.3251558624166204"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11DXW-0726-SM-5H12J"/>
+    <n v="42.416463535974898"/>
+    <n v="-24.262799964017201"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11DXX-2726-SM-5PNXO"/>
+    <n v="40.4599787384739"/>
+    <n v="16.413460281772501"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11DXY-2726-SM-5GID2"/>
+    <n v="43.016761430915402"/>
+    <n v="-18.373216249558499"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11DXZ-2426-SM-5N9DT"/>
+    <n v="47.401599022762603"/>
+    <n v="-7.2248453354270801"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11DZ1-0926-SM-5EQ5R"/>
+    <n v="39.417342886305597"/>
+    <n v="16.600642205362"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11EI6-0326-SM-5EQ6G"/>
+    <n v="42.578581227830099"/>
+    <n v="1.3636367140212899"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11EM3-2126-SM-5H11M"/>
+    <n v="37.397730517236802"/>
+    <n v="11.8077828149518"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11EMC-2626-SM-59864"/>
+    <n v="39.837213719363803"/>
+    <n v="2.41254245227627"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11EQ8-0526-SM-5N9BC"/>
+    <n v="42.411244046832799"/>
+    <n v="4.2071690424395296"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11EQ9-2126-SM-5PNVW"/>
+    <n v="41.6138226037531"/>
+    <n v="11.302278029794101"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11GS4-2526-SM-5A5KT"/>
+    <n v="41.616640081287898"/>
+    <n v="-24.899850069544399"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11GSO-2526-SM-5PNVX"/>
+    <n v="44.769841334869099"/>
+    <n v="-6.9914682227368203"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11GSP-2726-SM-5A5LJ"/>
+    <n v="41.831303863198599"/>
+    <n v="-18.223561260819"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11H98-0326-SM-5HL4S"/>
+    <n v="30.896132401050799"/>
+    <n v="5.0926151329035196"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11I78-2426-SM-5A5K9"/>
+    <n v="41.4947939920213"/>
+    <n v="10.0322640241521"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11LCK-1226-SM-5Q5AM"/>
+    <n v="38.691013231141703"/>
+    <n v="4.3860125518398201"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11NSD-2026-SM-5HL5U"/>
+    <n v="48.446243331301503"/>
+    <n v="-2.1583535707135799"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11NUK-0226-SM-5A5L4"/>
+    <n v="47.396940869145098"/>
+    <n v="-24.979011217713101"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11NV4-0326-SM-5HL58"/>
+    <n v="46.347412049738899"/>
+    <n v="-28.349308415015201"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11O72-0326-SM-5986D"/>
+    <n v="40.195358317351698"/>
+    <n v="3.33105424862344"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11OC5-0326-SM-5PNW5"/>
+    <n v="42.753046883527603"/>
+    <n v="-7.9788466066725698"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11OF3-2526-SM-5P9JL"/>
+    <n v="40.661355598509097"/>
+    <n v="-25.107094718691801"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11ONC-2426-SM-5GU7H"/>
+    <n v="42.053688974763801"/>
+    <n v="-10.777854940285099"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11P7K-1926-SM-5GU6R"/>
+    <n v="41.910718935125502"/>
+    <n v="14.4956376440388"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11P81-2526-SM-5GU6H"/>
+    <n v="45.143669734632901"/>
+    <n v="4.2270165225307297"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11P82-1826-SM-5PNYJ"/>
+    <n v="42.366177445323203"/>
+    <n v="16.280754969905502"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11PRG-0326-SM-5GU53"/>
+    <n v="42.461005044172801"/>
+    <n v="-25.4417834602501"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11TT1-2326-SM-5GU6N"/>
+    <n v="38.696237908893004"/>
+    <n v="4.7533664210934399"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11TTK-0326-SM-5BC5N"/>
+    <n v="38.941621608737798"/>
+    <n v="6.7579252913463304"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11TUW-2526-SM-5EQKN"/>
+    <n v="42.436259596448402"/>
+    <n v="-9.8054400785235298"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11UD1-0326-SM-5EQKX"/>
+    <n v="38.433367975837299"/>
+    <n v="-4.8884210242849697"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11UD2-0326-SM-5EQLE"/>
+    <n v="43.459445077417897"/>
+    <n v="-12.3082172518309"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11VI4-1926-SM-5CVLI"/>
+    <n v="41.292048374628102"/>
+    <n v="14.890106315824999"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11WQC-2626-SM-5CVLF"/>
+    <n v="37.700835328666003"/>
+    <n v="-21.840435649507398"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11WQK-0726-SM-5GU71"/>
+    <n v="43.196547148896599"/>
+    <n v="1.6427519229046399"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11XUK-2226-SM-5CVLL"/>
+    <n v="35.799667910219"/>
+    <n v="5.8390753653504897"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11ZTS-0526-SM-5CVL9"/>
+    <n v="37.786014015897003"/>
+    <n v="-16.954281559253701"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11ZTT-2626-SM-5EQKK"/>
+    <n v="41.993909546761301"/>
+    <n v="10.2050636601456"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11ZU8-2326-SM-5EQMJ"/>
+    <n v="34.6019706399005"/>
+    <n v="3.8872881569338298"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11ZUS-1426-SM-5FQSP"/>
+    <n v="42.309794495283498"/>
+    <n v="-24.561571330322"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-11ZVC-2726-SM-5FQSZ"/>
+    <n v="41.653574959988298"/>
+    <n v="-9.8225980843177805"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1211K-2126-SM-59HJZ"/>
+    <n v="37.588239076646701"/>
+    <n v="15.5364401060143"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-12126-0526-SM-5PNW4"/>
+    <n v="46.971689141552602"/>
+    <n v="-28.664264029972198"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1212Z-2626-SM-5YY8P"/>
+    <n v="48.084679033402999"/>
+    <n v="-21.8641844321196"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-12584-0526-SM-5FQTS"/>
+    <n v="42.560432262656398"/>
+    <n v="-7.0606598400673803"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-12696-2826-SM-5FQTY"/>
+    <n v="39.204603692060601"/>
+    <n v="1.5875765199512899"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1269C-2626-SM-5EQ5C"/>
+    <n v="42.087955011416497"/>
+    <n v="-10.6190644980427"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-12BJ1-2526-SM-5FQUE"/>
+    <n v="43.336750762578603"/>
+    <n v="7.3715439761830801"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-12C56-1926-SM-5FQUG"/>
+    <n v="40.4798787052951"/>
+    <n v="1.5913576077473"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-12KS4-0826-SM-5BC5R"/>
+    <n v="43.553762388056199"/>
+    <n v="-8.4093331702624194"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-12WSA-0726-SM-5FQU2"/>
+    <n v="30.547205018814299"/>
+    <n v="18.595564152503702"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-12WSC-0326-SM-5EQ5E"/>
+    <n v="42.729099156468699"/>
+    <n v="-26.317663132561201"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-12WSD-0526-SM-5EQ6F"/>
+    <n v="37.987290432471603"/>
+    <n v="-17.5316190711094"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-12WSF-0926-SM-6PALU"/>
+    <n v="47.787009755009997"/>
+    <n v="-13.5378093093003"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-12WSG-2526-SM-5EQ4O"/>
+    <n v="44.701467782296099"/>
+    <n v="-0.31254862614200601"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-12WSH-2526-SM-5CVNH"/>
+    <n v="42.988833599066297"/>
+    <n v="-12.0673036778691"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-12WSJ-1726-SM-5LZVV"/>
+    <n v="42.5213153975604"/>
+    <n v="17.552652351719601"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-12WSL-2726-SM-5CVNL"/>
+    <n v="41.545098986174999"/>
+    <n v="3.01304867439003"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-12WSM-0326-SM-5LZVI"/>
+    <n v="37.364601629213396"/>
+    <n v="-10.6122123944147"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-12WSN-2526-SM-5LZU8"/>
+    <n v="45.606104979658099"/>
+    <n v="0.41001714105984699"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-12ZZX-0326-SM-5DUVH"/>
+    <n v="41.605177855780603"/>
+    <n v="-16.765138277312499"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-12ZZY-0626-SM-5EQ5T"/>
+    <n v="43.187782776793398"/>
+    <n v="-27.375082658739501"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-12ZZZ-0226-SM-59HKU"/>
+    <n v="37.803178580373398"/>
+    <n v="-15.7937434612936"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13111-2226-SM-5LZUE"/>
+    <n v="44.774483651001802"/>
+    <n v="-3.3413909562953199"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13112-2626-SM-5BC66"/>
+    <n v="43.9783007105598"/>
+    <n v="-25.059735881247502"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13113-5019-SM-7EPH2"/>
+    <n v="30.657028765033299"/>
+    <n v="19.225094511927399"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1313W-0526-SM-5P9FZ"/>
+    <n v="44.006471607931097"/>
+    <n v="-21.590372420537498"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1314G-1726-SM-5LZUX"/>
+    <n v="42.3102077525634"/>
+    <n v="-6.7669244243291304"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-131XE-2726-SM-5P9G7"/>
+    <n v="42.235622226897803"/>
+    <n v="-0.90912927677458999"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-131XF-2326-SM-5BC6B"/>
+    <n v="38.640536395714904"/>
+    <n v="17.222572683657699"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-131XG-2326-SM-5HL8F"/>
+    <n v="42.444529171055201"/>
+    <n v="5.0641760820708202"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-131XH-2726-SM-5GCO2"/>
+    <n v="40.300336142170401"/>
+    <n v="-19.2624852768081"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-131XW-0326-SM-5KM1J"/>
+    <n v="44.279225009563"/>
+    <n v="-15.9286522293616"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-131YS-0526-SM-5EGKJ"/>
+    <n v="42.1244224698819"/>
+    <n v="-20.925175636557"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-132AR-1026-SM-5PNVL"/>
+    <n v="32.297685059244699"/>
+    <n v="26.118932288253099"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-132NY-0726-SM-5KLZM"/>
+    <n v="38.789189785114502"/>
+    <n v="-20.936530829849499"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-132Q8-0626-SM-5L3F3"/>
+    <n v="28.574609459066298"/>
+    <n v="14.865931806746101"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1339X-2426-SM-5KLYU"/>
+    <n v="33.375979113752599"/>
+    <n v="14.8137452549978"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-133LE-2026-SM-5K7WM"/>
+    <n v="41.583067579029702"/>
+    <n v="8.0405179754439899"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1399Q-2426-SM-5J2MO"/>
+    <n v="31.732113098527499"/>
+    <n v="8.6700582614454902"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1399R-2526-SM-5IFG2"/>
+    <n v="44.168082842172502"/>
+    <n v="10.628747534439301"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1399S-2726-SM-5KM22"/>
+    <n v="37.3106793128403"/>
+    <n v="20.738511642786602"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1399T-2426-SM-5L3FJ"/>
+    <n v="39.414811835458302"/>
+    <n v="-25.212420094819201"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1399U-2526-SM-5L3DL"/>
+    <n v="42.542436332564499"/>
+    <n v="10.897353145417799"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-139D8-0726-SM-5P9GJ"/>
+    <n v="34.426732552708401"/>
+    <n v="21.8539607998649"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-139T4-0326-SM-5K7XN"/>
+    <n v="18.3024400510112"/>
+    <n v="15.1253924563668"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-139T6-2026-SM-5IFFL"/>
+    <n v="42.398301824190497"/>
+    <n v="7.8295141802797898"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-139T8-0526-SM-5KLZL"/>
+    <n v="33.9586416254391"/>
+    <n v="4.9539836068374097"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-139TS-2626-SM-5J1MT"/>
+    <n v="43.772182374205798"/>
+    <n v="-19.222440666047302"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-139TT-0426-SM-5IJFA"/>
+    <n v="42.179161305523102"/>
+    <n v="-20.8880866634561"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-139TU-0526-SM-5J2M8"/>
+    <n v="45.951723083738401"/>
+    <n v="-13.960801590167099"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-139UW-2626-SM-5K7W1"/>
+    <n v="42.652191898570599"/>
+    <n v="-15.523563933945701"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-139YR-2526-SM-5IJC6"/>
+    <n v="37.644102197292199"/>
+    <n v="10.373344573835899"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13CF2-2726-SM-5LZWW"/>
+    <n v="40.156155515857797"/>
+    <n v="-26.253065439580801"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13CF3-1826-SM-5J1NK"/>
+    <n v="36.647311957173102"/>
+    <n v="9.2870742634445307"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13D11-2526-SM-5KM28"/>
+    <n v="34.5393603864404"/>
+    <n v="15.862963141133299"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13FH7-2126-SM-5L3DJ"/>
+    <n v="37.054478954471897"/>
+    <n v="7.9378037839399598"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13FHO-0726-SM-5IJDG"/>
+    <n v="39.885233395445901"/>
+    <n v="-1.2470173343338899"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13FHP-0526-SM-5K7UY"/>
+    <n v="47.319411641104601"/>
+    <n v="-19.656288767649201"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13FTW-2326-SM-5K7YS"/>
+    <n v="37.7813101390119"/>
+    <n v="8.9865490447519001"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13FTX-2026-SM-5L3D6"/>
+    <n v="36.206724677417398"/>
+    <n v="24.006478539928501"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13FTY-0226-SM-5IJBW"/>
+    <n v="30.558249025136998"/>
+    <n v="-16.632904527218201"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13FTZ-2226-SM-5LZXI"/>
+    <n v="41.484256297262903"/>
+    <n v="-24.119415829198601"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13FXS-0326-SM-5K7TV"/>
+    <n v="41.888125736681801"/>
+    <n v="-23.0561253509693"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13G51-2726-SM-5LZZ9"/>
+    <n v="32.2269506502398"/>
+    <n v="-21.624592610551701"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13IVO-0626-SM-5LZYJ"/>
+    <n v="35.476955579035703"/>
+    <n v="10.974976029702701"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13JUV-2326-SM-5IJCE"/>
+    <n v="42.546197100350298"/>
+    <n v="5.2675877681229304"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13JVG-0126-SM-5L3D3"/>
+    <n v="39.298323076511601"/>
+    <n v="5.5290906268810698"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13N11-2726-SM-5L3ER"/>
+    <n v="38.430640676728899"/>
+    <n v="10.075574901772001"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13N1W-0526-SM-5MR4I"/>
+    <n v="48.493388102342799"/>
+    <n v="-15.8114493549526"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13N2G-2326-SM-5J1ON"/>
+    <n v="44.097281605364103"/>
+    <n v="-4.3332913055451199"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13NYB-2726-SM-5J2MT"/>
+    <n v="43.078563248768099"/>
+    <n v="-23.399552404651601"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13NYC-0726-SM-5J2NQ"/>
+    <n v="32.112596590905298"/>
+    <n v="11.934056599331299"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13NYS-0326-SM-5MR4L"/>
+    <n v="30.312669563666802"/>
+    <n v="19.934832159846501"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13NZ8-2126-SM-5L3EO"/>
+    <n v="30.4345668083261"/>
+    <n v="15.970766375058901"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13NZ9-0626-SM-5IJCO"/>
+    <n v="39.303020435782997"/>
+    <n v="-6.3643316799223504"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13NZA-0526-SM-5L3D7"/>
+    <n v="43.104184356849899"/>
+    <n v="-16.353758411997902"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13NZB-2626-SM-5J2M7"/>
+    <n v="46.045477029369401"/>
+    <n v="-2.9031855373036799"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13O1R-0526-SM-5K7XU"/>
+    <n v="33.430268835940403"/>
+    <n v="6.7856511817916596"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13O21-1726-SM-5MR5A"/>
+    <n v="38.159745223449598"/>
+    <n v="11.0953650003127"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13O3O-0526-SM-5J1NL"/>
+    <n v="43.823793391654"/>
+    <n v="-9.7438116099997405"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13O3P-0626-SM-5L3D5"/>
+    <n v="41.428417277598399"/>
+    <n v="8.4386058669810105"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13O3Q-2726-SM-5KM51"/>
+    <n v="41.006591785619499"/>
+    <n v="-15.5930567306643"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13O61-2326-SM-5J1NJ"/>
+    <n v="43.560535087754801"/>
+    <n v="11.3673579819461"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13OVG-2126-SM-5KM1K"/>
+    <n v="37.952213276518897"/>
+    <n v="8.9505709885049392"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13OVH-0626-SM-5L3EI"/>
+    <n v="42.978228450322099"/>
+    <n v="6.5582511172746303"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13OVI-1726-SM-5L3DW"/>
+    <n v="32.432883207506002"/>
+    <n v="21.2160125862233"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13OVJ-0226-SM-5L3GK"/>
+    <n v="36.980163312975101"/>
+    <n v="9.6024047520638103"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13OVK-1926-SM-6M48G"/>
+    <n v="42.880284265087099"/>
+    <n v="5.3059787985926601"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13OVL-1426-SM-5IJC1"/>
+    <n v="32.047734435111302"/>
+    <n v="-19.6784907682413"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13OW5-0326-SM-5L3HK"/>
+    <n v="44.875156795334398"/>
+    <n v="-1.55935313689465"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13OW6-0626-SM-5L3IB"/>
+    <n v="43.032609188474297"/>
+    <n v="-21.923155320184499"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13OW7-0326-SM-5J1MP"/>
+    <n v="45.182285794210102"/>
+    <n v="-25.4001903864174"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13OW8-1426-SM-5IJDT"/>
+    <n v="39.972276468031602"/>
+    <n v="-14.718120272958901"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13PDP-0326-SM-5K7XP"/>
+    <n v="35.001543499039599"/>
+    <n v="10.596564914144899"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13PL6-0326-SM-5IJCP"/>
+    <n v="43.313744218114898"/>
+    <n v="-11.544258446675"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13PL7-0626-SM-5IJCD"/>
+    <n v="33.965307809592403"/>
+    <n v="24.5137295815701"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13PLJ-0326-SM-5L3I7"/>
+    <n v="37.1777533329387"/>
+    <n v="-12.9499903357836"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13PVQ-0326-SM-5K7YF"/>
+    <n v="44.3123321730124"/>
+    <n v="-17.531111390413901"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13PVR-2526-SM-5RQIT"/>
+    <n v="42.834255380470701"/>
+    <n v="15.3148300819723"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13QBU-2426-SM-5LU4L"/>
+    <n v="38.769113777448801"/>
+    <n v="22.286049485183501"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13QIC-1226-SM-5K7YR"/>
+    <n v="41.347049426760698"/>
+    <n v="-11.2679545727611"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13QJ3-0726-SM-5SI68"/>
+    <n v="42.161045465886303"/>
+    <n v="-4.2557670215302998"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13RTJ-2726-SM-73KVG"/>
+    <n v="36.859259480427397"/>
+    <n v="8.8237848288001395"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13RTK-1626-SM-5QGQS"/>
+    <n v="39.708445705555697"/>
+    <n v="9.6746942682275492"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13RTL-0326-SM-7LT89"/>
+    <n v="35.995499603028897"/>
+    <n v="-15.724964982130301"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13S86-2326-SM-5RQK1"/>
+    <n v="38.081059304186802"/>
+    <n v="8.4668467181427207"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13SLW-0326-SM-5RQK5"/>
+    <n v="34.663076248243001"/>
+    <n v="-0.17121056746973501"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13SLX-0326-SM-5Q5E4"/>
+    <n v="39.544991033142402"/>
+    <n v="-17.887040397166501"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13U4I-1826-SM-5IJD2"/>
+    <n v="34.621743443710201"/>
+    <n v="-8.0459423272719197E-2"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13VXT-0326-SM-5LU4U"/>
+    <n v="39.398814730806301"/>
+    <n v="17.122892686380201"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13VXU-0326-SM-5LU36"/>
+    <n v="41.002049211962898"/>
+    <n v="-23.973542608484198"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13W3W-2626-SM-5SIA2"/>
+    <n v="36.011543022452202"/>
+    <n v="14.893188634916701"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13W46-0726-SM-5LU3Z"/>
+    <n v="40.474466582338401"/>
+    <n v="4.8871144226056202"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13X6H-2326-SM-7EWEB"/>
+    <n v="38.551551497756897"/>
+    <n v="17.031352459192"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13X6I-0526-SM-5QGP8"/>
+    <n v="24.830258876741201"/>
+    <n v="13.468642878425101"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13X6J-0326-SM-7EPGD"/>
+    <n v="44.508006598073997"/>
+    <n v="-28.734056080683001"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13X6K-0326-SM-5Q5D6"/>
+    <n v="38.965031565375497"/>
+    <n v="6.3968752825045296"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-13YAN-0526-SM-5O9BE"/>
+    <n v="22.9044931927214"/>
+    <n v="16.323829198620899"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1445S-0626-SM-5LU3C"/>
+    <n v="48.5115895700268"/>
+    <n v="-3.0260788543872801"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-144FL-0326-SM-5O99O"/>
+    <n v="28.746993935955899"/>
+    <n v="11.849956153292601"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-144GL-0326-SM-5QGOY"/>
+    <n v="39.971389775724802"/>
+    <n v="-24.982705494706199"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-144GM-2026-SM-5LU3D"/>
+    <n v="42.1101929434437"/>
+    <n v="2.4727850585289399"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-144GN-2426-SM-5LU4R"/>
+    <n v="39.208449084838698"/>
+    <n v="3.8019607884170998"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-144GO-1326-SM-5Q5EL"/>
+    <n v="41.652987051056797"/>
+    <n v="9.6147566304066405"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-145LS-0526-SM-5LU8Y"/>
+    <n v="43.886702225833702"/>
+    <n v="4.6364044203604804"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-145LT-1626-SM-5O992"/>
+    <n v="42.737174589132898"/>
+    <n v="10.0380453834373"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-145LU-2026-SM-5Q5E8"/>
+    <n v="41.303783996525702"/>
+    <n v="-23.921815665333899"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-145LV-2326-SM-5LU8Z"/>
+    <n v="31.480245043481599"/>
+    <n v="23.271270871877299"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-145ME-2026-SM-5SIA5"/>
+    <n v="34.5683837067306"/>
+    <n v="7.4901237566970398"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-145MG-0226-SM-5TDDB"/>
+    <n v="42.115630415169399"/>
+    <n v="-24.846217127254199"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-145MH-0326-SM-5LU8H"/>
+    <n v="42.0665339752832"/>
+    <n v="-24.188228616043801"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-145MI-0326-SM-5Q5EV"/>
+    <n v="41.713188604011599"/>
+    <n v="-3.3522431732221398"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-145MN-2426-SM-5NQA5"/>
+    <n v="41.222924834672703"/>
+    <n v="3.5911538948644002"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-145MO-0726-SM-5NQB9"/>
+    <n v="45.596459340375198"/>
+    <n v="1.73514084034996"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-146FH-0526-SM-5QGQ3"/>
+    <n v="41.394274644517303"/>
+    <n v="1.5773706276578201"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-146FQ-0326-SM-5NQAX"/>
+    <n v="36.396574804484601"/>
+    <n v="0.95689630241568902"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-146FR-1726-SM-5Q5DT"/>
+    <n v="39.903042663841802"/>
+    <n v="10.5275540769742"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14753-0526-SM-5QGPR"/>
+    <n v="47.048150834176901"/>
+    <n v="5.9176908224976899"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1477Z-1626-SM-5SIA8"/>
+    <n v="39.054912763998999"/>
+    <n v="4.6049016070688804"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-147F3-0226-SM-5NQBV"/>
+    <n v="34.706041163303603"/>
+    <n v="10.6653730337094"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-147F4-0326-SM-5TDCK"/>
+    <n v="44.885754830707597"/>
+    <n v="-22.0753729120595"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-147GR-0126-SM-62LER"/>
+    <n v="49.033923747117399"/>
+    <n v="-19.562342202869999"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-147JS-0526-SM-5TDD3"/>
+    <n v="42.744662929720199"/>
+    <n v="-24.3539154441712"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-148VJ-0326-SM-5QGQE"/>
+    <n v="38.1997137285164"/>
+    <n v="-0.74756801669363104"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1497J-2626-SM-5SI9K"/>
+    <n v="40.896463864277102"/>
+    <n v="14.6270466247638"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14A5H-0326-SM-5RQIB"/>
+    <n v="39.535450917417201"/>
+    <n v="-8.1943435446824395"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14A5I-0326-SM-5NQ9J"/>
+    <n v="39.171698545018302"/>
+    <n v="8.83083790667866"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14A6H-5019-SM-793DH"/>
+    <n v="37.184435125127798"/>
+    <n v="-3.6926347721670898"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14ABY-0126-SM-62LDI"/>
+    <n v="47.253150146442401"/>
+    <n v="-26.9704953980353"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14AS3-2126-SM-5S2MK"/>
+    <n v="45.530544078957803"/>
+    <n v="0.914017262726326"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14ASI-0526-SM-5QGQP"/>
+    <n v="29.957555477526199"/>
+    <n v="-15.572895293054"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14BIL-0326-SM-5SI9Q"/>
+    <n v="42.745591026494203"/>
+    <n v="-10.8091309159531"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14BIM-0326-SM-5SI9B"/>
+    <n v="38.558719019234999"/>
+    <n v="10.794078899930099"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14BMU-2026-SM-5S2W6"/>
+    <n v="42.148015249152301"/>
+    <n v="17.664103577118599"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14BMV-0326-SM-5RQHW"/>
+    <n v="41.0544649587519"/>
+    <n v="-25.366296163377601"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14C38-0426-SM-5TDDZ"/>
+    <n v="33.520259678453698"/>
+    <n v="11.7939885223169"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14C39-2426-SM-5S2U5"/>
+    <n v="40.162086527026503"/>
+    <n v="11.218413042871701"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14C5O-0626-SM-664N2"/>
+    <n v="47.912866703422203"/>
+    <n v="1.7235874957088599"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14DAQ-0326-SM-664MR"/>
+    <n v="43.576991390032099"/>
+    <n v="-17.553623394989401"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14DAR-1826-SM-664N1"/>
+    <n v="36.587911672600796"/>
+    <n v="12.403493278762401"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14E1K-2326-SM-664MP"/>
+    <n v="45.946736917947099"/>
+    <n v="-1.2246894482094901"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14E6C-1526-SM-664ND"/>
+    <n v="33.485541371624798"/>
+    <n v="2.4482016699727698"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14E6D-0326-SM-62LDX"/>
+    <n v="49.390402981754697"/>
+    <n v="-23.059896716265701"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14E6E-2026-SM-664N5"/>
+    <n v="45.522305767292998"/>
+    <n v="6.4212936699381897"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14H4A-0926-SM-5ZZUU"/>
+    <n v="41.772746140904601"/>
+    <n v="9.4312022661469008"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14ICL-1926-SM-5RQIZ"/>
+    <n v="41.858465974648297"/>
+    <n v="23.476543654671101"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14JG1-0126-SM-5ZZUP"/>
+    <n v="44.238458406763002"/>
+    <n v="-26.709891249078801"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14JG6-2126-SM-6EU2F"/>
+    <n v="42.462749468491502"/>
+    <n v="14.208300009311699"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14JIY-0426-SM-62LF7"/>
+    <n v="41.603477040020501"/>
+    <n v="-23.747180590551402"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14LLW-0526-SM-62LFB"/>
+    <n v="42.553964242860097"/>
+    <n v="6.2235222892586899"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14LZ3-0626-SM-5ZZWP"/>
+    <n v="39.204414536891903"/>
+    <n v="1.7049584241248299"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14PII-0626-SM-69LPY"/>
+    <n v="41.333078893844799"/>
+    <n v="-4.3822411945375599"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14PJ2-0326-SM-6EU2Q"/>
+    <n v="41.2231163950552"/>
+    <n v="2.09586578162794"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14PJ3-2026-SM-5ZZVK"/>
+    <n v="36.101160058108"/>
+    <n v="7.18751946748446"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14PJ4-2426-SM-6EU1U"/>
+    <n v="43.022580674259402"/>
+    <n v="10.3422399097461"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14PJ5-2026-SM-6LLIN"/>
+    <n v="41.801268913019797"/>
+    <n v="9.9166770654431797"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14PJ6-2326-SM-6ETZR"/>
+    <n v="38.678591296812598"/>
+    <n v="13.696741887925301"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14PJM-0426-SM-5ZZVN"/>
+    <n v="42.482241882497902"/>
+    <n v="-18.231349071395801"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14PJN-2126-SM-6AJBM"/>
+    <n v="40.868364209774903"/>
+    <n v="9.6520643996961706"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14PJO-0526-SM-6EU2O"/>
+    <n v="38.807679372526202"/>
+    <n v="15.2501240926552"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14PK6-2126-SM-6ETZV"/>
+    <n v="49.431168827115798"/>
+    <n v="-2.4167874708392398"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14PN4-0326-SM-6EU2N"/>
+    <n v="34.860130406627398"/>
+    <n v="14.533635547607499"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14PQA-0526-SM-7KUFS"/>
+    <n v="39.1656623551591"/>
+    <n v="19.728507824482001"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-14XAO-2226-SM-6LLHU"/>
+    <n v="29.787477978712499"/>
+    <n v="22.9038481264521"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15CHC-2426-SM-6EU22"/>
+    <n v="46.2463264066199"/>
+    <n v="11.8653174778531"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15CHQ-0726-SM-6EU18"/>
+    <n v="36.571009792692301"/>
+    <n v="-7.9974038719979701"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15CHR-2426-SM-7DUFX"/>
+    <n v="29.947939321634699"/>
+    <n v="8.0527599317262109"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15D79-0526-SM-6ETZP"/>
+    <n v="44.796687238603901"/>
+    <n v="-17.242706863583201"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15DCD-0626-SM-7KUG7"/>
+    <n v="43.027790860387"/>
+    <n v="-6.7899456999238801"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15DCZ-0526-SM-686Z3"/>
+    <n v="38.243205830209"/>
+    <n v="7.7575976931819604"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15DDE-0526-SM-6ETZQ"/>
+    <n v="41.266723106429701"/>
+    <n v="-2.82022060798543"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15DZA-2026-SM-6PANE"/>
+    <n v="39.734382269255299"/>
+    <n v="15.032194290202201"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15EO6-2826-SM-6PANB"/>
+    <n v="43.415977028166203"/>
+    <n v="5.5193732821926096"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15ER7-0226-SM-7KUEU"/>
+    <n v="47.636955602351698"/>
+    <n v="-14.983203736347299"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15ETS-0326-SM-6PANH"/>
+    <n v="39.219501253344397"/>
+    <n v="10.9325171951045"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15F5U-1826-SM-6LLJF"/>
+    <n v="49.456818589802701"/>
+    <n v="0.40797353888791299"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15G19-0526-SM-6PAMT"/>
+    <n v="38.554075035507999"/>
+    <n v="3.35983398377775"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15G1A-2026-SM-7KUFG"/>
+    <n v="31.7616865803768"/>
+    <n v="24.603828930479501"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15RIE-2426-SM-7KUDS"/>
+    <n v="46.443927373713201"/>
+    <n v="0.32562549741924002"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15RIF-2126-SM-7KUM8"/>
+    <n v="41.8411164125786"/>
+    <n v="11.054322607965601"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15RIG-0426-SM-7KUF4"/>
+    <n v="45.498587251723698"/>
+    <n v="10.731717739314901"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15RJ7-2426-SM-6M48L"/>
+    <n v="45.742528871715002"/>
+    <n v="-12.844081583832001"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15SB6-1826-SM-6PALN"/>
+    <n v="45.076361903611698"/>
+    <n v="0.430513231916062"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15SDE-2326-SM-6PAL4"/>
+    <n v="41.113197582945403"/>
+    <n v="10.9047144398921"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15SHU-0626-SM-7KUFH"/>
+    <n v="45.680975608138702"/>
+    <n v="-3.0006220527704799"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15SHV-2526-SM-6PAMG"/>
+    <n v="44.027355030935297"/>
+    <n v="9.9899416785387007"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15SHW-0726-SM-7KUEI"/>
+    <n v="39.9263268595247"/>
+    <n v="2.2377397136339301"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15SKB-2526-SM-6PALP"/>
+    <n v="45.494371715060502"/>
+    <n v="1.0030795176485101"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15UF6-1026-SM-7KUF7"/>
+    <n v="34.712579073871701"/>
+    <n v="23.110064964150599"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15UF7-2226-SM-6PAMQ"/>
+    <n v="39.6299977481399"/>
+    <n v="9.5875923862082697"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-15UKP-0326-SM-7KUFP"/>
+    <n v="38.3344233442252"/>
+    <n v="4.5263960982689104"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-16AAH-1826-SM-7939D"/>
+    <n v="39.473369751355797"/>
+    <n v="16.2294892577521"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-16BQI-0326-SM-6PAM4"/>
+    <n v="48.462560982103199"/>
+    <n v="6.3557418280409896"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-16GPK-0526-SM-7KUER"/>
+    <n v="46.879568186728903"/>
+    <n v="-25.477027299506901"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-16MT8-0326-SM-6PAM5"/>
+    <n v="37.8668883068854"/>
+    <n v="14.456141516062299"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-16MTA-2026-SM-7KUL3"/>
+    <n v="43.830404787739901"/>
+    <n v="3.2682984329389102"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-16NGA-1926-SM-7LTA6"/>
+    <n v="32.645741061500402"/>
+    <n v="30.486956606710699"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-16NPV-2426-SM-6M482"/>
+    <n v="32.3960200791389"/>
+    <n v="16.687567319560099"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-16NPX-0626-SM-7KULB"/>
+    <n v="45.613611183872699"/>
+    <n v="-12.3162505999709"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-16XZY-2226-SM-7938N"/>
+    <n v="39.202089981489799"/>
+    <n v="-5.3100634759129299"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-16XZZ-0526-SM-7KUF1"/>
+    <n v="38.515366283771002"/>
+    <n v="14.760138757820499"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-16YQH-0426-SM-7KUL7"/>
+    <n v="40.815228152518799"/>
+    <n v="-26.227772336690698"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-16Z82-0126-SM-7DHLF"/>
+    <n v="36.334282039280303"/>
+    <n v="-21.502327705103198"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-17EUY-0626-SM-793BE"/>
+    <n v="38.637766700584997"/>
+    <n v="13.319368446045001"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-17EVP-1326-SM-7DHMR"/>
+    <n v="47.309581174175698"/>
+    <n v="-20.5578696529561"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-17EVQ-1226-SM-7LG59"/>
+    <n v="32.832315416582901"/>
+    <n v="-2.2304557905126301"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-17F96-2726-SM-7LT9F"/>
+    <n v="29.147659965083001"/>
+    <n v="28.367473138447401"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-17F97-0526-SM-7DUF8"/>
+    <n v="36.977840907561998"/>
+    <n v="0.64953915767658199"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-17F98-1626-SM-7938R"/>
+    <n v="43.676910723876702"/>
+    <n v="19.4321937265317"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-17F9E-0226-SM-79OKK"/>
+    <n v="42.455883668774"/>
+    <n v="5.3535117915424904"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-17GQL-1926-SM-718B9"/>
+    <n v="40.959224645197402"/>
+    <n v="5.5298042855000702"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-17HG3-2726-SM-7DHL5"/>
+    <n v="40.5304567243072"/>
+    <n v="-18.133325325521"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-17HGU-0626-SM-7939Y"/>
+    <n v="45.613777396624897"/>
+    <n v="-7.4049706332182099"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-17HHE-2126-SM-7DHLO"/>
+    <n v="45.440785757878302"/>
+    <n v="-1.2853780648169999"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-17HHY-0326-SM-7938H"/>
+    <n v="40.721123598862697"/>
+    <n v="-26.795674711109999"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-17HII-0426-SM-793A3"/>
+    <n v="46.062842103372603"/>
+    <n v="-12.592620509639"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-17JCI-0326-SM-7LG5H"/>
+    <n v="44.113604981776099"/>
+    <n v="-20.528019971734199"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-17KNJ-2426-SM-7DHLR"/>
+    <n v="37.7908837747161"/>
+    <n v="1.4034245495103099"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-17MF6-2026-SM-7LG5I"/>
+    <n v="42.433903333235698"/>
+    <n v="7.14051713011371"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-17MFQ-1926-SM-793A6"/>
+    <n v="41.085424609032202"/>
+    <n v="-2.70766675404743"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-183FY-0226-SM-7LG54"/>
+    <n v="43.086060755263397"/>
+    <n v="4.9267055611493999"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-183WM-0426-SM-731B1"/>
+    <n v="22.909636238051402"/>
+    <n v="23.282945950193898"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-18465-0326-SM-7LTAD"/>
+    <n v="47.316003338358101"/>
+    <n v="-23.772443695513498"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-18A66-0126-SM-731CQ"/>
+    <n v="42.590202782434503"/>
+    <n v="5.1433747894820998"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-18A67-0326-SM-7LG5X"/>
+    <n v="44.250392254654002"/>
+    <n v="-0.17791692509951501"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-18A6Q-0326-SM-718AT"/>
+    <n v="42.3448633895051"/>
+    <n v="-28.860515607342101"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-18A7A-0626-SM-718BJ"/>
+    <n v="38.539560405538801"/>
+    <n v="-16.348177711413399"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-18A7B-0326-SM-7LG65"/>
+    <n v="40.121188182938603"/>
+    <n v="-2.1785255784487698"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-18D9A-1826-SM-718BK"/>
+    <n v="40.838774582955097"/>
+    <n v="14.199937598556099"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-18D9B-0426-SM-7LTAR"/>
+    <n v="38.130967143570302"/>
+    <n v="2.7767907106126302"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-18D9U-0626-SM-7LTA4"/>
+    <n v="40.672179012755301"/>
+    <n v="10.099756433558801"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-18QFQ-0326-SM-731C3"/>
+    <n v="44.474257558887302"/>
+    <n v="1.17720981055828"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1A32A-0526-SM-731B9"/>
+    <n v="35.488739618872103"/>
+    <n v="-9.5840245285669798"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1A3MV-2026-SM-718BU"/>
+    <n v="38.300687508029696"/>
+    <n v="17.012530638675202"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1A3MW-0526-SM-731BY"/>
+    <n v="35.737653793258801"/>
+    <n v="19.6710265910834"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1A3MX-0526-SM-718A9"/>
+    <n v="39.557343474340897"/>
+    <n v="9.80801418962014"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1A8G6-0126-SM-7DUFY"/>
+    <n v="40.965889419885201"/>
+    <n v="-21.324854568856601"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1A8G7-0326-SM-72D5B"/>
+    <n v="43.086017214421098"/>
+    <n v="-11.936253025570499"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1AMEY-1526-SM-73KYW"/>
+    <n v="41.230503579158601"/>
+    <n v="12.0795207526971"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1AMFI-2226-SM-731C6"/>
+    <n v="41.578213207694397"/>
+    <n v="17.581929622689302"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1AX8Z-0326-SM-731BU"/>
+    <n v="35.456794769543201"/>
+    <n v="7.9323314742265003"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1AX9I-0326-SM-73KXQ"/>
+    <n v="43.102285856046102"/>
+    <n v="-16.2408353474137"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1AX9J-0126-SM-73KY2"/>
+    <n v="48.945020622952399"/>
+    <n v="-4.1170574500633101"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1AX9K-2726-SM-7DHMA"/>
+    <n v="41.867683132802398"/>
+    <n v="7.7341415219316501"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1AYD5-2226-SM-73KX3"/>
+    <n v="37.759102668612698"/>
+    <n v="-0.18237064315006499"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1B8KE-2226-SM-7939K"/>
+    <n v="45.653012540811297"/>
+    <n v="5.2542793144198798"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1B8KZ-2126-SM-73KYG"/>
+    <n v="37.834171569794698"/>
+    <n v="-9.7523549230875801"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1B8L1-2726-SM-793AL"/>
+    <n v="31.284230099618402"/>
+    <n v="-20.7061491249749"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1B8SF-0426-SM-79OL4"/>
+    <n v="35.405126288768102"/>
+    <n v="-20.7937193220579"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1B8SG-0326-SM-73KXW"/>
+    <n v="48.1113715791506"/>
+    <n v="-16.421173306975"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1B932-0526-SM-73KU7"/>
+    <n v="38.979699948093497"/>
+    <n v="0.214817561596231"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1B933-0426-SM-7DHMC"/>
+    <n v="37.668351851330101"/>
+    <n v="-19.9164109796818"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1B97I-2026-SM-7DHN2"/>
+    <n v="39.0636564547764"/>
+    <n v="5.9005327346283902"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1B996-0326-SM-7DHMU"/>
+    <n v="45.846075646027998"/>
+    <n v="-10.0714223236581"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1BAJH-0126-SM-7DHMF"/>
+    <n v="45.869527000102103"/>
+    <n v="-25.720939508185001"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1C2JI-2126-SM-793CG"/>
+    <n v="40.411832776391897"/>
+    <n v="5.1806691611604796"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1C475-1726-SM-73KVX"/>
+    <n v="35.539469345946898"/>
+    <n v="10.562862024265099"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1C4CL-0326-SM-7DHMH"/>
+    <n v="43.0077977680983"/>
+    <n v="0.223741091164391"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1C64O-0326-SM-73KVW"/>
+    <n v="41.773861809225203"/>
+    <n v="13.522301066846101"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1C6VQ-0326-SM-7DHMS"/>
+    <n v="33.704048894727798"/>
+    <n v="8.3980474527232793"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1C6VR-2526-SM-7DHMT"/>
+    <n v="38.354857958532698"/>
+    <n v="-23.5454634270931"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1C6WA-0326-SM-7DUGE"/>
+    <n v="42.5329977570008"/>
+    <n v="-18.3793902646389"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1CAMR-1726-SM-793CU"/>
+    <n v="38.933764712337897"/>
+    <n v="20.5291521920667"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1CAMS-0126-SM-79396"/>
+    <n v="39.5561057711435"/>
+    <n v="22.3626198552214"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1CB4E-2126-SM-793AP"/>
+    <n v="45.933664801095901"/>
+    <n v="-7.1261272812641003"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1CB4I-0326-SM-7DHMM"/>
+    <n v="43.651633986310003"/>
+    <n v="10.244364906012001"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-1E1VI-0426-SM-7DHN1"/>
+    <n v="42.379656566989198"/>
+    <n v="-21.448643072191601"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-N7MS-0426-SM-2YUN6"/>
+    <n v="38.798354738414197"/>
+    <n v="-19.9993657415679"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-NFK9-0626-SM-2HMIV"/>
+    <n v="44.504657418637997"/>
+    <n v="2.20549471875065"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-O5YT-1626-SM-32PK6"/>
+    <n v="43.510275130429399"/>
+    <n v="9.2035257181162002"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-O5YV-2026-SM-2D7VS"/>
+    <n v="35.3061918880083"/>
+    <n v="22.034000931005401"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-OHPK-1626-SM-2YUN3"/>
+    <n v="44.8981333673036"/>
+    <n v="3.62531624873743"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-OHPL-1626-SM-2HMIR"/>
+    <n v="38.553843974206899"/>
+    <n v="4.5592472939864601"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-OHPN-2726-SM-2I5H4"/>
+    <n v="32.128196478992301"/>
+    <n v="7.6610579630411397"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-OIZG-1326-SM-2HMIQ"/>
+    <n v="46.317056873272797"/>
+    <n v="-5.4754137460808696"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-OIZH-1626-SM-2HMKI"/>
+    <n v="44.129778947918702"/>
+    <n v="2.91902243368328"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-OIZI-0626-SM-2XCEH"/>
+    <n v="40.377608155264902"/>
+    <n v="0.70019903336824496"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-OOBJ-1626-SM-2I3F7"/>
+    <n v="45.622378119006903"/>
+    <n v="7.1261890486499802"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-OOBK-1626-SM-2HMKG"/>
+    <n v="43.803679963573202"/>
+    <n v="-1.4799269010600999"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-OXRK-1826-SM-2HMJE"/>
+    <n v="39.607347193568501"/>
+    <n v="15.508406418453699"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-OXRL-1626-SM-2YUMU"/>
+    <n v="41.348207002240599"/>
+    <n v="6.9752552911964196"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-OXRN-1326-SM-3LK5V"/>
+    <n v="44.415035323447597"/>
+    <n v="6.7437758005819202"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-OXRP-2326-SM-2S1NL"/>
+    <n v="48.255692225849103"/>
+    <n v="-10.1706927683262"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-P44H-0426-SM-2XCEZ"/>
+    <n v="38.027497316772497"/>
+    <n v="8.1304586254977202"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-P4PP-1626-SM-2HMJF"/>
+    <n v="27.416887778764998"/>
+    <n v="22.888003044727501"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-P4PQ-1626-SM-2HMKK"/>
+    <n v="32.423362996087697"/>
+    <n v="19.0979914560377"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-P4QS-1626-SM-2S1NH"/>
+    <n v="43.393131303512803"/>
+    <n v="13.798182728274099"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-P4QT-1626-SM-5S2UR"/>
+    <n v="42.481412935201199"/>
+    <n v="18.530181861255699"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-P78B-1626-SM-5SI85"/>
+    <n v="43.208611265422498"/>
+    <n v="12.9207339030543"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-PLZ4-0926-SM-2S1OI"/>
+    <n v="39.433530031493099"/>
+    <n v="11.882805002377401"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-PLZ5-1726-SM-2I5F6"/>
+    <n v="40.013507260331501"/>
+    <n v="6.4634422950638601"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-PLZ6-1526-SM-2S1OC"/>
+    <n v="39.6787383686247"/>
+    <n v="10.7140531855537"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-POMQ-1926-SM-3NB1Y"/>
+    <n v="40.416273449445299"/>
+    <n v="-3.5226099552898398"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-POYW-0526-SM-2XCEY"/>
+    <n v="29.189264824448099"/>
+    <n v="19.250903654060799"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-PSDG-0426-SM-5SI86"/>
+    <n v="37.430020071073301"/>
+    <n v="9.3962051699584102"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-PW2O-1726-SM-2S1OO"/>
+    <n v="44.797931121359902"/>
+    <n v="-6.7592740915956302"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-PWCY-2026-SM-5SI8R"/>
+    <n v="45.378123107968499"/>
+    <n v="9.2715210035488091"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-PWN1-1626-SM-2S1OL"/>
+    <n v="43.574109460469899"/>
+    <n v="9.3416516836888999"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-PX3G-1626-SM-2S1PT"/>
+    <n v="38.720031854462803"/>
+    <n v="6.5577227623276597"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-Q2AG-0426-SM-2S1PU"/>
+    <n v="42.211636918041201"/>
+    <n v="-7.9324365442282101"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-Q2AH-1826-SM-2S1Q2"/>
+    <n v="43.8235094172286"/>
+    <n v="2.5389550798928"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-Q2AI-1526-SM-3GIJ3"/>
+    <n v="36.599080270666498"/>
+    <n v="7.76230911156643"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-Q734-2026-SM-3GADA"/>
+    <n v="39.607182246082402"/>
+    <n v="1.4851050419918199"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-QCQG-2126-SM-2S1P8"/>
+    <n v="42.450597154112401"/>
+    <n v="10.092668344951701"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-QDT8-0526-SM-3NMD8"/>
+    <n v="36.104651711497397"/>
+    <n v="3.9321948434371201"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-QDVJ-1926-SM-2S1PJ"/>
+    <n v="31.946297001406599"/>
+    <n v="13.441150343858901"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-QDVN-2426-SM-2S1Q4"/>
+    <n v="30.849768889592202"/>
+    <n v="22.263696299227199"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-QEG4-0626-SM-2S1OY"/>
+    <n v="46.644919795015099"/>
+    <n v="-21.9153740891654"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-QEG5-0426-SM-2I5GJ"/>
+    <n v="41.009574520598399"/>
+    <n v="1.8277221532805199"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-QEL4-0626-SM-3GIJM"/>
+    <n v="37.553379400569099"/>
+    <n v="2.48823284337649"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-QESD-1626-SM-2S1RB"/>
+    <n v="46.272401154329501"/>
+    <n v="-20.147550847838801"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-QLQ7-1726-SM-2S1QQ"/>
+    <n v="44.142047687591401"/>
+    <n v="-3.2056529549394601"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-QLQW-1326-SM-2S1QS"/>
+    <n v="40.153487726279202"/>
+    <n v="-5.0414566166642603"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-QV31-1426-SM-2S1QD"/>
+    <n v="44.246505884115997"/>
+    <n v="1.3468178132597901"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-QV44-2026-SM-2S1RD"/>
+    <n v="41.769147128716902"/>
+    <n v="12.128020864989599"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-QVJO-0126-SM-3GIK4"/>
+    <n v="33.194431886052598"/>
+    <n v="12.164067967930899"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-QVUS-0226-SM-3GIJY"/>
+    <n v="41.892464850697898"/>
+    <n v="5.4630779834263299"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-QXCU-1726-SM-2TC6L"/>
+    <n v="39.2761590284329"/>
+    <n v="-22.2735248491257"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-R3RS-0526-SM-3GADG"/>
+    <n v="39.166566046642998"/>
+    <n v="-3.9529600899156199"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-R53T-1826-SM-3GIJX"/>
+    <n v="43.155933241589402"/>
+    <n v="1.91218745761105"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-R55C-1726-SM-3GADJ"/>
+    <n v="44.014545480587302"/>
+    <n v="-0.17020391376986799"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-R55D-0626-SM-3GAD5"/>
+    <n v="38.614446033295003"/>
+    <n v="15.5463241124147"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-R55E-0526-SM-2TC6B"/>
+    <n v="40.252508897164098"/>
+    <n v="-23.811877439216101"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-R55G-2326-SM-2TC61"/>
+    <n v="33.106197180558397"/>
+    <n v="17.6882797446628"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-REY6-0826-SM-2TF4S"/>
+    <n v="43.640124905694599"/>
+    <n v="-9.6988539061503296"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-RM2N-1626-SM-2TF5N"/>
+    <n v="36.812299989897497"/>
+    <n v="16.476690663298701"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-RN64-0326-SM-2TC5J"/>
+    <n v="42.761606271594196"/>
+    <n v="-25.151897005436101"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-RNOR-0526-SM-2TF4O"/>
+    <n v="42.495688175537801"/>
+    <n v="-16.271914512851598"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-RTLS-0526-SM-2TF64"/>
+    <n v="40.572490753788202"/>
+    <n v="9.18730835564957"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-RU1J-1726-SM-2TF5S"/>
+    <n v="40.789989931057399"/>
+    <n v="4.99518639678094"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-RU72-1326-SM-2TF6T"/>
+    <n v="41.291401526870899"/>
+    <n v="-1.7142209466054701"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-RWS6-2126-SM-2XCAV"/>
+    <n v="36.5818646789659"/>
+    <n v="1.6975694626291601E-2"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-RWSA-0726-SM-2XCBE"/>
+    <n v="39.932259707676501"/>
+    <n v="-22.0989832999716"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-S32W-2326-SM-2XCAW"/>
+    <n v="36.196548739810403"/>
+    <n v="9.2943725012271106"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-S33H-2226-SM-5S2UF"/>
+    <n v="43.623039745464801"/>
+    <n v="-15.220781822717999"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-S7PM-0526-SM-3NM92"/>
+    <n v="46.370565895762098"/>
+    <n v="-18.9902495260867"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-S95S-1426-SM-2XCDM"/>
+    <n v="37.7715300710055"/>
+    <n v="2.1052721633931699"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-SE5C-1826-SM-2XCE4"/>
+    <n v="27.3783077322373"/>
+    <n v="18.9374696121657"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-SIU8-0526-SM-2XCDP"/>
+    <n v="39.423092043484601"/>
+    <n v="-24.644759886943199"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-SJXC-0526-SM-2XCFG"/>
+    <n v="41.593157182914801"/>
+    <n v="-19.811786479779801"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-SN8G-0326-SM-32PLG"/>
+    <n v="37.550684777353801"/>
+    <n v="13.385345743485001"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-SNMC-1426-SM-2XCFM"/>
+    <n v="41.3904984706299"/>
+    <n v="5.55400005034587"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-SNOS-1526-SM-32PLW"/>
+    <n v="40.595329167865501"/>
+    <n v="12.797079222029399"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-SSA3-0326-SM-32QPS"/>
+    <n v="38.645320555428498"/>
+    <n v="-12.438721461308599"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-T2IS-2626-SM-32QPP"/>
+    <n v="39.144946319232403"/>
+    <n v="-16.632724658431901"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-T5JC-0626-SM-3NMA6"/>
+    <n v="38.507421546480899"/>
+    <n v="-20.5075425885214"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-T5JW-1826-SM-3GAE1"/>
+    <n v="39.736949417059499"/>
+    <n v="7.9216723442427304"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-T6MN-0526-SM-32PMS"/>
+    <n v="36.652998047886697"/>
+    <n v="-25.1025399539772"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-T8EM-1326-SM-3DB7G"/>
+    <n v="40.246230356530297"/>
+    <n v="8.9120206921944192"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-TKQ1-1426-SM-4GICK"/>
+    <n v="43.039277964909502"/>
+    <n v="7.8826014287698403"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-TKQ2-0826-SM-33HB6"/>
+    <n v="36.9137155153553"/>
+    <n v="-12.455131740872099"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-TML8-1826-SM-32QOR"/>
+    <n v="38.6261628197785"/>
+    <n v="9.2697357521746202"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-TMMY-0426-SM-33HBB"/>
+    <n v="37.449442481613701"/>
+    <n v="17.072541257689799"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-TMZS-0326-SM-3DB9P"/>
+    <n v="42.6548331598459"/>
+    <n v="-13.3983316972606"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-TSE9-0526-SM-3DB7Z"/>
+    <n v="32.347143254623703"/>
+    <n v="6.78447264470881"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-U3ZG-0326-SM-47JXN"/>
+    <n v="39.845969625499599"/>
+    <n v="-18.380437896118799"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-U3ZH-1926-SM-4DXTR"/>
+    <n v="34.330028420694497"/>
+    <n v="8.2326721116048702"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-U3ZM-1226-SM-3DB9G"/>
+    <n v="40.048534095007597"/>
+    <n v="7.5336278605832803"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-U3ZN-2226-SM-3DB88"/>
+    <n v="33.844964756776598"/>
+    <n v="10.109500587529499"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-U412-0326-SM-3DB9L"/>
+    <n v="43.247934311909901"/>
+    <n v="-14.6717719380463"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-U4B1-1626-SM-3DB8N"/>
+    <n v="41.330405117440897"/>
+    <n v="6.8623446987743097"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-U8T8-1426-SM-3DB9H"/>
+    <n v="39.429750080319501"/>
+    <n v="2.38563013029807"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-U8XE-0726-SM-3DB8O"/>
+    <n v="44.208552991587403"/>
+    <n v="-1.00011802301085"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-UJHI-1726-SM-3DB9B"/>
+    <n v="44.792199903731003"/>
+    <n v="11.385105670549001"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-UJMC-1826-SM-3GADT"/>
+    <n v="43.7207151643508"/>
+    <n v="6.1962329772669902"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-UPJH-0526-SM-4IHK8"/>
+    <n v="51.016005071338498"/>
+    <n v="-7.3194369755283297"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-UTHO-0726-SM-3GAEN"/>
+    <n v="38.150438092445398"/>
+    <n v="5.71318707898509"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-V1D1-2426-SM-3GAER"/>
+    <n v="37.309477537156397"/>
+    <n v="7.83237522234786"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-V955-2426-SM-3GAEF"/>
+    <n v="34.7520489850627"/>
+    <n v="15.1394607056019"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-VJWN-0426-SM-3GIJI"/>
+    <n v="42.172182450896301"/>
+    <n v="5.7817186497966304"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-VJYA-1926-SM-3GIJJ"/>
+    <n v="40.594559038277701"/>
+    <n v="1.99489166445179"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-VUSG-2626-SM-4KKZI"/>
+    <n v="33.861337039589102"/>
+    <n v="4.3053040442145099"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-W5WG-1926-SM-4KKZK"/>
+    <n v="40.673171686742002"/>
+    <n v="11.166314816685601"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-WEY5-2026-SM-5SI8D"/>
+    <n v="40.555327750875101"/>
+    <n v="15.9984224301521"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-WFG7-2226-SM-3GIKP"/>
+    <n v="33.948804841972802"/>
+    <n v="14.712075766969701"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-WFG8-2426-SM-3GILL"/>
+    <n v="35.731225841383299"/>
+    <n v="16.1372815621284"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-WFON-2326-SM-3LK7M"/>
+    <n v="44.849502091469603"/>
+    <n v="5.1907607068179402"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-WHPG-2226-SM-3NMBO"/>
+    <n v="44.959158023212098"/>
+    <n v="-4.7342610651281003"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-WHSB-1826-SM-3TW8M"/>
+    <n v="42.1144621801498"/>
+    <n v="10.9093050796188"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-WHSE-0526-SM-5GZZD"/>
+    <n v="33.132294004917703"/>
+    <n v="-14.426842509041601"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-WK11-2526-SM-3NM9Y"/>
+    <n v="45.8972346674866"/>
+    <n v="-25.545647894992801"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-WL46-0626-SM-3LK7R"/>
+    <n v="41.889261682331401"/>
+    <n v="-23.315000725086101"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-WOFL-0626-SM-3MJG3"/>
+    <n v="20.742284223911099"/>
+    <n v="13.186883313654"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-WOFM-1326-SM-3MJFR"/>
+    <n v="36.942791711106402"/>
+    <n v="12.2308524497173"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-WRHK-1626-SM-3MJFH"/>
+    <n v="37.883222381873402"/>
+    <n v="14.381269879217999"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-WRHU-0826-SM-3MJFN"/>
+    <n v="35.393611429363297"/>
+    <n v="-18.2139422105211"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-WWTW-0626-SM-4MVNS"/>
+    <n v="30.639453960009501"/>
+    <n v="24.6121480737756"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-WWYW-0526-SM-3NB2W"/>
+    <n v="39.018048243456299"/>
+    <n v="-6.3994689976260801"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-WXYG-2526-SM-3NB3F"/>
+    <n v="43.873936365591398"/>
+    <n v="8.6013932017760908"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-WY7C-2526-SM-3NB2N"/>
+    <n v="40.403657124698199"/>
+    <n v="9.5235723381464208"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-WYJK-1726-SM-3NM9U"/>
+    <n v="43.720414966058499"/>
+    <n v="10.154518394107701"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-WYVS-2326-SM-3NMAI"/>
+    <n v="38.152679109942703"/>
+    <n v="-2.91370056187445"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-WZTO-0826-SM-3NM8Q"/>
+    <n v="37.801328703587103"/>
+    <n v="-24.512009822856001"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-X261-0326-SM-3NMD4"/>
+    <n v="40.736836669813897"/>
+    <n v="15.7762935112851"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-X4EO-0526-SM-3P5Z3"/>
+    <n v="39.239982477023297"/>
+    <n v="-14.091628097694599"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-X4XX-0626-SM-3NMC1"/>
+    <n v="40.600191948230403"/>
+    <n v="-3.6136856761213698"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-X4XY-0626-SM-4E3IN"/>
+    <n v="36.267736882161401"/>
+    <n v="-1.4641259565635201"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-X5EB-2326-SM-46MW5"/>
+    <n v="46.075432156714697"/>
+    <n v="-3.92086106501909"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-X638-0326-SM-47JY1"/>
+    <n v="36.765427205872498"/>
+    <n v="2.7277746732865298"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-X88G-0326-SM-47JZ4"/>
+    <n v="33.513321430767299"/>
+    <n v="9.9669683074631603"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-X8HC-0526-SM-4E3JA"/>
+    <n v="34.887794035305802"/>
+    <n v="12.108505864649199"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-XAJ8-1026-SM-47JY9"/>
+    <n v="41.363519437095597"/>
+    <n v="6.1171848079947502"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-XBEC-0626-SM-4QARY"/>
+    <n v="46.853627794648801"/>
+    <n v="-13.6709297699516"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-XBED-2626-SM-4E3J5"/>
+    <n v="42.345589464901899"/>
+    <n v="1.3049905073822701"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-XBEW-1026-SM-4QARV"/>
+    <n v="45.003210450618298"/>
+    <n v="11.618045548829"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-XGQ4-2326-SM-4AT53"/>
+    <n v="36.279547876686102"/>
+    <n v="2.0802991181199499"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-XMD2-0526-SM-4YCDI"/>
+    <n v="32.587805863591903"/>
+    <n v="13.9556529701243"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-XOT4-0526-SM-4B66O"/>
+    <n v="43.800294218404503"/>
+    <n v="-16.490684999766501"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-XPT6-2026-SM-4B64V"/>
+    <n v="39.541553786124801"/>
+    <n v="14.8238906241286"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-XPVG-2526-SM-4B66D"/>
+    <n v="38.043173257025501"/>
+    <n v="12.3178027288166"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-XQ3S-0426-SM-4BOOA"/>
+    <n v="45.769684041822899"/>
+    <n v="-25.288319474191301"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-XQ8I-0626-SM-4BOPT"/>
+    <n v="39.8439587221729"/>
+    <n v="22.802452454526101"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-XUW1-0826-SM-4BOP6"/>
+    <n v="37.889657812564501"/>
+    <n v="15.620693478880799"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-XUYS-0326-SM-47JX2"/>
+    <n v="42.3065198343348"/>
+    <n v="-28.5228800332942"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-XUZC-2126-SM-4BRW8"/>
+    <n v="36.543006192152902"/>
+    <n v="25.690122699887802"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-XV7Q-2926-SM-4BRUL"/>
+    <n v="31.120654056039999"/>
+    <n v="20.4034266094306"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-XYKS-2426-SM-4AT43"/>
+    <n v="34.954716912439203"/>
+    <n v="15.4639135457378"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-Y111-0326-SM-4SOIX"/>
+    <n v="40.711181858761002"/>
+    <n v="-24.2998101094927"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-Y114-2526-SM-4TT8M"/>
+    <n v="41.073408927455297"/>
+    <n v="12.068243855283599"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-Y3I4-2326-SM-4TT81"/>
+    <n v="43.592642561296003"/>
+    <n v="2.7090693928947198"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-Y3IK-2626-SM-4WWDK"/>
+    <n v="42.084212763625104"/>
+    <n v="4.65438892666812"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-Y5LM-2126-SM-4VDSY"/>
+    <n v="31.761964126895201"/>
+    <n v="22.633559891332499"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-Y5V5-2526-SM-4VBQ4"/>
+    <n v="38.285776864554798"/>
+    <n v="5.0059100476137601"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-Y5V6-2626-SM-5IFIX"/>
+    <n v="44.125794227727297"/>
+    <n v="8.4055162885659094"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-Y8DK-0326-SM-4TT3P"/>
+    <n v="44.346048210335802"/>
+    <n v="-26.964081827191499"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-Y8E4-1026-SM-4VBQ5"/>
+    <n v="40.528937872489401"/>
+    <n v="-1.3381093139367399"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-Y8E5-0326-SM-57WBM"/>
+    <n v="37.199317315831799"/>
+    <n v="-5.9517511731863602"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-Y8LW-2026-SM-4V6G8"/>
+    <n v="37.616772670988503"/>
+    <n v="7.0843135389712799"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-Y9LG-1926-SM-5IFHY"/>
+    <n v="42.528571726570597"/>
+    <n v="10.919318756716301"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-YB5E-2226-SM-5IFJ5"/>
+    <n v="39.010053108500699"/>
+    <n v="13.8242788638451"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-YB5K-2326-SM-5IFHD"/>
+    <n v="43.6767419954652"/>
+    <n v="1.30845814418986"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-YBZK-0326-SM-59HLN"/>
+    <n v="33.756817475487097"/>
+    <n v="-2.63093075659613"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-YEC3-2126-SM-4YCDB"/>
+    <n v="40.511070099176898"/>
+    <n v="10.023422217293801"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-YEC4-2226-SM-5IFJT"/>
+    <n v="41.574244086815298"/>
+    <n v="0.49092364452228499"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-YECK-0626-SM-4W1ZE"/>
+    <n v="45.120044695185399"/>
+    <n v="-22.947900711323701"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-YF7O-2526-SM-5IFJX"/>
+    <n v="40.007259540923101"/>
+    <n v="14.058461608315399"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-YFC4-1026-SM-5RQJM"/>
+    <n v="44.483341124895297"/>
+    <n v="-15.321757447421501"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-YFCO-1926-SM-4W212"/>
+    <n v="44.489346972434298"/>
+    <n v="12.062571707525599"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-YJ8O-2826-SM-5CVM4"/>
+    <n v="42.163818327407697"/>
+    <n v="-22.191194706565199"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-Z93S-1326-SM-5CVMR"/>
+    <n v="44.390715299746702"/>
+    <n v="-20.647099543092899"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-Z9EW-1726-SM-5CVMO"/>
+    <n v="40.685757271552198"/>
+    <n v="3.4467079079555401"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZA64-2026-SM-5PNXT"/>
+    <n v="42.901334282758"/>
+    <n v="4.9192383603026704"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZAB4-0426-SM-5HL7N"/>
+    <n v="40.903985605656402"/>
+    <n v="-1.2714229093579501"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZAB5-2126-SM-5K7UN"/>
+    <n v="45.078551227053602"/>
+    <n v="-1.63456506386923"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZAJG-0526-SM-5S2MT"/>
+    <n v="44.845014794284197"/>
+    <n v="7.8836032411481103"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZAK1-0526-SM-5K7X4"/>
+    <n v="41.297035506995599"/>
+    <n v="-17.346154295853498"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZAKK-0326-SM-5EGHA"/>
+    <n v="39.887224607517602"/>
+    <n v="-11.6785233813365"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZC5H-0326-SM-5HL9F"/>
+    <n v="36.539154784344099"/>
+    <n v="13.820181298806901"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZDTS-0526-SM-4WKH9"/>
+    <n v="45.997673904163499"/>
+    <n v="-26.370584282306101"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZDXO-0326-SM-4WKHJ"/>
+    <n v="38.852037900603797"/>
+    <n v="-18.008227234850398"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZDYS-1726-SM-5HL4Y"/>
+    <n v="35.983710180054203"/>
+    <n v="-1.3684161869938001"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZE7O-0326-SM-51MTH"/>
+    <n v="41.097106769427299"/>
+    <n v="-13.7209653348619"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZE9C-2326-SM-5J1NT"/>
+    <n v="42.095839212390203"/>
+    <n v="-18.701792166835801"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZF28-0526-SM-4WKGW"/>
+    <n v="37.903356662534399"/>
+    <n v="10.8325944789456"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZF2S-2126-SM-4WWAY"/>
+    <n v="39.902555938278702"/>
+    <n v="-0.93319103236009804"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZF3C-0326-SM-4WWBF"/>
+    <n v="42.478726389743301"/>
+    <n v="8.6593103441907608"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZLV1-2126-SM-4WWD2"/>
+    <n v="36.485223108970999"/>
+    <n v="22.4286161603371"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZP4G-2026-SM-57WEH"/>
+    <n v="33.810424437648201"/>
+    <n v="13.4283247985855"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZPCL-2026-SM-57WFD"/>
+    <n v="45.004721711664601"/>
+    <n v="2.7606877436240098"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZPIC-2526-SM-57WDP"/>
+    <n v="35.653608167324002"/>
+    <n v="5.2938652312204901"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZQG8-1226-SM-51MRX"/>
+    <n v="42.243023580115803"/>
+    <n v="12.4998670571429"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZQUD-1726-SM-51MRQ"/>
+    <n v="43.1277333853104"/>
+    <n v="8.2141994044066404"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZT9X-1826-SM-57WDU"/>
+    <n v="36.899132656355"/>
+    <n v="8.4077763361233604"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZTPG-0126-SM-5O9AL"/>
+    <n v="38.154880606157597"/>
+    <n v="14.215660627817099"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZTX8-1626-SM-51MRY"/>
+    <n v="42.8105043414186"/>
+    <n v="2.7527039675058198"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZUA1-0326-SM-5NQA3"/>
+    <n v="41.594415842942396"/>
+    <n v="-26.3358267856769"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZV68-0526-SM-59HKI"/>
+    <n v="46.7174564561981"/>
+    <n v="-7.4440649122394804"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZV6S-2126-SM-4YCEM"/>
+    <n v="37.077579404009498"/>
+    <n v="18.771932073963701"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZV7C-2426-SM-5NQ7Q"/>
+    <n v="46.716867635565997"/>
+    <n v="9.0635445399514101"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZVE1-0526-SM-5NQ71"/>
+    <n v="38.496712403721801"/>
+    <n v="16.849380100955202"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZVE2-0626-SM-5GU7I"/>
+    <n v="34.7630169772344"/>
+    <n v="15.730837157557"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZVP2-2126-SM-5GU6E"/>
+    <n v="43.879887662406801"/>
+    <n v="9.3685927819129091"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZVT2-2426-SM-57WCQ"/>
+    <n v="40.829480025086603"/>
+    <n v="18.727109605265401"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZVT3-0526-SM-5GIE9"/>
+    <n v="45.730059980660201"/>
+    <n v="-19.617453375993598"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZVT4-0326-SM-51MS5"/>
+    <n v="41.005279048391898"/>
+    <n v="-8.2515202627354007"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZVTK-0626-SM-5GU6Y"/>
+    <n v="43.805747714593302"/>
+    <n v="-24.963221128251998"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZVZO-0326-SM-5HL4N"/>
+    <n v="38.416480090643503"/>
+    <n v="-1.9118784091618899"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZVZP-2526-SM-57WBR"/>
+    <n v="32.840099278400601"/>
+    <n v="20.246284943711998"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZWKS-0326-SM-5NQ7G"/>
+    <n v="33.672220610588198"/>
+    <n v="14.31828172148"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZXG5-0326-SM-5GICH"/>
+    <n v="43.167787840994002"/>
+    <n v="3.1856362179989"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZY6K-2026-SM-5GZXQ"/>
+    <n v="41.434474671967997"/>
+    <n v="6.2421329566421297"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZYFC-0526-SM-5GIDF"/>
+    <n v="40.767016697043097"/>
+    <n v="-24.458157031032499"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZYFD-0326-SM-5NQ8I"/>
+    <n v="41.697650719167903"/>
+    <n v="-12.5495952638571"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZYFG-2426-SM-5GIE8"/>
+    <n v="38.893477854234"/>
+    <n v="23.216900756334802"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZYT6-1626-SM-5E45R"/>
+    <n v="46.544356921676197"/>
+    <n v="-25.210271459177999"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZYVF-0626-SM-5E43Q"/>
+    <n v="26.4959165177765"/>
+    <n v="5.9343177364473396"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZYW4-0526-SM-5GZZ5"/>
+    <n v="38.354519592501497"/>
+    <n v="-4.8513655270102003"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZYY3-0526-SM-5E45G"/>
+    <n v="36.258191966404901"/>
+    <n v="17.587447618229302"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZZ64-1526-SM-5E43K"/>
+    <n v="37.128071680087999"/>
+    <n v="3.92752088122583"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZZPT-0626-SM-5GZXT"/>
+    <n v="20.9110767684375"/>
+    <n v="27.7079523180286"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="GTEX-ZZPU-2626-SM-5E45Y"/>
+    <n v="40.015349813615501"/>
+    <n v="17.435375864156299"/>
+    <s v="S"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EFDBAEE7-FAE8-46D6-952A-8B221F9805DB}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J4:K7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of levs" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3488,19 +9660,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E868"/>
+  <dimension ref="A1:K868"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="D303" sqref="D303"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>873</v>
       </c>
@@ -3517,7 +9691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3534,7 +9708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3551,7 +9725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3567,8 +9741,14 @@
       <c r="E4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="K4" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3584,8 +9764,14 @@
       <c r="E5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3601,8 +9787,14 @@
       <c r="E6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J6" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K6" s="3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3618,8 +9810,14 @@
       <c r="E7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J7" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="K7" s="3">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -3636,7 +9834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3653,7 +9851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3670,7 +9868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3687,7 +9885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -3704,7 +9902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -3721,7 +9919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -3738,7 +9936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -3755,7 +9953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
